--- a/untranslated/downloads/data-excel/8.5.1.1.xlsx
+++ b/untranslated/downloads/data-excel/8.5.1.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\ПоказателиЦУР для Платформы\Национальные показатели ЦУР\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\Показатели ЦУР для Платформы\Национальные показатели ЦУР\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -252,7 +252,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -290,13 +290,6 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
@@ -308,6 +301,19 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -317,7 +323,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -334,6 +340,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -341,7 +358,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -358,9 +375,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -388,10 +402,7 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -406,9 +417,6 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -424,8 +432,35 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -722,13 +757,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="25" t="s">
         <v>44</v>
       </c>
       <c r="D1" s="1"/>
@@ -792,2172 +827,2354 @@
       <c r="L3" s="5">
         <v>2019</v>
       </c>
-      <c r="M3" s="6"/>
+      <c r="M3" s="28">
+        <v>2020</v>
+      </c>
     </row>
     <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>9304</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>10726.4</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>11341</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <v>12285</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="9">
         <v>13483</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="10">
         <v>14847</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="10">
         <v>15670</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="10">
         <v>16427</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="10">
         <v>17232</v>
       </c>
+      <c r="M4" s="29">
+        <v>18940</v>
+      </c>
     </row>
     <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>8365.6</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="13">
         <v>8700.2999999999993</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="13">
         <v>9113.1</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="13">
         <v>9732.4</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="13">
         <v>11125.3</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="13">
         <v>11742.9</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="13">
         <v>12182.8</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="14">
         <v>12573.5</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="14">
         <v>14421</v>
       </c>
+      <c r="M5" s="30">
+        <v>15078.2</v>
+      </c>
     </row>
     <row r="6" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <v>10675.2</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="13">
         <v>11716.3</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="13">
         <v>12439.5</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="13">
         <v>13694.6</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="13">
         <v>14742.8</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="13">
         <v>15591.5</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="13">
         <v>16802.099999999999</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="14">
         <v>17556.400000000001</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="14">
         <v>18724</v>
       </c>
+      <c r="M6" s="30">
+        <v>19991.5</v>
+      </c>
     </row>
     <row r="7" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="19">
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17">
         <v>6044</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="18">
         <v>8331</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="18">
         <v>9010</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="18">
         <v>9643</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="19">
         <v>10084</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="19">
         <v>10186</v>
       </c>
+      <c r="M7" s="31">
+        <v>10479</v>
+      </c>
     </row>
     <row r="8" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <v>4548.5</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="13">
         <v>4726.7</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="13">
         <v>5230.8</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="13">
         <v>6192.7</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="13">
         <v>7378.6</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="13">
         <v>7390</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="13">
         <v>8497</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="14">
         <v>8905.7000000000007</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="14">
         <v>9077.1</v>
       </c>
+      <c r="M8" s="32">
+        <v>9416.2000000000007</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>4561.6000000000004</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="13">
         <v>4879.8999999999996</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="13">
         <v>5699.4</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="13">
         <v>6074.3</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="13">
         <v>9018.1</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="13">
         <v>8359.7999999999993</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="13">
         <v>8922.4</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="14">
         <v>9116.6</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="14">
         <v>9775.9</v>
       </c>
+      <c r="M9" s="32">
+        <v>10370.299999999999</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="19">
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17">
         <v>15134</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="18">
         <v>20225</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="18">
         <v>25265</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10" s="18">
         <v>24254</v>
       </c>
-      <c r="K10" s="21">
+      <c r="K10" s="19">
         <v>26046</v>
       </c>
-      <c r="L10" s="21">
+      <c r="L10" s="19">
         <v>29769</v>
       </c>
+      <c r="M10" s="31">
+        <v>32688</v>
+      </c>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <v>10291.1</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <v>13648.2</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="13">
         <v>13694.6</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="13">
         <v>14243.4</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="13">
         <v>20206.2</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="13">
         <v>23165.5</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="13">
         <v>22098.5</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="14">
         <v>19858.599999999999</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="14">
         <v>25112.799999999999</v>
       </c>
+      <c r="M11" s="32">
+        <v>31672.7</v>
+      </c>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <v>10478.799999999999</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <v>17111.099999999999</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="13">
         <v>14402.8</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="13">
         <v>15562.2</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="13">
         <v>20843.900000000001</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="13">
         <v>25767.3</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="13">
         <v>23738</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="14">
         <v>26349.599999999999</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L12" s="14">
         <v>29614.3</v>
       </c>
+      <c r="M12" s="32">
+        <v>30927.200000000001</v>
+      </c>
     </row>
     <row r="13" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19">
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="17">
         <v>18577</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="18">
         <v>19340</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="18">
         <v>21162</v>
       </c>
-      <c r="J13" s="20">
+      <c r="J13" s="18">
         <v>24026</v>
       </c>
-      <c r="K13" s="21">
+      <c r="K13" s="19">
         <v>24253</v>
       </c>
-      <c r="L13" s="21">
+      <c r="L13" s="19">
         <v>25697</v>
       </c>
+      <c r="M13" s="31">
+        <v>31221</v>
+      </c>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="13">
         <v>7779.9</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="13">
         <v>9583.2000000000007</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="13">
         <v>9506.6</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="13">
         <v>10322</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="13">
         <v>11022.6</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="13">
         <v>11949.9</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="13">
         <v>12736.5</v>
       </c>
-      <c r="K14" s="15">
+      <c r="K14" s="14">
         <v>13704.7</v>
       </c>
-      <c r="L14" s="15">
+      <c r="L14" s="14">
         <v>15161</v>
       </c>
+      <c r="M14" s="32">
+        <v>16268</v>
+      </c>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="13">
         <v>10879.1</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="13">
         <v>11594.8</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="13">
         <v>12216.2</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="13">
         <v>13090.4</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="13">
         <v>13740</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="13">
         <v>15076.2</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="13">
         <v>15802.1</v>
       </c>
-      <c r="K15" s="15">
+      <c r="K15" s="14">
         <v>16711.7</v>
       </c>
-      <c r="L15" s="15">
+      <c r="L15" s="14">
         <v>17658.900000000001</v>
       </c>
+      <c r="M15" s="32">
+        <v>21044.9</v>
+      </c>
     </row>
     <row r="16" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="19">
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="17">
         <v>20571.599999999999</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="18">
         <v>23537</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I16" s="18">
         <v>27094</v>
       </c>
-      <c r="J16" s="20">
+      <c r="J16" s="18">
         <v>29528</v>
       </c>
-      <c r="K16" s="21">
+      <c r="K16" s="19">
         <v>30819</v>
       </c>
-      <c r="L16" s="21">
+      <c r="L16" s="19">
         <v>31452</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
+      <c r="M16" s="31">
+        <v>31297</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="13">
         <v>14160.1</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="13">
         <v>18564.400000000001</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="13">
         <v>17006.400000000001</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="13">
         <v>19774.7</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="13">
         <v>22865.4</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="13">
         <v>23702.799999999999</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="13">
         <v>24394.9</v>
       </c>
-      <c r="K17" s="15">
+      <c r="K17" s="14">
         <v>24855</v>
       </c>
-      <c r="L17" s="15">
+      <c r="L17" s="14">
         <v>28936.1</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
+      <c r="M17" s="32">
+        <v>27557.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="13">
         <v>15121.5</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="13">
         <v>18018.099999999999</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="13">
         <v>17317.900000000001</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="13">
         <v>19512.8</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="13">
         <v>23517.5</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="13">
         <v>24212.7</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="13">
         <v>24266.400000000001</v>
       </c>
-      <c r="K18" s="15">
+      <c r="K18" s="14">
         <v>26772.1</v>
       </c>
-      <c r="L18" s="15">
+      <c r="L18" s="14">
         <v>29039.9</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
+      <c r="M18" s="32">
+        <v>28338.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="19">
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17">
         <v>9329.7999999999993</v>
       </c>
-      <c r="H19" s="20">
+      <c r="H19" s="18">
         <v>10833</v>
       </c>
-      <c r="I19" s="20">
+      <c r="I19" s="18">
         <v>11478</v>
       </c>
-      <c r="J19" s="20">
+      <c r="J19" s="18">
         <v>11802</v>
       </c>
-      <c r="K19" s="21">
+      <c r="K19" s="19">
         <v>12367</v>
       </c>
-      <c r="L19" s="21">
+      <c r="L19" s="19">
         <v>12824</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
+      <c r="M19" s="31">
+        <v>14781</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="13">
         <v>7097.9</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="13">
         <v>7874.8</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="13">
         <v>8309.5</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="13">
         <v>8752.5</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="13">
         <v>9335.7000000000007</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="13">
         <v>10668.2</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="13">
         <v>11217</v>
       </c>
-      <c r="K20" s="15">
+      <c r="K20" s="14">
         <v>11809.7</v>
       </c>
-      <c r="L20" s="15">
+      <c r="L20" s="14">
         <v>14491.6</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
+      <c r="M20" s="32">
+        <v>14552.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="13">
         <v>8512.1</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="13">
         <v>9348.2999999999993</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="13">
         <v>10479.9</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="13">
         <v>12181.5</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="13">
         <v>11772.3</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I21" s="13">
         <v>12166.8</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="13">
         <v>13276.3</v>
       </c>
-      <c r="K21" s="15">
+      <c r="K21" s="14">
         <v>14015.9</v>
       </c>
-      <c r="L21" s="15">
+      <c r="L21" s="14">
         <v>14979.6</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
+      <c r="M21" s="32">
+        <v>16785.599999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="19">
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17">
         <v>10007</v>
       </c>
-      <c r="H22" s="20">
+      <c r="H22" s="18">
         <v>11959</v>
       </c>
-      <c r="I22" s="20">
+      <c r="I22" s="18">
         <v>12384</v>
       </c>
-      <c r="J22" s="20">
+      <c r="J22" s="18">
         <v>13156</v>
       </c>
-      <c r="K22" s="21">
+      <c r="K22" s="19">
         <v>14549</v>
       </c>
-      <c r="L22" s="21">
+      <c r="L22" s="19">
         <v>14853</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
+      <c r="M22" s="31">
+        <v>15748</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="13">
         <v>7461.7</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="13">
         <v>8708.7999999999993</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="13">
         <v>10101</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="13">
         <v>8990.4</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H23" s="13">
         <v>8991.5</v>
       </c>
-      <c r="I23" s="14">
+      <c r="I23" s="13">
         <v>11706.6</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J23" s="13">
         <v>14489.9</v>
       </c>
-      <c r="K23" s="15">
+      <c r="K23" s="14">
         <v>13824.4</v>
       </c>
-      <c r="L23" s="15">
+      <c r="L23" s="14">
         <v>15478.4</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
+      <c r="M23" s="32">
+        <v>14581.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="13">
         <v>9692.9</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="13">
         <v>10047.4</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="13">
         <v>10554.2</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="13">
         <v>11811.2</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="13">
         <v>11689.2</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I24" s="13">
         <v>14730.1</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J24" s="13">
         <v>16612.5</v>
       </c>
-      <c r="K24" s="15">
+      <c r="K24" s="14">
         <v>16640.2</v>
       </c>
-      <c r="L24" s="15">
+      <c r="L24" s="14">
         <v>20339.099999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
+      <c r="M24" s="32">
+        <v>18540.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="19">
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="17">
         <v>12361</v>
       </c>
-      <c r="H25" s="20">
+      <c r="H25" s="18">
         <v>12648</v>
       </c>
-      <c r="I25" s="20">
+      <c r="I25" s="18">
         <v>13150</v>
       </c>
-      <c r="J25" s="20">
+      <c r="J25" s="18">
         <v>13958</v>
       </c>
-      <c r="K25" s="21">
+      <c r="K25" s="19">
         <v>14417</v>
       </c>
-      <c r="L25" s="21">
+      <c r="L25" s="19">
         <v>14109</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="s">
+      <c r="M25" s="31">
+        <v>14926</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="13">
         <v>10848.1</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="13">
         <v>10912.9</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="13">
         <v>11559.5</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="13">
         <v>13767.4</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26" s="13">
         <v>12455.4</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I26" s="13">
         <v>14647.7</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J26" s="13">
         <v>14808.3</v>
       </c>
-      <c r="K26" s="15">
+      <c r="K26" s="14">
         <v>16022.1</v>
       </c>
-      <c r="L26" s="15">
+      <c r="L26" s="14">
         <v>16246.1</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="12" t="s">
+      <c r="M26" s="32">
+        <v>16290.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="13">
         <v>13252</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="13">
         <v>14999.1</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F27" s="13">
         <v>15591.8</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G27" s="13">
         <v>17200.5</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27" s="13">
         <v>15170.8</v>
       </c>
-      <c r="I27" s="14">
+      <c r="I27" s="13">
         <v>17360.8</v>
       </c>
-      <c r="J27" s="14">
+      <c r="J27" s="13">
         <v>16556.2</v>
       </c>
-      <c r="K27" s="15">
+      <c r="K27" s="14">
         <v>17624.099999999999</v>
       </c>
-      <c r="L27" s="15">
+      <c r="L27" s="14">
         <v>19132.8</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="22" t="s">
+      <c r="M27" s="32">
+        <v>19391.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="19">
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="17">
         <v>16133</v>
       </c>
-      <c r="H28" s="20">
+      <c r="H28" s="18">
         <v>18143</v>
       </c>
-      <c r="I28" s="20">
+      <c r="I28" s="18">
         <v>19862</v>
       </c>
-      <c r="J28" s="20">
+      <c r="J28" s="18">
         <v>22617</v>
       </c>
-      <c r="K28" s="21">
+      <c r="K28" s="19">
         <v>23037</v>
       </c>
-      <c r="L28" s="21">
+      <c r="L28" s="19">
         <v>23141</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
+      <c r="M28" s="31">
+        <v>21060</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="13">
         <v>9395.1</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="13">
         <v>10325</v>
       </c>
-      <c r="F29" s="14">
+      <c r="F29" s="13">
         <v>11036.2</v>
       </c>
-      <c r="G29" s="14">
+      <c r="G29" s="13">
         <v>13857.9</v>
       </c>
-      <c r="H29" s="14">
+      <c r="H29" s="13">
         <v>14205.6</v>
       </c>
-      <c r="I29" s="14">
+      <c r="I29" s="13">
         <v>13837.2</v>
       </c>
-      <c r="J29" s="14">
+      <c r="J29" s="13">
         <v>16074.1</v>
       </c>
-      <c r="K29" s="15">
+      <c r="K29" s="14">
         <v>14876.6</v>
       </c>
-      <c r="L29" s="15">
+      <c r="L29" s="14">
         <v>15182.1</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="s">
+      <c r="M29" s="32">
+        <v>15782.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="13">
         <v>12164.4</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="13">
         <v>15698.9</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F30" s="13">
         <v>17090.7</v>
       </c>
-      <c r="G30" s="14">
+      <c r="G30" s="13">
         <v>21369.200000000001</v>
       </c>
-      <c r="H30" s="14">
+      <c r="H30" s="13">
         <v>22780</v>
       </c>
-      <c r="I30" s="14">
+      <c r="I30" s="13">
         <v>22726.5</v>
       </c>
-      <c r="J30" s="14">
+      <c r="J30" s="13">
         <v>25482.6</v>
       </c>
-      <c r="K30" s="15">
+      <c r="K30" s="14">
         <v>25678.1</v>
       </c>
-      <c r="L30" s="15">
+      <c r="L30" s="14">
         <v>24925.1</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="16" t="s">
+      <c r="M30" s="32">
+        <v>24799.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="19">
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="17">
         <v>8813.1</v>
       </c>
-      <c r="H31" s="20">
+      <c r="H31" s="18">
         <v>9553</v>
       </c>
-      <c r="I31" s="20">
+      <c r="I31" s="18">
         <v>10265</v>
       </c>
-      <c r="J31" s="20">
+      <c r="J31" s="18">
         <v>11138</v>
       </c>
-      <c r="K31" s="21">
+      <c r="K31" s="19">
         <v>12003</v>
       </c>
-      <c r="L31" s="21">
+      <c r="L31" s="19">
         <v>12577</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="12" t="s">
+      <c r="M31" s="31">
+        <v>12863</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D32" s="13">
         <v>7487.3</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E32" s="13">
         <v>10012.700000000001</v>
       </c>
-      <c r="F32" s="14">
+      <c r="F32" s="13">
         <v>9877.6</v>
       </c>
-      <c r="G32" s="14">
+      <c r="G32" s="13">
         <v>9314.5</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H32" s="13">
         <v>9799.1</v>
       </c>
-      <c r="I32" s="14">
+      <c r="I32" s="13">
         <v>9837.6</v>
       </c>
-      <c r="J32" s="14">
+      <c r="J32" s="13">
         <v>11401.1</v>
       </c>
-      <c r="K32" s="15">
+      <c r="K32" s="14">
         <v>12791</v>
       </c>
-      <c r="L32" s="15">
+      <c r="L32" s="14">
         <v>14685.6</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="12" t="s">
+      <c r="M32" s="32">
+        <v>16302.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="13">
         <v>10371.4</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33" s="13">
         <v>10772.3</v>
       </c>
-      <c r="F33" s="14">
+      <c r="F33" s="13">
         <v>11218.6</v>
       </c>
-      <c r="G33" s="14">
+      <c r="G33" s="13">
         <v>12369.8</v>
       </c>
-      <c r="H33" s="14">
+      <c r="H33" s="13">
         <v>12729.2</v>
       </c>
-      <c r="I33" s="14">
+      <c r="I33" s="13">
         <v>13681.8</v>
       </c>
-      <c r="J33" s="14">
+      <c r="J33" s="13">
         <v>11978.9</v>
       </c>
-      <c r="K33" s="15">
+      <c r="K33" s="14">
         <v>15929.9</v>
       </c>
-      <c r="L33" s="15">
+      <c r="L33" s="14">
         <v>17239.900000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="22" t="s">
+      <c r="M33" s="32">
+        <v>18672.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="21">
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="19">
         <v>21862</v>
       </c>
-      <c r="H34" s="20">
+      <c r="H34" s="18">
         <v>24678</v>
       </c>
-      <c r="I34" s="20">
+      <c r="I34" s="18">
         <v>26204</v>
       </c>
-      <c r="J34" s="20">
+      <c r="J34" s="18">
         <v>28160</v>
       </c>
-      <c r="K34" s="21">
+      <c r="K34" s="19">
         <v>30707</v>
       </c>
-      <c r="L34" s="21">
+      <c r="L34" s="19">
         <v>29713</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="12" t="s">
+      <c r="M34" s="31">
+        <v>35114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D35" s="13">
         <v>14988.1</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E35" s="13">
         <v>15828.9</v>
       </c>
-      <c r="F35" s="14">
+      <c r="F35" s="13">
         <v>18211.400000000001</v>
       </c>
-      <c r="G35" s="14">
+      <c r="G35" s="13">
         <v>18929.5</v>
       </c>
-      <c r="H35" s="14">
+      <c r="H35" s="13">
         <v>19306.400000000001</v>
       </c>
-      <c r="I35" s="14">
+      <c r="I35" s="13">
         <v>27087.599999999999</v>
       </c>
-      <c r="J35" s="14">
+      <c r="J35" s="13">
         <v>24367</v>
       </c>
-      <c r="K35" s="15">
+      <c r="K35" s="14">
         <v>26919.8</v>
       </c>
-      <c r="L35" s="15">
+      <c r="L35" s="14">
         <v>30636.9</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="12" t="s">
+      <c r="M35" s="32">
+        <v>29827.200000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D36" s="13">
         <v>19715.7</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E36" s="13">
         <v>21524.7</v>
       </c>
-      <c r="F36" s="14">
+      <c r="F36" s="13">
         <v>24850.9</v>
       </c>
-      <c r="G36" s="14">
+      <c r="G36" s="13">
         <v>24702.2</v>
       </c>
-      <c r="H36" s="14">
+      <c r="H36" s="13">
         <v>28211.8</v>
       </c>
-      <c r="I36" s="14">
+      <c r="I36" s="13">
         <v>24422.400000000001</v>
       </c>
-      <c r="J36" s="14">
+      <c r="J36" s="13">
         <v>30262.799999999999</v>
       </c>
-      <c r="K36" s="15">
+      <c r="K36" s="14">
         <v>39038.199999999997</v>
       </c>
-      <c r="L36" s="15">
+      <c r="L36" s="14">
         <v>36272.199999999997</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="22" t="s">
+      <c r="M36" s="32">
+        <v>39569.199999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="21">
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="19">
         <v>27066</v>
       </c>
-      <c r="H37" s="20">
+      <c r="H37" s="18">
         <v>26903</v>
       </c>
-      <c r="I37" s="20">
+      <c r="I37" s="18">
         <v>30157</v>
       </c>
-      <c r="J37" s="20">
+      <c r="J37" s="18">
         <v>33038</v>
       </c>
-      <c r="K37" s="21">
+      <c r="K37" s="19">
         <v>34019</v>
       </c>
-      <c r="L37" s="21">
+      <c r="L37" s="19">
         <v>35637</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="12" t="s">
+      <c r="M37" s="31">
+        <v>35343</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D38" s="14">
+      <c r="D38" s="13">
         <v>18256.900000000001</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E38" s="13">
         <v>19804.3</v>
       </c>
-      <c r="F38" s="14">
+      <c r="F38" s="13">
         <v>21181.1</v>
       </c>
-      <c r="G38" s="14">
+      <c r="G38" s="13">
         <v>24106.799999999999</v>
       </c>
-      <c r="H38" s="14">
+      <c r="H38" s="13">
         <v>24028</v>
       </c>
-      <c r="I38" s="14">
+      <c r="I38" s="13">
         <v>24482.400000000001</v>
       </c>
-      <c r="J38" s="14">
+      <c r="J38" s="13">
         <v>24810.5</v>
       </c>
-      <c r="K38" s="15">
+      <c r="K38" s="14">
         <v>28331</v>
       </c>
-      <c r="L38" s="15">
+      <c r="L38" s="14">
         <v>31556.2</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="12" t="s">
+      <c r="M38" s="32">
+        <v>31531.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D39" s="13">
         <v>23772.5</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E39" s="13">
         <v>25192</v>
       </c>
-      <c r="F39" s="14">
+      <c r="F39" s="13">
         <v>26902.3</v>
       </c>
-      <c r="G39" s="14">
+      <c r="G39" s="13">
         <v>32503.3</v>
       </c>
-      <c r="H39" s="14">
+      <c r="H39" s="13">
         <v>31556.2</v>
       </c>
-      <c r="I39" s="14">
+      <c r="I39" s="13">
         <v>32357</v>
       </c>
-      <c r="J39" s="14">
+      <c r="J39" s="13">
         <v>36351.699999999997</v>
       </c>
-      <c r="K39" s="15">
+      <c r="K39" s="14">
         <v>36192.1</v>
       </c>
-      <c r="L39" s="15">
+      <c r="L39" s="14">
         <v>41375</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="22" t="s">
+      <c r="M39" s="32">
+        <v>42666.9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="21">
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="19">
         <v>7938</v>
       </c>
-      <c r="H40" s="20">
+      <c r="H40" s="18">
         <v>9703</v>
       </c>
-      <c r="I40" s="20">
+      <c r="I40" s="18">
         <v>10000</v>
       </c>
-      <c r="J40" s="20">
+      <c r="J40" s="18">
         <v>10086</v>
       </c>
-      <c r="K40" s="21">
+      <c r="K40" s="19">
         <v>11337</v>
       </c>
-      <c r="L40" s="21">
+      <c r="L40" s="19">
         <v>12038</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="12" t="s">
+      <c r="M40" s="31">
+        <v>11408</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D41" s="14">
+      <c r="D41" s="13">
         <v>6003</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E41" s="13">
         <v>7520.8</v>
       </c>
-      <c r="F41" s="14">
+      <c r="F41" s="13">
         <v>7942.1</v>
       </c>
-      <c r="G41" s="14">
+      <c r="G41" s="13">
         <v>9733.9</v>
       </c>
-      <c r="H41" s="14">
+      <c r="H41" s="13">
         <v>10921.3</v>
       </c>
-      <c r="I41" s="14">
+      <c r="I41" s="13">
         <v>10633.5</v>
       </c>
-      <c r="J41" s="14">
+      <c r="J41" s="13">
         <v>11195.2</v>
       </c>
-      <c r="K41" s="15">
+      <c r="K41" s="14">
         <v>12556.1</v>
       </c>
-      <c r="L41" s="15">
+      <c r="L41" s="14">
         <v>14041</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="12" t="s">
+      <c r="M41" s="32">
+        <v>14029.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D42" s="14">
+      <c r="D42" s="13">
         <v>7571.4</v>
       </c>
-      <c r="E42" s="14">
+      <c r="E42" s="13">
         <v>8564.2999999999993</v>
       </c>
-      <c r="F42" s="14">
+      <c r="F42" s="13">
         <v>9644.7000000000007</v>
       </c>
-      <c r="G42" s="14">
+      <c r="G42" s="13">
         <v>10498.3</v>
       </c>
-      <c r="H42" s="14">
+      <c r="H42" s="13">
         <v>12427.6</v>
       </c>
-      <c r="I42" s="14">
+      <c r="I42" s="13">
         <v>12024.1</v>
       </c>
-      <c r="J42" s="14">
+      <c r="J42" s="13">
         <v>13722.1</v>
       </c>
-      <c r="K42" s="15">
+      <c r="K42" s="14">
         <v>13757.5</v>
       </c>
-      <c r="L42" s="15">
+      <c r="L42" s="14">
         <v>14889.7</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="16" t="s">
+      <c r="M42" s="32">
+        <v>16116.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="21">
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="19">
         <v>15022</v>
       </c>
-      <c r="H43" s="20">
+      <c r="H43" s="18">
         <v>17582</v>
       </c>
-      <c r="I43" s="20">
+      <c r="I43" s="18">
         <v>18197</v>
       </c>
-      <c r="J43" s="20">
+      <c r="J43" s="18">
         <v>20690</v>
       </c>
-      <c r="K43" s="21">
+      <c r="K43" s="19">
         <v>21760</v>
       </c>
-      <c r="L43" s="21">
+      <c r="L43" s="19">
         <v>23566</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="12" t="s">
+      <c r="M43" s="31">
+        <v>24017</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D44" s="14">
+      <c r="D44" s="13">
         <v>10690</v>
       </c>
-      <c r="E44" s="14">
+      <c r="E44" s="13">
         <v>12009.8</v>
       </c>
-      <c r="F44" s="14">
+      <c r="F44" s="13">
         <v>12487.8</v>
       </c>
-      <c r="G44" s="14">
+      <c r="G44" s="13">
         <v>13570.4</v>
       </c>
-      <c r="H44" s="14">
+      <c r="H44" s="13">
         <v>17195.099999999999</v>
       </c>
-      <c r="I44" s="14">
+      <c r="I44" s="13">
         <v>13596</v>
       </c>
-      <c r="J44" s="14">
+      <c r="J44" s="13">
         <v>15840.4</v>
       </c>
-      <c r="K44" s="15">
+      <c r="K44" s="14">
         <v>16417</v>
       </c>
-      <c r="L44" s="15">
+      <c r="L44" s="14">
         <v>18913.7</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="12" t="s">
+      <c r="M44" s="32">
+        <v>19644.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D45" s="14">
+      <c r="D45" s="13">
         <v>15826.9</v>
       </c>
-      <c r="E45" s="14">
+      <c r="E45" s="13">
         <v>16723.3</v>
       </c>
-      <c r="F45" s="14">
+      <c r="F45" s="13">
         <v>16335.8</v>
       </c>
-      <c r="G45" s="14">
+      <c r="G45" s="13">
         <v>19122.8</v>
       </c>
-      <c r="H45" s="14">
+      <c r="H45" s="13">
         <v>14561.4</v>
       </c>
-      <c r="I45" s="14">
+      <c r="I45" s="13">
         <v>17860.3</v>
       </c>
-      <c r="J45" s="14">
+      <c r="J45" s="13">
         <v>25270.799999999999</v>
       </c>
-      <c r="K45" s="15">
+      <c r="K45" s="14">
         <v>22722.1</v>
       </c>
-      <c r="L45" s="15">
+      <c r="L45" s="14">
         <v>26838.2</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="16" t="s">
+      <c r="M45" s="32">
+        <v>26466.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="21">
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="19">
         <v>10246</v>
       </c>
-      <c r="H46" s="20">
+      <c r="H46" s="18">
         <v>11078</v>
       </c>
-      <c r="I46" s="20">
+      <c r="I46" s="18">
         <v>12263</v>
       </c>
-      <c r="J46" s="20">
+      <c r="J46" s="18">
         <v>11954</v>
       </c>
-      <c r="K46" s="21">
+      <c r="K46" s="19">
         <v>12410</v>
       </c>
-      <c r="L46" s="21">
+      <c r="L46" s="19">
         <v>11973</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="12" t="s">
+      <c r="M46" s="31">
+        <v>14774</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="14">
+      <c r="D47" s="13">
         <v>6066.8</v>
       </c>
-      <c r="E47" s="14">
+      <c r="E47" s="13">
         <v>6684.2</v>
       </c>
-      <c r="F47" s="14">
+      <c r="F47" s="13">
         <v>7577.1</v>
       </c>
-      <c r="G47" s="14">
+      <c r="G47" s="13">
         <v>9014.9</v>
       </c>
-      <c r="H47" s="14">
+      <c r="H47" s="13">
         <v>10734</v>
       </c>
-      <c r="I47" s="14">
+      <c r="I47" s="13">
         <v>10033.799999999999</v>
       </c>
-      <c r="J47" s="14">
+      <c r="J47" s="13">
         <v>11458.3</v>
       </c>
-      <c r="K47" s="15">
+      <c r="K47" s="14">
         <v>10579.6</v>
       </c>
-      <c r="L47" s="15">
+      <c r="L47" s="14">
         <v>11667.4</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="12" t="s">
+      <c r="M47" s="32">
+        <v>13568.9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D48" s="14">
+      <c r="D48" s="13">
         <v>7583.4</v>
       </c>
-      <c r="E48" s="14">
+      <c r="E48" s="13">
         <v>8698.7999999999993</v>
       </c>
-      <c r="F48" s="14">
+      <c r="F48" s="13">
         <v>9330.9</v>
       </c>
-      <c r="G48" s="14">
+      <c r="G48" s="13">
         <v>11180.8</v>
       </c>
-      <c r="H48" s="14">
+      <c r="H48" s="13">
         <v>11421</v>
       </c>
-      <c r="I48" s="14">
+      <c r="I48" s="13">
         <v>11962.3</v>
       </c>
-      <c r="J48" s="14">
+      <c r="J48" s="13">
         <v>12358.4</v>
       </c>
-      <c r="K48" s="15">
+      <c r="K48" s="14">
         <v>13580.1</v>
       </c>
-      <c r="L48" s="15">
+      <c r="L48" s="14">
         <v>13768.2</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="16" t="s">
+      <c r="M48" s="32">
+        <v>16788.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="21">
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="19">
         <v>15525.5</v>
       </c>
-      <c r="H49" s="20">
+      <c r="H49" s="18">
         <v>16385</v>
       </c>
-      <c r="I49" s="20">
+      <c r="I49" s="18">
         <v>17297</v>
       </c>
-      <c r="J49" s="20">
+      <c r="J49" s="18">
         <v>18183</v>
       </c>
-      <c r="K49" s="21">
+      <c r="K49" s="19">
         <v>19880</v>
       </c>
-      <c r="L49" s="21">
+      <c r="L49" s="19">
         <v>20750</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="12" t="s">
+      <c r="M49" s="31">
+        <v>22879</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D50" s="14">
+      <c r="D50" s="13">
         <v>6571.7</v>
       </c>
-      <c r="E50" s="14">
+      <c r="E50" s="13">
         <v>8196.1</v>
       </c>
-      <c r="F50" s="14">
+      <c r="F50" s="13">
         <v>11594.3</v>
       </c>
-      <c r="G50" s="14">
+      <c r="G50" s="13">
         <v>11765.2</v>
       </c>
-      <c r="H50" s="14">
+      <c r="H50" s="13">
         <v>11975.8</v>
       </c>
-      <c r="I50" s="14">
+      <c r="I50" s="13">
         <v>12925.8</v>
       </c>
-      <c r="J50" s="14">
+      <c r="J50" s="13">
         <v>14505.9</v>
       </c>
-      <c r="K50" s="15">
+      <c r="K50" s="14">
         <v>15652.5</v>
       </c>
-      <c r="L50" s="15">
+      <c r="L50" s="14">
         <v>15487.8</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="12" t="s">
+      <c r="M50" s="32">
+        <v>16846.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D51" s="14">
+      <c r="D51" s="13">
         <v>9048.7000000000007</v>
       </c>
-      <c r="E51" s="14">
+      <c r="E51" s="13">
         <v>10650.3</v>
       </c>
-      <c r="F51" s="14">
+      <c r="F51" s="13">
         <v>13047.5</v>
       </c>
-      <c r="G51" s="14">
+      <c r="G51" s="13">
         <v>14003.1</v>
       </c>
-      <c r="H51" s="14">
+      <c r="H51" s="13">
         <v>14265.1</v>
       </c>
-      <c r="I51" s="14">
+      <c r="I51" s="13">
         <v>15570.6</v>
       </c>
-      <c r="J51" s="14">
+      <c r="J51" s="13">
         <v>17176.2</v>
       </c>
-      <c r="K51" s="15">
+      <c r="K51" s="14">
         <v>18079.900000000001</v>
       </c>
-      <c r="L51" s="15">
+      <c r="L51" s="14">
         <v>17500</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="22" t="s">
+      <c r="M51" s="32">
+        <v>20346.099999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C52" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="21">
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="19">
         <v>8204.2999999999993</v>
       </c>
-      <c r="H52" s="20">
+      <c r="H52" s="18">
         <v>9233</v>
       </c>
-      <c r="I52" s="20">
+      <c r="I52" s="18">
         <v>10862</v>
       </c>
-      <c r="J52" s="20">
+      <c r="J52" s="18">
         <v>11095</v>
       </c>
-      <c r="K52" s="21">
+      <c r="K52" s="19">
         <v>11369</v>
       </c>
-      <c r="L52" s="21">
+      <c r="L52" s="19">
         <v>12412</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="12" t="s">
+      <c r="M52" s="31">
+        <v>14764</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D53" s="14">
+      <c r="D53" s="13">
         <v>7361.5</v>
       </c>
-      <c r="E53" s="14">
+      <c r="E53" s="13">
         <v>7317.6</v>
       </c>
-      <c r="F53" s="14">
+      <c r="F53" s="13">
         <v>7214.6</v>
       </c>
-      <c r="G53" s="14">
+      <c r="G53" s="13">
         <v>7681.8</v>
       </c>
-      <c r="H53" s="14">
+      <c r="H53" s="13">
         <v>9970.7999999999993</v>
       </c>
-      <c r="I53" s="14">
+      <c r="I53" s="13">
         <v>10536.7</v>
       </c>
-      <c r="J53" s="14">
+      <c r="J53" s="13">
         <v>10748.5</v>
       </c>
-      <c r="K53" s="15">
+      <c r="K53" s="14">
         <v>10691.4</v>
       </c>
-      <c r="L53" s="15">
+      <c r="L53" s="14">
         <v>13319</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="12" t="s">
+      <c r="M53" s="32">
+        <v>14260</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D54" s="14">
+      <c r="D54" s="13">
         <v>8726.2000000000007</v>
       </c>
-      <c r="E54" s="14">
+      <c r="E54" s="13">
         <v>8140.4</v>
       </c>
-      <c r="F54" s="14">
+      <c r="F54" s="13">
         <v>8411.4</v>
       </c>
-      <c r="G54" s="14">
+      <c r="G54" s="13">
         <v>8499.4</v>
       </c>
-      <c r="H54" s="14">
+      <c r="H54" s="13">
         <v>10479.700000000001</v>
       </c>
-      <c r="I54" s="14">
+      <c r="I54" s="13">
         <v>10653.3</v>
       </c>
-      <c r="J54" s="14">
+      <c r="J54" s="13">
         <v>11155.5</v>
       </c>
-      <c r="K54" s="15">
+      <c r="K54" s="14">
         <v>11006.4</v>
       </c>
-      <c r="L54" s="15">
+      <c r="L54" s="14">
         <v>13163</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="16" t="s">
+      <c r="M54" s="32">
+        <v>14054.9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C55" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="21">
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="19">
         <v>9244</v>
       </c>
-      <c r="H55" s="20">
+      <c r="H55" s="18">
         <v>9381</v>
       </c>
-      <c r="I55" s="20">
+      <c r="I55" s="18">
         <v>9728</v>
       </c>
-      <c r="J55" s="20">
+      <c r="J55" s="18">
         <v>9947</v>
       </c>
-      <c r="K55" s="21">
+      <c r="K55" s="19">
         <v>10313</v>
       </c>
-      <c r="L55" s="21">
+      <c r="L55" s="19">
         <v>10809</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="12" t="s">
+      <c r="M55" s="31">
+        <v>10937</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C56" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D56" s="23">
+      <c r="D56" s="20">
         <v>9256.1</v>
       </c>
-      <c r="E56" s="23">
+      <c r="E56" s="20">
         <v>8892</v>
       </c>
-      <c r="F56" s="23">
+      <c r="F56" s="20">
         <v>8994.9</v>
       </c>
-      <c r="G56" s="23">
+      <c r="G56" s="20">
         <v>8966.5</v>
       </c>
-      <c r="H56" s="23">
+      <c r="H56" s="20">
         <v>9394.4</v>
       </c>
-      <c r="I56" s="23">
+      <c r="I56" s="20">
         <v>9771.2999999999993</v>
       </c>
-      <c r="J56" s="23">
+      <c r="J56" s="20">
         <v>9927.4</v>
       </c>
-      <c r="K56" s="24">
+      <c r="K56" s="21">
         <v>10481.799999999999</v>
       </c>
-      <c r="L56" s="24">
+      <c r="L56" s="21">
         <v>11152.8</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="12" t="s">
+      <c r="M56" s="33">
+        <v>11052.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C57" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D57" s="23">
+      <c r="D57" s="20">
         <v>9584.5</v>
       </c>
-      <c r="E57" s="23">
+      <c r="E57" s="20">
         <v>9914.5</v>
       </c>
-      <c r="F57" s="23">
+      <c r="F57" s="20">
         <v>8690.2999999999993</v>
       </c>
-      <c r="G57" s="23">
+      <c r="G57" s="20">
         <v>9027.6</v>
       </c>
-      <c r="H57" s="23">
+      <c r="H57" s="20">
         <v>9319</v>
       </c>
-      <c r="I57" s="23">
+      <c r="I57" s="20">
         <v>9519.9</v>
       </c>
-      <c r="J57" s="23">
+      <c r="J57" s="20">
         <v>9677.7000000000007</v>
       </c>
-      <c r="K57" s="24">
+      <c r="K57" s="21">
         <v>9584.5</v>
       </c>
-      <c r="L57" s="24">
+      <c r="L57" s="21">
         <v>10385.1</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="22" t="s">
+      <c r="M57" s="33">
+        <v>10431.4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B58" s="22" t="s">
+      <c r="B58" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="C58" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="21">
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="19">
         <v>9182</v>
       </c>
-      <c r="H58" s="20">
+      <c r="H58" s="18">
         <v>9741</v>
       </c>
-      <c r="I58" s="20">
+      <c r="I58" s="18">
         <v>9042</v>
       </c>
-      <c r="J58" s="20">
+      <c r="J58" s="18">
         <v>8439</v>
       </c>
-      <c r="K58" s="21">
+      <c r="K58" s="19">
         <v>8616</v>
       </c>
-      <c r="L58" s="21">
+      <c r="L58" s="19">
         <v>8982</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A59" s="12" t="s">
+      <c r="M58" s="31">
+        <v>9384</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C59" s="17" t="s">
+      <c r="C59" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D59" s="14">
+      <c r="D59" s="13">
         <v>6350.6</v>
       </c>
-      <c r="E59" s="14">
+      <c r="E59" s="13">
         <v>6399.4</v>
       </c>
-      <c r="F59" s="14">
+      <c r="F59" s="13">
         <v>7565.3</v>
       </c>
-      <c r="G59" s="14">
+      <c r="G59" s="13">
         <v>7696.6</v>
       </c>
-      <c r="H59" s="14">
+      <c r="H59" s="13">
         <v>8553.4</v>
       </c>
-      <c r="I59" s="14">
+      <c r="I59" s="13">
         <v>8752.2999999999993</v>
       </c>
-      <c r="J59" s="14">
+      <c r="J59" s="13">
         <v>8451</v>
       </c>
-      <c r="K59" s="15">
+      <c r="K59" s="14">
         <v>8799.2000000000007</v>
       </c>
-      <c r="L59" s="15">
+      <c r="L59" s="14">
         <v>8886.7000000000007</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" s="12" t="s">
+      <c r="M59" s="32">
+        <v>9067.9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D60" s="14">
+      <c r="D60" s="13">
         <v>7746.8</v>
       </c>
-      <c r="E60" s="14">
+      <c r="E60" s="13">
         <v>6702.8</v>
       </c>
-      <c r="F60" s="14">
+      <c r="F60" s="13">
         <v>8250.6</v>
       </c>
-      <c r="G60" s="14">
+      <c r="G60" s="13">
         <v>8975</v>
       </c>
-      <c r="H60" s="14">
+      <c r="H60" s="13">
         <v>9292.2999999999993</v>
       </c>
-      <c r="I60" s="14">
+      <c r="I60" s="13">
         <v>8221.4</v>
       </c>
-      <c r="J60" s="14">
+      <c r="J60" s="13">
         <v>8179</v>
       </c>
-      <c r="K60" s="15">
+      <c r="K60" s="14">
         <v>8061.2</v>
       </c>
-      <c r="L60" s="15">
+      <c r="L60" s="14">
         <v>8964.4</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="22" t="s">
+      <c r="M60" s="32">
+        <v>9003.9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="22" t="s">
+      <c r="B61" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="C61" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="24">
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="21">
         <v>9810</v>
       </c>
-      <c r="H61" s="20">
+      <c r="H61" s="18">
         <v>12178</v>
       </c>
-      <c r="I61" s="20">
+      <c r="I61" s="18">
         <v>14823</v>
       </c>
-      <c r="J61" s="20">
+      <c r="J61" s="18">
         <v>15454</v>
       </c>
-      <c r="K61" s="24">
+      <c r="K61" s="21">
         <v>15303</v>
       </c>
-      <c r="L61" s="24">
+      <c r="L61" s="21">
         <v>16266</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="12" t="s">
+      <c r="M61" s="33">
+        <v>18927</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D62" s="14">
+      <c r="D62" s="13">
         <v>8458.9</v>
       </c>
-      <c r="E62" s="14">
+      <c r="E62" s="13">
         <v>8608</v>
       </c>
-      <c r="F62" s="14">
+      <c r="F62" s="13">
         <v>9771.5</v>
       </c>
-      <c r="G62" s="14">
+      <c r="G62" s="13">
         <v>11030.5</v>
       </c>
-      <c r="H62" s="14">
+      <c r="H62" s="13">
         <v>12707</v>
       </c>
-      <c r="I62" s="14">
+      <c r="I62" s="13">
         <v>15307.4</v>
       </c>
-      <c r="J62" s="14">
+      <c r="J62" s="13">
         <v>18606.599999999999</v>
       </c>
-      <c r="K62" s="15">
+      <c r="K62" s="14">
         <v>17807.599999999999</v>
       </c>
-      <c r="L62" s="15">
+      <c r="L62" s="14">
         <v>18437.099999999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="25" t="s">
+      <c r="M62" s="32">
+        <v>19087.8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B63" s="25" t="s">
+      <c r="B63" s="22" t="s">
         <v>1</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D63" s="26">
+      <c r="D63" s="23">
         <v>8192.7999999999993</v>
       </c>
-      <c r="E63" s="26">
+      <c r="E63" s="23">
         <v>8232.4</v>
       </c>
-      <c r="F63" s="26">
+      <c r="F63" s="23">
         <v>9269.2000000000007</v>
       </c>
-      <c r="G63" s="26">
+      <c r="G63" s="23">
         <v>10565.2</v>
       </c>
-      <c r="H63" s="26">
+      <c r="H63" s="23">
         <v>12664</v>
       </c>
-      <c r="I63" s="26">
+      <c r="I63" s="23">
         <v>14474.7</v>
       </c>
-      <c r="J63" s="26">
+      <c r="J63" s="23">
         <v>19061.7</v>
       </c>
-      <c r="K63" s="27">
+      <c r="K63" s="24">
         <v>11649.5</v>
       </c>
-      <c r="L63" s="27">
+      <c r="L63" s="24">
         <v>12252.4</v>
+      </c>
+      <c r="M63" s="34">
+        <v>12358.5</v>
       </c>
     </row>
   </sheetData>

--- a/untranslated/downloads/data-excel/8.5.1.1.xlsx
+++ b/untranslated/downloads/data-excel/8.5.1.1.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="75">
   <si>
     <t>женщины</t>
   </si>
@@ -246,13 +246,26 @@
   </si>
   <si>
     <t>Items</t>
+  </si>
+  <si>
+    <t>(soms)</t>
+  </si>
+  <si>
+    <t>(сомов)</t>
+  </si>
+  <si>
+    <t>(сом)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+  </numFmts>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -314,6 +327,17 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -352,13 +376,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -381,93 +406,88 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Normal 17" xfId="1"/>
     <cellStyle name="Normal 2" xfId="3"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 7" xfId="2"/>
+    <cellStyle name="Финансовый" xfId="4" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -745,25 +765,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M63"/>
+  <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="39.140625" style="2" customWidth="1"/>
-    <col min="4" max="11" width="8.7109375" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="4" max="13" width="10.140625" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="12" t="s">
         <v>44</v>
       </c>
       <c r="D1" s="1"/>
@@ -776,2404 +798,2415 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D4" s="5">
         <v>2011</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E4" s="5">
         <v>2012</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F4" s="5">
         <v>2013</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G4" s="5">
         <v>2014</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H4" s="5">
         <v>2015</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I4" s="5">
         <v>2016</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J4" s="5">
         <v>2017</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K4" s="5">
         <v>2018</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L4" s="5">
         <v>2019</v>
       </c>
-      <c r="M3" s="28">
+      <c r="M4" s="13">
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D5" s="14">
         <v>9304</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E5" s="14">
         <v>10726.4</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F5" s="14">
         <v>11341</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G5" s="15">
         <v>12285</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H5" s="15">
         <v>13483</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I5" s="16">
         <v>14847</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J5" s="16">
         <v>15670</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K5" s="16">
         <v>16427</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L5" s="16">
         <v>17232</v>
       </c>
-      <c r="M4" s="29">
+      <c r="M5" s="17">
         <v>18940</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+    <row r="6" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C6" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D6" s="18">
         <v>8365.6</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E6" s="18">
         <v>8700.2999999999993</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F6" s="18">
         <v>9113.1</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G6" s="18">
         <v>9732.4</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H6" s="18">
         <v>11125.3</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I6" s="18">
         <v>11742.9</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J6" s="18">
         <v>12182.8</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K6" s="18">
         <v>12573.5</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L6" s="18">
         <v>14421</v>
       </c>
-      <c r="M5" s="30">
+      <c r="M6" s="19">
         <v>15078.2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+    <row r="7" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C7" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D7" s="18">
         <v>10675.2</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E7" s="18">
         <v>11716.3</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F7" s="18">
         <v>12439.5</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G7" s="18">
         <v>13694.6</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H7" s="18">
         <v>14742.8</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I7" s="18">
         <v>15591.5</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J7" s="18">
         <v>16802.099999999999</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K7" s="18">
         <v>17556.400000000001</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L7" s="18">
         <v>18724</v>
       </c>
-      <c r="M6" s="30">
+      <c r="M7" s="19">
         <v>19991.5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
+    <row r="8" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B8" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C8" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17">
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21">
         <v>6044</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H8" s="22">
         <v>8331</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I8" s="22">
         <v>9010</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J8" s="22">
         <v>9643</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K8" s="23">
         <v>10084</v>
       </c>
-      <c r="L7" s="19">
+      <c r="L8" s="23">
         <v>10186</v>
       </c>
-      <c r="M7" s="31">
+      <c r="M8" s="24">
         <v>10479</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
+    <row r="9" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C9" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D9" s="18">
         <v>4548.5</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E9" s="18">
         <v>4726.7</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F9" s="18">
         <v>5230.8</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G9" s="18">
         <v>6192.7</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H9" s="18">
         <v>7378.6</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I9" s="18">
         <v>7390</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J9" s="18">
         <v>8497</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K9" s="18">
         <v>8905.7000000000007</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L9" s="18">
         <v>9077.1</v>
       </c>
-      <c r="M8" s="32">
+      <c r="M9" s="25">
         <v>9416.2000000000007</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+    <row r="10" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C10" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D10" s="18">
         <v>4561.6000000000004</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E10" s="18">
         <v>4879.8999999999996</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F10" s="18">
         <v>5699.4</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G10" s="18">
         <v>6074.3</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H10" s="18">
         <v>9018.1</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I10" s="18">
         <v>8359.7999999999993</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J10" s="18">
         <v>8922.4</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K10" s="18">
         <v>9116.6</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L10" s="18">
         <v>9775.9</v>
       </c>
-      <c r="M9" s="32">
+      <c r="M10" s="25">
         <v>10370.299999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="27" t="s">
+    <row r="11" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B11" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C11" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17">
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="21">
         <v>15134</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H11" s="22">
         <v>20225</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I11" s="22">
         <v>25265</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J11" s="22">
         <v>24254</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K11" s="23">
         <v>26046</v>
       </c>
-      <c r="L10" s="19">
+      <c r="L11" s="23">
         <v>29769</v>
       </c>
-      <c r="M10" s="31">
+      <c r="M11" s="24">
         <v>32688</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B12" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C12" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D12" s="18">
         <v>10291.1</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E12" s="18">
         <v>13648.2</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F12" s="18">
         <v>13694.6</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G12" s="18">
         <v>14243.4</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H12" s="18">
         <v>20206.2</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I12" s="18">
         <v>23165.5</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J12" s="18">
         <v>22098.5</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K12" s="18">
         <v>19858.599999999999</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L12" s="18">
         <v>25112.799999999999</v>
       </c>
-      <c r="M11" s="32">
+      <c r="M12" s="25">
         <v>31672.7</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B13" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C13" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D13" s="18">
         <v>10478.799999999999</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E13" s="18">
         <v>17111.099999999999</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F13" s="18">
         <v>14402.8</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G13" s="18">
         <v>15562.2</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H13" s="18">
         <v>20843.900000000001</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I13" s="18">
         <v>25767.3</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J13" s="18">
         <v>23738</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K13" s="18">
         <v>26349.599999999999</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L13" s="18">
         <v>29614.3</v>
       </c>
-      <c r="M12" s="32">
+      <c r="M13" s="25">
         <v>30927.200000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="26" t="s">
+    <row r="14" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B14" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C14" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17">
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="21">
         <v>18577</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H14" s="22">
         <v>19340</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I14" s="22">
         <v>21162</v>
       </c>
-      <c r="J13" s="18">
+      <c r="J14" s="22">
         <v>24026</v>
       </c>
-      <c r="K13" s="19">
+      <c r="K14" s="23">
         <v>24253</v>
       </c>
-      <c r="L13" s="19">
+      <c r="L14" s="23">
         <v>25697</v>
       </c>
-      <c r="M13" s="31">
+      <c r="M14" s="24">
         <v>31221</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
+    <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B15" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D15" s="18">
         <v>7779.9</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E15" s="18">
         <v>9583.2000000000007</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F15" s="18">
         <v>9506.6</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G15" s="18">
         <v>10322</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H15" s="18">
         <v>11022.6</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I15" s="18">
         <v>11949.9</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J15" s="18">
         <v>12736.5</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K15" s="18">
         <v>13704.7</v>
       </c>
-      <c r="L14" s="14">
+      <c r="L15" s="18">
         <v>15161</v>
       </c>
-      <c r="M14" s="32">
+      <c r="M15" s="25">
         <v>16268</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
+    <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B16" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D16" s="18">
         <v>10879.1</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E16" s="18">
         <v>11594.8</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F16" s="18">
         <v>12216.2</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G16" s="18">
         <v>13090.4</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H16" s="18">
         <v>13740</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I16" s="18">
         <v>15076.2</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J16" s="18">
         <v>15802.1</v>
       </c>
-      <c r="K15" s="14">
+      <c r="K16" s="18">
         <v>16711.7</v>
       </c>
-      <c r="L15" s="14">
+      <c r="L16" s="18">
         <v>17658.900000000001</v>
       </c>
-      <c r="M15" s="32">
+      <c r="M16" s="25">
         <v>21044.9</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="26" t="s">
+    <row r="17" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B17" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C17" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="17">
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="21">
         <v>20571.599999999999</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H17" s="22">
         <v>23537</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I17" s="22">
         <v>27094</v>
       </c>
-      <c r="J16" s="18">
+      <c r="J17" s="22">
         <v>29528</v>
       </c>
-      <c r="K16" s="19">
+      <c r="K17" s="23">
         <v>30819</v>
       </c>
-      <c r="L16" s="19">
+      <c r="L17" s="23">
         <v>31452</v>
       </c>
-      <c r="M16" s="31">
+      <c r="M17" s="24">
         <v>31297</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
+    <row r="18" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B18" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C18" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D18" s="18">
         <v>14160.1</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E18" s="18">
         <v>18564.400000000001</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F18" s="18">
         <v>17006.400000000001</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G18" s="18">
         <v>19774.7</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H18" s="18">
         <v>22865.4</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I18" s="18">
         <v>23702.799999999999</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J18" s="18">
         <v>24394.9</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K18" s="18">
         <v>24855</v>
       </c>
-      <c r="L17" s="14">
+      <c r="L18" s="18">
         <v>28936.1</v>
       </c>
-      <c r="M17" s="32">
+      <c r="M18" s="25">
         <v>27557.9</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
+    <row r="19" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B19" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C19" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D19" s="18">
         <v>15121.5</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E19" s="18">
         <v>18018.099999999999</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F19" s="18">
         <v>17317.900000000001</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G19" s="18">
         <v>19512.8</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H19" s="18">
         <v>23517.5</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I19" s="18">
         <v>24212.7</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J19" s="18">
         <v>24266.400000000001</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K19" s="18">
         <v>26772.1</v>
       </c>
-      <c r="L18" s="14">
+      <c r="L19" s="18">
         <v>29039.9</v>
       </c>
-      <c r="M18" s="32">
+      <c r="M19" s="25">
         <v>28338.9</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="26" t="s">
+    <row r="20" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B20" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C20" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17">
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="21">
         <v>9329.7999999999993</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H20" s="22">
         <v>10833</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I20" s="22">
         <v>11478</v>
       </c>
-      <c r="J19" s="18">
+      <c r="J20" s="22">
         <v>11802</v>
       </c>
-      <c r="K19" s="19">
+      <c r="K20" s="23">
         <v>12367</v>
       </c>
-      <c r="L19" s="19">
+      <c r="L20" s="23">
         <v>12824</v>
       </c>
-      <c r="M19" s="31">
+      <c r="M20" s="24">
         <v>14781</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
+    <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B21" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C21" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D21" s="18">
         <v>7097.9</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E21" s="18">
         <v>7874.8</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F21" s="18">
         <v>8309.5</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G21" s="18">
         <v>8752.5</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H21" s="18">
         <v>9335.7000000000007</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I21" s="18">
         <v>10668.2</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J21" s="18">
         <v>11217</v>
       </c>
-      <c r="K20" s="14">
+      <c r="K21" s="18">
         <v>11809.7</v>
       </c>
-      <c r="L20" s="14">
+      <c r="L21" s="18">
         <v>14491.6</v>
       </c>
-      <c r="M20" s="32">
+      <c r="M21" s="25">
         <v>14552.2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
+    <row r="22" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B22" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C22" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D22" s="18">
         <v>8512.1</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E22" s="18">
         <v>9348.2999999999993</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F22" s="18">
         <v>10479.9</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G22" s="18">
         <v>12181.5</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H22" s="18">
         <v>11772.3</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I22" s="18">
         <v>12166.8</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J22" s="18">
         <v>13276.3</v>
       </c>
-      <c r="K21" s="14">
+      <c r="K22" s="18">
         <v>14015.9</v>
       </c>
-      <c r="L21" s="14">
+      <c r="L22" s="18">
         <v>14979.6</v>
       </c>
-      <c r="M21" s="32">
+      <c r="M22" s="25">
         <v>16785.599999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="27" t="s">
+    <row r="23" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B23" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C23" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="17">
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="21">
         <v>10007</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H23" s="22">
         <v>11959</v>
       </c>
-      <c r="I22" s="18">
+      <c r="I23" s="22">
         <v>12384</v>
       </c>
-      <c r="J22" s="18">
+      <c r="J23" s="22">
         <v>13156</v>
       </c>
-      <c r="K22" s="19">
+      <c r="K23" s="23">
         <v>14549</v>
       </c>
-      <c r="L22" s="19">
+      <c r="L23" s="23">
         <v>14853</v>
       </c>
-      <c r="M22" s="31">
+      <c r="M23" s="24">
         <v>15748</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B24" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D24" s="18">
         <v>7461.7</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E24" s="18">
         <v>8708.7999999999993</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F24" s="18">
         <v>10101</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G24" s="18">
         <v>8990.4</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H24" s="18">
         <v>8991.5</v>
       </c>
-      <c r="I23" s="13">
+      <c r="I24" s="18">
         <v>11706.6</v>
       </c>
-      <c r="J23" s="13">
+      <c r="J24" s="18">
         <v>14489.9</v>
       </c>
-      <c r="K23" s="14">
+      <c r="K24" s="18">
         <v>13824.4</v>
       </c>
-      <c r="L23" s="14">
+      <c r="L24" s="18">
         <v>15478.4</v>
       </c>
-      <c r="M23" s="32">
+      <c r="M24" s="25">
         <v>14581.4</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B25" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D25" s="18">
         <v>9692.9</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E25" s="18">
         <v>10047.4</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F25" s="18">
         <v>10554.2</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G25" s="18">
         <v>11811.2</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H25" s="18">
         <v>11689.2</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I25" s="18">
         <v>14730.1</v>
       </c>
-      <c r="J24" s="13">
+      <c r="J25" s="18">
         <v>16612.5</v>
       </c>
-      <c r="K24" s="14">
+      <c r="K25" s="18">
         <v>16640.2</v>
       </c>
-      <c r="L24" s="14">
+      <c r="L25" s="18">
         <v>20339.099999999999</v>
       </c>
-      <c r="M24" s="32">
+      <c r="M25" s="25">
         <v>18540.3</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="26" t="s">
+    <row r="26" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B26" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C26" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="17">
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="21">
         <v>12361</v>
       </c>
-      <c r="H25" s="18">
+      <c r="H26" s="22">
         <v>12648</v>
       </c>
-      <c r="I25" s="18">
+      <c r="I26" s="22">
         <v>13150</v>
       </c>
-      <c r="J25" s="18">
+      <c r="J26" s="22">
         <v>13958</v>
       </c>
-      <c r="K25" s="19">
+      <c r="K26" s="23">
         <v>14417</v>
       </c>
-      <c r="L25" s="19">
+      <c r="L26" s="23">
         <v>14109</v>
       </c>
-      <c r="M25" s="31">
+      <c r="M26" s="24">
         <v>14926</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="s">
+    <row r="27" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B27" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C27" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D27" s="18">
         <v>10848.1</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E27" s="18">
         <v>10912.9</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F27" s="18">
         <v>11559.5</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G27" s="18">
         <v>13767.4</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H27" s="18">
         <v>12455.4</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I27" s="18">
         <v>14647.7</v>
       </c>
-      <c r="J26" s="13">
+      <c r="J27" s="18">
         <v>14808.3</v>
       </c>
-      <c r="K26" s="14">
+      <c r="K27" s="18">
         <v>16022.1</v>
       </c>
-      <c r="L26" s="14">
+      <c r="L27" s="18">
         <v>16246.1</v>
       </c>
-      <c r="M26" s="32">
+      <c r="M27" s="25">
         <v>16290.8</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
+    <row r="28" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B28" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C28" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D28" s="18">
         <v>13252</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E28" s="18">
         <v>14999.1</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F28" s="18">
         <v>15591.8</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G28" s="18">
         <v>17200.5</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H28" s="18">
         <v>15170.8</v>
       </c>
-      <c r="I27" s="13">
+      <c r="I28" s="18">
         <v>17360.8</v>
       </c>
-      <c r="J27" s="13">
+      <c r="J28" s="18">
         <v>16556.2</v>
       </c>
-      <c r="K27" s="14">
+      <c r="K28" s="18">
         <v>17624.099999999999</v>
       </c>
-      <c r="L27" s="14">
+      <c r="L28" s="18">
         <v>19132.8</v>
       </c>
-      <c r="M27" s="32">
+      <c r="M28" s="25">
         <v>19391.7</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="27" t="s">
+    <row r="29" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B29" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C29" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="17">
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="21">
         <v>16133</v>
       </c>
-      <c r="H28" s="18">
+      <c r="H29" s="22">
         <v>18143</v>
       </c>
-      <c r="I28" s="18">
+      <c r="I29" s="22">
         <v>19862</v>
       </c>
-      <c r="J28" s="18">
+      <c r="J29" s="22">
         <v>22617</v>
       </c>
-      <c r="K28" s="19">
+      <c r="K29" s="23">
         <v>23037</v>
       </c>
-      <c r="L28" s="19">
+      <c r="L29" s="23">
         <v>23141</v>
       </c>
-      <c r="M28" s="31">
+      <c r="M29" s="24">
         <v>21060</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="s">
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B30" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C30" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D30" s="18">
         <v>9395.1</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E30" s="18">
         <v>10325</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F30" s="18">
         <v>11036.2</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G30" s="18">
         <v>13857.9</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H30" s="18">
         <v>14205.6</v>
       </c>
-      <c r="I29" s="13">
+      <c r="I30" s="18">
         <v>13837.2</v>
       </c>
-      <c r="J29" s="13">
+      <c r="J30" s="18">
         <v>16074.1</v>
       </c>
-      <c r="K29" s="14">
+      <c r="K30" s="18">
         <v>14876.6</v>
       </c>
-      <c r="L29" s="14">
+      <c r="L30" s="18">
         <v>15182.1</v>
       </c>
-      <c r="M29" s="32">
+      <c r="M30" s="25">
         <v>15782.1</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B31" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C31" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D31" s="18">
         <v>12164.4</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E31" s="18">
         <v>15698.9</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F31" s="18">
         <v>17090.7</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G31" s="18">
         <v>21369.200000000001</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H31" s="18">
         <v>22780</v>
       </c>
-      <c r="I30" s="13">
+      <c r="I31" s="18">
         <v>22726.5</v>
       </c>
-      <c r="J30" s="13">
+      <c r="J31" s="18">
         <v>25482.6</v>
       </c>
-      <c r="K30" s="14">
+      <c r="K31" s="18">
         <v>25678.1</v>
       </c>
-      <c r="L30" s="14">
+      <c r="L31" s="18">
         <v>24925.1</v>
       </c>
-      <c r="M30" s="32">
+      <c r="M31" s="25">
         <v>24799.1</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="26" t="s">
+    <row r="32" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B32" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C32" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="17">
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="21">
         <v>8813.1</v>
       </c>
-      <c r="H31" s="18">
+      <c r="H32" s="22">
         <v>9553</v>
       </c>
-      <c r="I31" s="18">
+      <c r="I32" s="22">
         <v>10265</v>
       </c>
-      <c r="J31" s="18">
+      <c r="J32" s="22">
         <v>11138</v>
       </c>
-      <c r="K31" s="19">
+      <c r="K32" s="23">
         <v>12003</v>
       </c>
-      <c r="L31" s="19">
+      <c r="L32" s="23">
         <v>12577</v>
       </c>
-      <c r="M31" s="31">
+      <c r="M32" s="24">
         <v>12863</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="11" t="s">
+    <row r="33" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B33" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C33" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D33" s="18">
         <v>7487.3</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E33" s="18">
         <v>10012.700000000001</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F33" s="18">
         <v>9877.6</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G33" s="18">
         <v>9314.5</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H33" s="18">
         <v>9799.1</v>
       </c>
-      <c r="I32" s="13">
+      <c r="I33" s="18">
         <v>9837.6</v>
       </c>
-      <c r="J32" s="13">
+      <c r="J33" s="18">
         <v>11401.1</v>
       </c>
-      <c r="K32" s="14">
+      <c r="K33" s="18">
         <v>12791</v>
       </c>
-      <c r="L32" s="14">
+      <c r="L33" s="18">
         <v>14685.6</v>
       </c>
-      <c r="M32" s="32">
+      <c r="M33" s="25">
         <v>16302.5</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="11" t="s">
+    <row r="34" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B34" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C34" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D34" s="18">
         <v>10371.4</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E34" s="18">
         <v>10772.3</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F34" s="18">
         <v>11218.6</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G34" s="18">
         <v>12369.8</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H34" s="18">
         <v>12729.2</v>
       </c>
-      <c r="I33" s="13">
+      <c r="I34" s="18">
         <v>13681.8</v>
       </c>
-      <c r="J33" s="13">
+      <c r="J34" s="18">
         <v>11978.9</v>
       </c>
-      <c r="K33" s="14">
+      <c r="K34" s="18">
         <v>15929.9</v>
       </c>
-      <c r="L33" s="14">
+      <c r="L34" s="18">
         <v>17239.900000000001</v>
       </c>
-      <c r="M33" s="32">
+      <c r="M34" s="25">
         <v>18672.5</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="27" t="s">
+    <row r="35" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B35" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C35" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="19">
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="23">
         <v>21862</v>
       </c>
-      <c r="H34" s="18">
+      <c r="H35" s="22">
         <v>24678</v>
       </c>
-      <c r="I34" s="18">
+      <c r="I35" s="22">
         <v>26204</v>
       </c>
-      <c r="J34" s="18">
+      <c r="J35" s="22">
         <v>28160</v>
       </c>
-      <c r="K34" s="19">
+      <c r="K35" s="23">
         <v>30707</v>
       </c>
-      <c r="L34" s="19">
+      <c r="L35" s="23">
         <v>29713</v>
       </c>
-      <c r="M34" s="31">
+      <c r="M35" s="24">
         <v>35114</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="11" t="s">
+    <row r="36" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B36" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C36" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D36" s="18">
         <v>14988.1</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E36" s="18">
         <v>15828.9</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F36" s="18">
         <v>18211.400000000001</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G36" s="18">
         <v>18929.5</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H36" s="18">
         <v>19306.400000000001</v>
       </c>
-      <c r="I35" s="13">
+      <c r="I36" s="18">
         <v>27087.599999999999</v>
       </c>
-      <c r="J35" s="13">
+      <c r="J36" s="18">
         <v>24367</v>
       </c>
-      <c r="K35" s="14">
+      <c r="K36" s="18">
         <v>26919.8</v>
       </c>
-      <c r="L35" s="14">
+      <c r="L36" s="18">
         <v>30636.9</v>
       </c>
-      <c r="M35" s="32">
+      <c r="M36" s="25">
         <v>29827.200000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="11" t="s">
+    <row r="37" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B37" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C37" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D37" s="18">
         <v>19715.7</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E37" s="18">
         <v>21524.7</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F37" s="18">
         <v>24850.9</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G37" s="18">
         <v>24702.2</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H37" s="18">
         <v>28211.8</v>
       </c>
-      <c r="I36" s="13">
+      <c r="I37" s="18">
         <v>24422.400000000001</v>
       </c>
-      <c r="J36" s="13">
+      <c r="J37" s="18">
         <v>30262.799999999999</v>
       </c>
-      <c r="K36" s="14">
+      <c r="K37" s="18">
         <v>39038.199999999997</v>
       </c>
-      <c r="L36" s="14">
+      <c r="L37" s="18">
         <v>36272.199999999997</v>
       </c>
-      <c r="M36" s="32">
+      <c r="M37" s="25">
         <v>39569.199999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="27" t="s">
+    <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="B37" s="27" t="s">
+      <c r="B38" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C38" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="19">
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="23">
         <v>27066</v>
       </c>
-      <c r="H37" s="18">
+      <c r="H38" s="22">
         <v>26903</v>
       </c>
-      <c r="I37" s="18">
+      <c r="I38" s="22">
         <v>30157</v>
       </c>
-      <c r="J37" s="18">
+      <c r="J38" s="22">
         <v>33038</v>
       </c>
-      <c r="K37" s="19">
+      <c r="K38" s="23">
         <v>34019</v>
       </c>
-      <c r="L37" s="19">
+      <c r="L38" s="23">
         <v>35637</v>
       </c>
-      <c r="M37" s="31">
+      <c r="M38" s="24">
         <v>35343</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="11" t="s">
+    <row r="39" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B39" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C39" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D39" s="18">
         <v>18256.900000000001</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E39" s="18">
         <v>19804.3</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F39" s="18">
         <v>21181.1</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G39" s="18">
         <v>24106.799999999999</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H39" s="18">
         <v>24028</v>
       </c>
-      <c r="I38" s="13">
+      <c r="I39" s="18">
         <v>24482.400000000001</v>
       </c>
-      <c r="J38" s="13">
+      <c r="J39" s="18">
         <v>24810.5</v>
       </c>
-      <c r="K38" s="14">
+      <c r="K39" s="18">
         <v>28331</v>
       </c>
-      <c r="L38" s="14">
+      <c r="L39" s="18">
         <v>31556.2</v>
       </c>
-      <c r="M38" s="32">
+      <c r="M39" s="25">
         <v>31531.5</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="11" t="s">
+    <row r="40" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B40" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C40" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D40" s="18">
         <v>23772.5</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E40" s="18">
         <v>25192</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F40" s="18">
         <v>26902.3</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G40" s="18">
         <v>32503.3</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H40" s="18">
         <v>31556.2</v>
       </c>
-      <c r="I39" s="13">
+      <c r="I40" s="18">
         <v>32357</v>
       </c>
-      <c r="J39" s="13">
+      <c r="J40" s="18">
         <v>36351.699999999997</v>
       </c>
-      <c r="K39" s="14">
+      <c r="K40" s="18">
         <v>36192.1</v>
       </c>
-      <c r="L39" s="14">
+      <c r="L40" s="18">
         <v>41375</v>
       </c>
-      <c r="M39" s="32">
+      <c r="M40" s="25">
         <v>42666.9</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="27" t="s">
+    <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="27" t="s">
+      <c r="B41" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C41" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="19">
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="23">
         <v>7938</v>
       </c>
-      <c r="H40" s="18">
+      <c r="H41" s="22">
         <v>9703</v>
       </c>
-      <c r="I40" s="18">
+      <c r="I41" s="22">
         <v>10000</v>
       </c>
-      <c r="J40" s="18">
+      <c r="J41" s="22">
         <v>10086</v>
       </c>
-      <c r="K40" s="19">
+      <c r="K41" s="23">
         <v>11337</v>
       </c>
-      <c r="L40" s="19">
+      <c r="L41" s="23">
         <v>12038</v>
       </c>
-      <c r="M40" s="31">
+      <c r="M41" s="24">
         <v>11408</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="11" t="s">
+    <row r="42" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B42" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C42" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D42" s="18">
         <v>6003</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E42" s="18">
         <v>7520.8</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F42" s="18">
         <v>7942.1</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G42" s="18">
         <v>9733.9</v>
       </c>
-      <c r="H41" s="13">
+      <c r="H42" s="18">
         <v>10921.3</v>
       </c>
-      <c r="I41" s="13">
+      <c r="I42" s="18">
         <v>10633.5</v>
       </c>
-      <c r="J41" s="13">
+      <c r="J42" s="18">
         <v>11195.2</v>
       </c>
-      <c r="K41" s="14">
+      <c r="K42" s="18">
         <v>12556.1</v>
       </c>
-      <c r="L41" s="14">
+      <c r="L42" s="18">
         <v>14041</v>
       </c>
-      <c r="M41" s="32">
+      <c r="M42" s="25">
         <v>14029.1</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="11" t="s">
+    <row r="43" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B43" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C43" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D43" s="18">
         <v>7571.4</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E43" s="18">
         <v>8564.2999999999993</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F43" s="18">
         <v>9644.7000000000007</v>
       </c>
-      <c r="G42" s="13">
+      <c r="G43" s="18">
         <v>10498.3</v>
       </c>
-      <c r="H42" s="13">
+      <c r="H43" s="18">
         <v>12427.6</v>
       </c>
-      <c r="I42" s="13">
+      <c r="I43" s="18">
         <v>12024.1</v>
       </c>
-      <c r="J42" s="13">
+      <c r="J43" s="18">
         <v>13722.1</v>
       </c>
-      <c r="K42" s="14">
+      <c r="K43" s="18">
         <v>13757.5</v>
       </c>
-      <c r="L42" s="14">
+      <c r="L43" s="18">
         <v>14889.7</v>
       </c>
-      <c r="M42" s="32">
+      <c r="M43" s="25">
         <v>16116.4</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="26" t="s">
+    <row r="44" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="26" t="s">
+      <c r="B44" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="26" t="s">
+      <c r="C44" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="19">
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="23">
         <v>15022</v>
       </c>
-      <c r="H43" s="18">
+      <c r="H44" s="22">
         <v>17582</v>
       </c>
-      <c r="I43" s="18">
+      <c r="I44" s="22">
         <v>18197</v>
       </c>
-      <c r="J43" s="18">
+      <c r="J44" s="22">
         <v>20690</v>
       </c>
-      <c r="K43" s="19">
+      <c r="K44" s="23">
         <v>21760</v>
       </c>
-      <c r="L43" s="19">
+      <c r="L44" s="23">
         <v>23566</v>
       </c>
-      <c r="M43" s="31">
+      <c r="M44" s="24">
         <v>24017</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="11" t="s">
+    <row r="45" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B45" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C45" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D45" s="18">
         <v>10690</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E45" s="18">
         <v>12009.8</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F45" s="18">
         <v>12487.8</v>
       </c>
-      <c r="G44" s="13">
+      <c r="G45" s="18">
         <v>13570.4</v>
       </c>
-      <c r="H44" s="13">
+      <c r="H45" s="18">
         <v>17195.099999999999</v>
       </c>
-      <c r="I44" s="13">
+      <c r="I45" s="18">
         <v>13596</v>
       </c>
-      <c r="J44" s="13">
+      <c r="J45" s="18">
         <v>15840.4</v>
       </c>
-      <c r="K44" s="14">
+      <c r="K45" s="18">
         <v>16417</v>
       </c>
-      <c r="L44" s="14">
+      <c r="L45" s="18">
         <v>18913.7</v>
       </c>
-      <c r="M44" s="32">
+      <c r="M45" s="25">
         <v>19644.8</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="11" t="s">
+    <row r="46" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B46" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C46" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D46" s="18">
         <v>15826.9</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E46" s="18">
         <v>16723.3</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F46" s="18">
         <v>16335.8</v>
       </c>
-      <c r="G45" s="13">
+      <c r="G46" s="18">
         <v>19122.8</v>
       </c>
-      <c r="H45" s="13">
+      <c r="H46" s="18">
         <v>14561.4</v>
       </c>
-      <c r="I45" s="13">
+      <c r="I46" s="18">
         <v>17860.3</v>
       </c>
-      <c r="J45" s="13">
+      <c r="J46" s="18">
         <v>25270.799999999999</v>
       </c>
-      <c r="K45" s="14">
+      <c r="K46" s="18">
         <v>22722.1</v>
       </c>
-      <c r="L45" s="14">
+      <c r="L46" s="18">
         <v>26838.2</v>
       </c>
-      <c r="M45" s="32">
+      <c r="M46" s="25">
         <v>26466.5</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="26" t="s">
+    <row r="47" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="B46" s="26" t="s">
+      <c r="B47" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="26" t="s">
+      <c r="C47" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="19">
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="23">
         <v>10246</v>
       </c>
-      <c r="H46" s="18">
+      <c r="H47" s="22">
         <v>11078</v>
       </c>
-      <c r="I46" s="18">
+      <c r="I47" s="22">
         <v>12263</v>
       </c>
-      <c r="J46" s="18">
+      <c r="J47" s="22">
         <v>11954</v>
       </c>
-      <c r="K46" s="19">
+      <c r="K47" s="23">
         <v>12410</v>
       </c>
-      <c r="L46" s="19">
+      <c r="L47" s="23">
         <v>11973</v>
       </c>
-      <c r="M46" s="31">
+      <c r="M47" s="24">
         <v>14774</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="11" t="s">
+    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B48" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C48" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D48" s="18">
         <v>6066.8</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E48" s="18">
         <v>6684.2</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F48" s="18">
         <v>7577.1</v>
       </c>
-      <c r="G47" s="13">
+      <c r="G48" s="18">
         <v>9014.9</v>
       </c>
-      <c r="H47" s="13">
+      <c r="H48" s="18">
         <v>10734</v>
       </c>
-      <c r="I47" s="13">
+      <c r="I48" s="18">
         <v>10033.799999999999</v>
       </c>
-      <c r="J47" s="13">
+      <c r="J48" s="18">
         <v>11458.3</v>
       </c>
-      <c r="K47" s="14">
+      <c r="K48" s="18">
         <v>10579.6</v>
       </c>
-      <c r="L47" s="14">
+      <c r="L48" s="18">
         <v>11667.4</v>
       </c>
-      <c r="M47" s="32">
+      <c r="M48" s="25">
         <v>13568.9</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="11" t="s">
+    <row r="49" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B49" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C49" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D48" s="13">
+      <c r="D49" s="18">
         <v>7583.4</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E49" s="18">
         <v>8698.7999999999993</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F49" s="18">
         <v>9330.9</v>
       </c>
-      <c r="G48" s="13">
+      <c r="G49" s="18">
         <v>11180.8</v>
       </c>
-      <c r="H48" s="13">
+      <c r="H49" s="18">
         <v>11421</v>
       </c>
-      <c r="I48" s="13">
+      <c r="I49" s="18">
         <v>11962.3</v>
       </c>
-      <c r="J48" s="13">
+      <c r="J49" s="18">
         <v>12358.4</v>
       </c>
-      <c r="K48" s="14">
+      <c r="K49" s="18">
         <v>13580.1</v>
       </c>
-      <c r="L48" s="14">
+      <c r="L49" s="18">
         <v>13768.2</v>
       </c>
-      <c r="M48" s="32">
+      <c r="M49" s="25">
         <v>16788.3</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="26" t="s">
+    <row r="50" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="26" t="s">
+      <c r="B50" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C49" s="26" t="s">
+      <c r="C50" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="19">
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="23">
         <v>15525.5</v>
       </c>
-      <c r="H49" s="18">
+      <c r="H50" s="22">
         <v>16385</v>
       </c>
-      <c r="I49" s="18">
+      <c r="I50" s="22">
         <v>17297</v>
       </c>
-      <c r="J49" s="18">
+      <c r="J50" s="22">
         <v>18183</v>
       </c>
-      <c r="K49" s="19">
+      <c r="K50" s="23">
         <v>19880</v>
       </c>
-      <c r="L49" s="19">
+      <c r="L50" s="23">
         <v>20750</v>
       </c>
-      <c r="M49" s="31">
+      <c r="M50" s="24">
         <v>22879</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="11" t="s">
+    <row r="51" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B51" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C51" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D50" s="13">
+      <c r="D51" s="18">
         <v>6571.7</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E51" s="18">
         <v>8196.1</v>
       </c>
-      <c r="F50" s="13">
+      <c r="F51" s="18">
         <v>11594.3</v>
       </c>
-      <c r="G50" s="13">
+      <c r="G51" s="18">
         <v>11765.2</v>
       </c>
-      <c r="H50" s="13">
+      <c r="H51" s="18">
         <v>11975.8</v>
       </c>
-      <c r="I50" s="13">
+      <c r="I51" s="18">
         <v>12925.8</v>
       </c>
-      <c r="J50" s="13">
+      <c r="J51" s="18">
         <v>14505.9</v>
       </c>
-      <c r="K50" s="14">
+      <c r="K51" s="18">
         <v>15652.5</v>
       </c>
-      <c r="L50" s="14">
+      <c r="L51" s="18">
         <v>15487.8</v>
       </c>
-      <c r="M50" s="32">
+      <c r="M51" s="25">
         <v>16846.5</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="11" t="s">
+    <row r="52" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B52" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C52" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D51" s="13">
+      <c r="D52" s="18">
         <v>9048.7000000000007</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E52" s="18">
         <v>10650.3</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F52" s="18">
         <v>13047.5</v>
       </c>
-      <c r="G51" s="13">
+      <c r="G52" s="18">
         <v>14003.1</v>
       </c>
-      <c r="H51" s="13">
+      <c r="H52" s="18">
         <v>14265.1</v>
       </c>
-      <c r="I51" s="13">
+      <c r="I52" s="18">
         <v>15570.6</v>
       </c>
-      <c r="J51" s="13">
+      <c r="J52" s="18">
         <v>17176.2</v>
       </c>
-      <c r="K51" s="14">
+      <c r="K52" s="18">
         <v>18079.900000000001</v>
       </c>
-      <c r="L51" s="14">
+      <c r="L52" s="18">
         <v>17500</v>
       </c>
-      <c r="M51" s="32">
+      <c r="M52" s="25">
         <v>20346.099999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="27" t="s">
+    <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B52" s="27" t="s">
+      <c r="B53" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C52" s="26" t="s">
+      <c r="C53" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="19">
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="23">
         <v>8204.2999999999993</v>
       </c>
-      <c r="H52" s="18">
+      <c r="H53" s="22">
         <v>9233</v>
       </c>
-      <c r="I52" s="18">
+      <c r="I53" s="22">
         <v>10862</v>
       </c>
-      <c r="J52" s="18">
+      <c r="J53" s="22">
         <v>11095</v>
       </c>
-      <c r="K52" s="19">
+      <c r="K53" s="23">
         <v>11369</v>
       </c>
-      <c r="L52" s="19">
+      <c r="L53" s="23">
         <v>12412</v>
       </c>
-      <c r="M52" s="31">
+      <c r="M53" s="24">
         <v>14764</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="11" t="s">
+    <row r="54" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B54" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D53" s="13">
+      <c r="D54" s="18">
         <v>7361.5</v>
       </c>
-      <c r="E53" s="13">
+      <c r="E54" s="18">
         <v>7317.6</v>
       </c>
-      <c r="F53" s="13">
+      <c r="F54" s="18">
         <v>7214.6</v>
       </c>
-      <c r="G53" s="13">
+      <c r="G54" s="18">
         <v>7681.8</v>
       </c>
-      <c r="H53" s="13">
+      <c r="H54" s="18">
         <v>9970.7999999999993</v>
       </c>
-      <c r="I53" s="13">
+      <c r="I54" s="18">
         <v>10536.7</v>
       </c>
-      <c r="J53" s="13">
+      <c r="J54" s="18">
         <v>10748.5</v>
       </c>
-      <c r="K53" s="14">
+      <c r="K54" s="18">
         <v>10691.4</v>
       </c>
-      <c r="L53" s="14">
+      <c r="L54" s="18">
         <v>13319</v>
       </c>
-      <c r="M53" s="32">
+      <c r="M54" s="25">
         <v>14260</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="11" t="s">
+    <row r="55" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B55" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D54" s="13">
+      <c r="D55" s="18">
         <v>8726.2000000000007</v>
       </c>
-      <c r="E54" s="13">
+      <c r="E55" s="18">
         <v>8140.4</v>
       </c>
-      <c r="F54" s="13">
+      <c r="F55" s="18">
         <v>8411.4</v>
       </c>
-      <c r="G54" s="13">
+      <c r="G55" s="18">
         <v>8499.4</v>
       </c>
-      <c r="H54" s="13">
+      <c r="H55" s="18">
         <v>10479.700000000001</v>
       </c>
-      <c r="I54" s="13">
+      <c r="I55" s="18">
         <v>10653.3</v>
       </c>
-      <c r="J54" s="13">
+      <c r="J55" s="18">
         <v>11155.5</v>
       </c>
-      <c r="K54" s="14">
+      <c r="K55" s="18">
         <v>11006.4</v>
       </c>
-      <c r="L54" s="14">
+      <c r="L55" s="18">
         <v>13163</v>
       </c>
-      <c r="M54" s="32">
+      <c r="M55" s="25">
         <v>14054.9</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="26" t="s">
+    <row r="56" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="B55" s="26" t="s">
+      <c r="B56" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C55" s="26" t="s">
+      <c r="C56" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="19">
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="23">
         <v>9244</v>
       </c>
-      <c r="H55" s="18">
+      <c r="H56" s="22">
         <v>9381</v>
       </c>
-      <c r="I55" s="18">
+      <c r="I56" s="22">
         <v>9728</v>
       </c>
-      <c r="J55" s="18">
+      <c r="J56" s="22">
         <v>9947</v>
       </c>
-      <c r="K55" s="19">
+      <c r="K56" s="23">
         <v>10313</v>
       </c>
-      <c r="L55" s="19">
+      <c r="L56" s="23">
         <v>10809</v>
       </c>
-      <c r="M55" s="31">
+      <c r="M56" s="24">
         <v>10937</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="11" t="s">
+    <row r="57" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B57" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C57" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D56" s="20">
+      <c r="D57" s="26">
         <v>9256.1</v>
       </c>
-      <c r="E56" s="20">
+      <c r="E57" s="26">
         <v>8892</v>
       </c>
-      <c r="F56" s="20">
+      <c r="F57" s="26">
         <v>8994.9</v>
       </c>
-      <c r="G56" s="20">
+      <c r="G57" s="26">
         <v>8966.5</v>
       </c>
-      <c r="H56" s="20">
+      <c r="H57" s="26">
         <v>9394.4</v>
       </c>
-      <c r="I56" s="20">
+      <c r="I57" s="26">
         <v>9771.2999999999993</v>
       </c>
-      <c r="J56" s="20">
+      <c r="J57" s="26">
         <v>9927.4</v>
       </c>
-      <c r="K56" s="21">
+      <c r="K57" s="26">
         <v>10481.799999999999</v>
       </c>
-      <c r="L56" s="21">
+      <c r="L57" s="26">
         <v>11152.8</v>
       </c>
-      <c r="M56" s="33">
+      <c r="M57" s="27">
         <v>11052.4</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="11" t="s">
+    <row r="58" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B58" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C58" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D57" s="20">
+      <c r="D58" s="26">
         <v>9584.5</v>
       </c>
-      <c r="E57" s="20">
+      <c r="E58" s="26">
         <v>9914.5</v>
       </c>
-      <c r="F57" s="20">
+      <c r="F58" s="26">
         <v>8690.2999999999993</v>
       </c>
-      <c r="G57" s="20">
+      <c r="G58" s="26">
         <v>9027.6</v>
       </c>
-      <c r="H57" s="20">
+      <c r="H58" s="26">
         <v>9319</v>
       </c>
-      <c r="I57" s="20">
+      <c r="I58" s="26">
         <v>9519.9</v>
       </c>
-      <c r="J57" s="20">
+      <c r="J58" s="26">
         <v>9677.7000000000007</v>
       </c>
-      <c r="K57" s="21">
+      <c r="K58" s="26">
         <v>9584.5</v>
       </c>
-      <c r="L57" s="21">
+      <c r="L58" s="26">
         <v>10385.1</v>
       </c>
-      <c r="M57" s="33">
+      <c r="M58" s="27">
         <v>10431.4</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="27" t="s">
+    <row r="59" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="B58" s="27" t="s">
+      <c r="B59" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C58" s="26" t="s">
+      <c r="C59" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="19">
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="23">
         <v>9182</v>
       </c>
-      <c r="H58" s="18">
+      <c r="H59" s="22">
         <v>9741</v>
       </c>
-      <c r="I58" s="18">
+      <c r="I59" s="22">
         <v>9042</v>
       </c>
-      <c r="J58" s="18">
+      <c r="J59" s="22">
         <v>8439</v>
       </c>
-      <c r="K58" s="19">
+      <c r="K59" s="23">
         <v>8616</v>
       </c>
-      <c r="L58" s="19">
+      <c r="L59" s="23">
         <v>8982</v>
       </c>
-      <c r="M58" s="31">
+      <c r="M59" s="24">
         <v>9384</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59" s="11" t="s">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B60" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C60" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D59" s="13">
+      <c r="D60" s="18">
         <v>6350.6</v>
       </c>
-      <c r="E59" s="13">
+      <c r="E60" s="18">
         <v>6399.4</v>
       </c>
-      <c r="F59" s="13">
+      <c r="F60" s="18">
         <v>7565.3</v>
       </c>
-      <c r="G59" s="13">
+      <c r="G60" s="18">
         <v>7696.6</v>
       </c>
-      <c r="H59" s="13">
+      <c r="H60" s="18">
         <v>8553.4</v>
       </c>
-      <c r="I59" s="13">
+      <c r="I60" s="18">
         <v>8752.2999999999993</v>
       </c>
-      <c r="J59" s="13">
+      <c r="J60" s="18">
         <v>8451</v>
       </c>
-      <c r="K59" s="14">
+      <c r="K60" s="18">
         <v>8799.2000000000007</v>
       </c>
-      <c r="L59" s="14">
+      <c r="L60" s="18">
         <v>8886.7000000000007</v>
       </c>
-      <c r="M59" s="32">
+      <c r="M60" s="25">
         <v>9067.9</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A60" s="11" t="s">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B61" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C61" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D60" s="13">
+      <c r="D61" s="18">
         <v>7746.8</v>
       </c>
-      <c r="E60" s="13">
+      <c r="E61" s="18">
         <v>6702.8</v>
       </c>
-      <c r="F60" s="13">
+      <c r="F61" s="18">
         <v>8250.6</v>
       </c>
-      <c r="G60" s="13">
+      <c r="G61" s="18">
         <v>8975</v>
       </c>
-      <c r="H60" s="13">
+      <c r="H61" s="18">
         <v>9292.2999999999993</v>
       </c>
-      <c r="I60" s="13">
+      <c r="I61" s="18">
         <v>8221.4</v>
       </c>
-      <c r="J60" s="13">
+      <c r="J61" s="18">
         <v>8179</v>
       </c>
-      <c r="K60" s="14">
+      <c r="K61" s="18">
         <v>8061.2</v>
       </c>
-      <c r="L60" s="14">
+      <c r="L61" s="18">
         <v>8964.4</v>
       </c>
-      <c r="M60" s="32">
+      <c r="M61" s="25">
         <v>9003.9</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="27" t="s">
+    <row r="62" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="27" t="s">
+      <c r="B62" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C61" s="26" t="s">
+      <c r="C62" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="21">
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="26">
         <v>9810</v>
       </c>
-      <c r="H61" s="18">
+      <c r="H62" s="22">
         <v>12178</v>
       </c>
-      <c r="I61" s="18">
+      <c r="I62" s="22">
         <v>14823</v>
       </c>
-      <c r="J61" s="18">
+      <c r="J62" s="22">
         <v>15454</v>
       </c>
-      <c r="K61" s="21">
+      <c r="K62" s="26">
         <v>15303</v>
       </c>
-      <c r="L61" s="21">
+      <c r="L62" s="26">
         <v>16266</v>
       </c>
-      <c r="M61" s="33">
+      <c r="M62" s="27">
         <v>18927</v>
       </c>
     </row>
-    <row r="62" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="11" t="s">
+    <row r="63" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B63" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D62" s="13">
+      <c r="D63" s="18">
         <v>8458.9</v>
       </c>
-      <c r="E62" s="13">
+      <c r="E63" s="18">
         <v>8608</v>
       </c>
-      <c r="F62" s="13">
+      <c r="F63" s="18">
         <v>9771.5</v>
       </c>
-      <c r="G62" s="13">
+      <c r="G63" s="18">
         <v>11030.5</v>
       </c>
-      <c r="H62" s="13">
+      <c r="H63" s="18">
         <v>12707</v>
       </c>
-      <c r="I62" s="13">
+      <c r="I63" s="18">
         <v>15307.4</v>
       </c>
-      <c r="J62" s="13">
+      <c r="J63" s="18">
         <v>18606.599999999999</v>
       </c>
-      <c r="K62" s="14">
+      <c r="K63" s="18">
         <v>17807.599999999999</v>
       </c>
-      <c r="L62" s="14">
+      <c r="L63" s="18">
         <v>18437.099999999999</v>
       </c>
-      <c r="M62" s="32">
+      <c r="M63" s="25">
         <v>19087.8</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="22" t="s">
+    <row r="64" spans="1:13" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B63" s="22" t="s">
+      <c r="B64" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C64" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D63" s="23">
+      <c r="D64" s="28">
         <v>8192.7999999999993</v>
       </c>
-      <c r="E63" s="23">
+      <c r="E64" s="28">
         <v>8232.4</v>
       </c>
-      <c r="F63" s="23">
+      <c r="F64" s="28">
         <v>9269.2000000000007</v>
       </c>
-      <c r="G63" s="23">
+      <c r="G64" s="28">
         <v>10565.2</v>
       </c>
-      <c r="H63" s="23">
+      <c r="H64" s="28">
         <v>12664</v>
       </c>
-      <c r="I63" s="23">
+      <c r="I64" s="28">
         <v>14474.7</v>
       </c>
-      <c r="J63" s="23">
+      <c r="J64" s="28">
         <v>19061.7</v>
       </c>
-      <c r="K63" s="24">
+      <c r="K64" s="28">
         <v>11649.5</v>
       </c>
-      <c r="L63" s="24">
+      <c r="L64" s="28">
         <v>12252.4</v>
       </c>
-      <c r="M63" s="34">
+      <c r="M64" s="29">
         <v>12358.5</v>
       </c>
     </row>

--- a/untranslated/downloads/data-excel/8.5.1.1.xlsx
+++ b/untranslated/downloads/data-excel/8.5.1.1.xlsx
@@ -261,9 +261,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -383,7 +382,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -396,9 +395,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -421,57 +417,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -480,6 +425,69 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -765,11 +773,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -778,14 +784,14 @@
     <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>44</v>
       </c>
       <c r="D1" s="1"/>
@@ -798,18 +804,18 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="14" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -823,7 +829,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>69</v>
       </c>
@@ -833,2381 +839,2564 @@
       <c r="C4" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="15">
         <v>2011</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="15">
         <v>2012</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="15">
         <v>2013</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="15">
         <v>2014</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="15">
         <v>2015</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="15">
         <v>2016</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="15">
         <v>2017</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="15">
         <v>2018</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="15">
         <v>2019</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="15">
         <v>2020</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="N4" s="15">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="16">
         <v>9304</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="16">
         <v>10726.4</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="16">
         <v>11341</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="17">
         <v>12285</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="17">
         <v>13483</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="18">
         <v>14847</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="18">
         <v>15670</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="18">
         <v>16427</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="18">
         <v>17232</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M5" s="19">
         <v>18940</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="N5" s="20">
+        <v>19330</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="21">
         <v>8365.6</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="21">
         <v>8700.2999999999993</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="21">
         <v>9113.1</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="21">
         <v>9732.4</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="21">
         <v>11125.3</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="21">
         <v>11742.9</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="21">
         <v>12182.8</v>
       </c>
-      <c r="K6" s="18">
+      <c r="K6" s="21">
         <v>12573.5</v>
       </c>
-      <c r="L6" s="18">
+      <c r="L6" s="21">
         <v>14421</v>
       </c>
-      <c r="M6" s="19">
+      <c r="M6" s="21">
         <v>15078.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="N6" s="21">
+        <v>16524.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="21">
         <v>10675.2</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="21">
         <v>11716.3</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="21">
         <v>12439.5</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="21">
         <v>13694.6</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="21">
         <v>14742.8</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="21">
         <v>15591.5</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="21">
         <v>16802.099999999999</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="21">
         <v>17556.400000000001</v>
       </c>
-      <c r="L7" s="18">
+      <c r="L7" s="21">
         <v>18724</v>
       </c>
-      <c r="M7" s="19">
+      <c r="M7" s="21">
         <v>19991.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
+      <c r="N7" s="21">
+        <v>21999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21">
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="23">
         <v>6044</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="24">
         <v>8331</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="24">
         <v>9010</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="24">
         <v>9643</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="25">
         <v>10084</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="25">
         <v>10186</v>
       </c>
-      <c r="M8" s="24">
+      <c r="M8" s="26">
         <v>10479</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="N8" s="27">
+        <v>10336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="21">
         <v>4548.5</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="21">
         <v>4726.7</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="21">
         <v>5230.8</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="21">
         <v>6192.7</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="21">
         <v>7378.6</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="21">
         <v>7390</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="21">
         <v>8497</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K9" s="21">
         <v>8905.7000000000007</v>
       </c>
-      <c r="L9" s="18">
+      <c r="L9" s="21">
         <v>9077.1</v>
       </c>
-      <c r="M9" s="25">
+      <c r="M9" s="28">
         <v>9416.2000000000007</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+      <c r="N9" s="29">
+        <v>9132.2000000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="21">
         <v>4561.6000000000004</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="21">
         <v>4879.8999999999996</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="21">
         <v>5699.4</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="21">
         <v>6074.3</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="21">
         <v>9018.1</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="21">
         <v>8359.7999999999993</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="21">
         <v>8922.4</v>
       </c>
-      <c r="K10" s="18">
+      <c r="K10" s="21">
         <v>9116.6</v>
       </c>
-      <c r="L10" s="18">
+      <c r="L10" s="21">
         <v>9775.9</v>
       </c>
-      <c r="M10" s="25">
+      <c r="M10" s="28">
         <v>10370.299999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="31" t="s">
+      <c r="N10" s="29">
+        <v>10583.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21">
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="23">
         <v>15134</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="24">
         <v>20225</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="24">
         <v>25265</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J11" s="24">
         <v>24254</v>
       </c>
-      <c r="K11" s="23">
+      <c r="K11" s="25">
         <v>26046</v>
       </c>
-      <c r="L11" s="23">
+      <c r="L11" s="25">
         <v>29769</v>
       </c>
-      <c r="M11" s="24">
+      <c r="M11" s="26">
         <v>32688</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+      <c r="N11" s="27">
+        <v>31898</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="21">
         <v>10291.1</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="21">
         <v>13648.2</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="21">
         <v>13694.6</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="21">
         <v>14243.4</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="21">
         <v>20206.2</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="21">
         <v>23165.5</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="21">
         <v>22098.5</v>
       </c>
-      <c r="K12" s="18">
+      <c r="K12" s="21">
         <v>19858.599999999999</v>
       </c>
-      <c r="L12" s="18">
+      <c r="L12" s="21">
         <v>25112.799999999999</v>
       </c>
-      <c r="M12" s="25">
+      <c r="M12" s="28">
         <v>31672.7</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="N12" s="29">
+        <v>30577.599999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="21">
         <v>10478.799999999999</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="21">
         <v>17111.099999999999</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="21">
         <v>14402.8</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="21">
         <v>15562.2</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="21">
         <v>20843.900000000001</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="21">
         <v>25767.3</v>
       </c>
-      <c r="J13" s="18">
+      <c r="J13" s="21">
         <v>23738</v>
       </c>
-      <c r="K13" s="18">
+      <c r="K13" s="21">
         <v>26349.599999999999</v>
       </c>
-      <c r="L13" s="18">
+      <c r="L13" s="21">
         <v>29614.3</v>
       </c>
-      <c r="M13" s="25">
+      <c r="M13" s="28">
         <v>30927.200000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="30" t="s">
+      <c r="N13" s="29">
+        <v>40658.300000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="21">
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23">
         <v>18577</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="24">
         <v>19340</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="24">
         <v>21162</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="24">
         <v>24026</v>
       </c>
-      <c r="K14" s="23">
+      <c r="K14" s="25">
         <v>24253</v>
       </c>
-      <c r="L14" s="23">
+      <c r="L14" s="25">
         <v>25697</v>
       </c>
-      <c r="M14" s="24">
+      <c r="M14" s="26">
         <v>31221</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+      <c r="N14" s="27">
+        <v>35392</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="21">
         <v>7779.9</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="21">
         <v>9583.2000000000007</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="21">
         <v>9506.6</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="21">
         <v>10322</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="21">
         <v>11022.6</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="21">
         <v>11949.9</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J15" s="21">
         <v>12736.5</v>
       </c>
-      <c r="K15" s="18">
+      <c r="K15" s="21">
         <v>13704.7</v>
       </c>
-      <c r="L15" s="18">
+      <c r="L15" s="21">
         <v>15161</v>
       </c>
-      <c r="M15" s="25">
+      <c r="M15" s="28">
         <v>16268</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
+      <c r="N15" s="29">
+        <v>17546.900000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="21">
         <v>10879.1</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="21">
         <v>11594.8</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="21">
         <v>12216.2</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="21">
         <v>13090.4</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="21">
         <v>13740</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="21">
         <v>15076.2</v>
       </c>
-      <c r="J16" s="18">
+      <c r="J16" s="21">
         <v>15802.1</v>
       </c>
-      <c r="K16" s="18">
+      <c r="K16" s="21">
         <v>16711.7</v>
       </c>
-      <c r="L16" s="18">
+      <c r="L16" s="21">
         <v>17658.900000000001</v>
       </c>
-      <c r="M16" s="25">
+      <c r="M16" s="28">
         <v>21044.9</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="30" t="s">
+      <c r="N16" s="29">
+        <v>24272.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21">
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="23">
         <v>20571.599999999999</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H17" s="24">
         <v>23537</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I17" s="24">
         <v>27094</v>
       </c>
-      <c r="J17" s="22">
+      <c r="J17" s="24">
         <v>29528</v>
       </c>
-      <c r="K17" s="23">
+      <c r="K17" s="25">
         <v>30819</v>
       </c>
-      <c r="L17" s="23">
+      <c r="L17" s="25">
         <v>31452</v>
       </c>
-      <c r="M17" s="24">
+      <c r="M17" s="26">
         <v>31297</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
+      <c r="N17" s="27">
+        <v>30821</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="21">
         <v>14160.1</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="21">
         <v>18564.400000000001</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="21">
         <v>17006.400000000001</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="21">
         <v>19774.7</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="21">
         <v>22865.4</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="21">
         <v>23702.799999999999</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J18" s="21">
         <v>24394.9</v>
       </c>
-      <c r="K18" s="18">
+      <c r="K18" s="21">
         <v>24855</v>
       </c>
-      <c r="L18" s="18">
+      <c r="L18" s="21">
         <v>28936.1</v>
       </c>
-      <c r="M18" s="25">
+      <c r="M18" s="28">
         <v>27557.9</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+      <c r="N18" s="29">
+        <v>29452.400000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="21">
         <v>15121.5</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="21">
         <v>18018.099999999999</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="21">
         <v>17317.900000000001</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="21">
         <v>19512.8</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="21">
         <v>23517.5</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="21">
         <v>24212.7</v>
       </c>
-      <c r="J19" s="18">
+      <c r="J19" s="21">
         <v>24266.400000000001</v>
       </c>
-      <c r="K19" s="18">
+      <c r="K19" s="21">
         <v>26772.1</v>
       </c>
-      <c r="L19" s="18">
+      <c r="L19" s="21">
         <v>29039.9</v>
       </c>
-      <c r="M19" s="25">
+      <c r="M19" s="28">
         <v>28338.9</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="30" t="s">
+      <c r="N19" s="29">
+        <v>30906.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="21">
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="23">
         <v>9329.7999999999993</v>
       </c>
-      <c r="H20" s="22">
+      <c r="H20" s="24">
         <v>10833</v>
       </c>
-      <c r="I20" s="22">
+      <c r="I20" s="24">
         <v>11478</v>
       </c>
-      <c r="J20" s="22">
+      <c r="J20" s="24">
         <v>11802</v>
       </c>
-      <c r="K20" s="23">
+      <c r="K20" s="25">
         <v>12367</v>
       </c>
-      <c r="L20" s="23">
+      <c r="L20" s="25">
         <v>12824</v>
       </c>
-      <c r="M20" s="24">
+      <c r="M20" s="26">
         <v>14781</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
+      <c r="N20" s="27">
+        <v>14686</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="21">
         <v>7097.9</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="21">
         <v>7874.8</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="21">
         <v>8309.5</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="21">
         <v>8752.5</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21" s="21">
         <v>9335.7000000000007</v>
       </c>
-      <c r="I21" s="18">
+      <c r="I21" s="21">
         <v>10668.2</v>
       </c>
-      <c r="J21" s="18">
+      <c r="J21" s="21">
         <v>11217</v>
       </c>
-      <c r="K21" s="18">
+      <c r="K21" s="21">
         <v>11809.7</v>
       </c>
-      <c r="L21" s="18">
+      <c r="L21" s="21">
         <v>14491.6</v>
       </c>
-      <c r="M21" s="25">
+      <c r="M21" s="28">
         <v>14552.2</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
+      <c r="N21" s="29">
+        <v>14354.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="21">
         <v>8512.1</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="21">
         <v>9348.2999999999993</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="21">
         <v>10479.9</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="21">
         <v>12181.5</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H22" s="21">
         <v>11772.3</v>
       </c>
-      <c r="I22" s="18">
+      <c r="I22" s="21">
         <v>12166.8</v>
       </c>
-      <c r="J22" s="18">
+      <c r="J22" s="21">
         <v>13276.3</v>
       </c>
-      <c r="K22" s="18">
+      <c r="K22" s="21">
         <v>14015.9</v>
       </c>
-      <c r="L22" s="18">
+      <c r="L22" s="21">
         <v>14979.6</v>
       </c>
-      <c r="M22" s="25">
+      <c r="M22" s="28">
         <v>16785.599999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="31" t="s">
+      <c r="N22" s="29">
+        <v>18247.400000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="21">
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="23">
         <v>10007</v>
       </c>
-      <c r="H23" s="22">
+      <c r="H23" s="24">
         <v>11959</v>
       </c>
-      <c r="I23" s="22">
+      <c r="I23" s="24">
         <v>12384</v>
       </c>
-      <c r="J23" s="22">
+      <c r="J23" s="24">
         <v>13156</v>
       </c>
-      <c r="K23" s="23">
+      <c r="K23" s="25">
         <v>14549</v>
       </c>
-      <c r="L23" s="23">
+      <c r="L23" s="25">
         <v>14853</v>
       </c>
-      <c r="M23" s="24">
+      <c r="M23" s="26">
         <v>15748</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
+      <c r="N23" s="27">
+        <v>16354</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="21">
         <v>7461.7</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="21">
         <v>8708.7999999999993</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="21">
         <v>10101</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="21">
         <v>8990.4</v>
       </c>
-      <c r="H24" s="18">
+      <c r="H24" s="21">
         <v>8991.5</v>
       </c>
-      <c r="I24" s="18">
+      <c r="I24" s="21">
         <v>11706.6</v>
       </c>
-      <c r="J24" s="18">
+      <c r="J24" s="21">
         <v>14489.9</v>
       </c>
-      <c r="K24" s="18">
+      <c r="K24" s="21">
         <v>13824.4</v>
       </c>
-      <c r="L24" s="18">
+      <c r="L24" s="21">
         <v>15478.4</v>
       </c>
-      <c r="M24" s="25">
+      <c r="M24" s="28">
         <v>14581.4</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
+      <c r="N24" s="29">
+        <v>18475.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="21">
         <v>9692.9</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="21">
         <v>10047.4</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="21">
         <v>10554.2</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="21">
         <v>11811.2</v>
       </c>
-      <c r="H25" s="18">
+      <c r="H25" s="21">
         <v>11689.2</v>
       </c>
-      <c r="I25" s="18">
+      <c r="I25" s="21">
         <v>14730.1</v>
       </c>
-      <c r="J25" s="18">
+      <c r="J25" s="21">
         <v>16612.5</v>
       </c>
-      <c r="K25" s="18">
+      <c r="K25" s="21">
         <v>16640.2</v>
       </c>
-      <c r="L25" s="18">
+      <c r="L25" s="21">
         <v>20339.099999999999</v>
       </c>
-      <c r="M25" s="25">
+      <c r="M25" s="28">
         <v>18540.3</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="30" t="s">
+      <c r="N25" s="29">
+        <v>24809.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="21">
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="23">
         <v>12361</v>
       </c>
-      <c r="H26" s="22">
+      <c r="H26" s="24">
         <v>12648</v>
       </c>
-      <c r="I26" s="22">
+      <c r="I26" s="24">
         <v>13150</v>
       </c>
-      <c r="J26" s="22">
+      <c r="J26" s="24">
         <v>13958</v>
       </c>
-      <c r="K26" s="23">
+      <c r="K26" s="25">
         <v>14417</v>
       </c>
-      <c r="L26" s="23">
+      <c r="L26" s="25">
         <v>14109</v>
       </c>
-      <c r="M26" s="24">
+      <c r="M26" s="26">
         <v>14926</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
+      <c r="N26" s="27">
+        <v>15681</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="21">
         <v>10848.1</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="21">
         <v>10912.9</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="21">
         <v>11559.5</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="21">
         <v>13767.4</v>
       </c>
-      <c r="H27" s="18">
+      <c r="H27" s="21">
         <v>12455.4</v>
       </c>
-      <c r="I27" s="18">
+      <c r="I27" s="21">
         <v>14647.7</v>
       </c>
-      <c r="J27" s="18">
+      <c r="J27" s="21">
         <v>14808.3</v>
       </c>
-      <c r="K27" s="18">
+      <c r="K27" s="21">
         <v>16022.1</v>
       </c>
-      <c r="L27" s="18">
+      <c r="L27" s="21">
         <v>16246.1</v>
       </c>
-      <c r="M27" s="25">
+      <c r="M27" s="28">
         <v>16290.8</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
+      <c r="N27" s="29">
+        <v>18227.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="21">
         <v>13252</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="21">
         <v>14999.1</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="21">
         <v>15591.8</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="21">
         <v>17200.5</v>
       </c>
-      <c r="H28" s="18">
+      <c r="H28" s="21">
         <v>15170.8</v>
       </c>
-      <c r="I28" s="18">
+      <c r="I28" s="21">
         <v>17360.8</v>
       </c>
-      <c r="J28" s="18">
+      <c r="J28" s="21">
         <v>16556.2</v>
       </c>
-      <c r="K28" s="18">
+      <c r="K28" s="21">
         <v>17624.099999999999</v>
       </c>
-      <c r="L28" s="18">
+      <c r="L28" s="21">
         <v>19132.8</v>
       </c>
-      <c r="M28" s="25">
+      <c r="M28" s="28">
         <v>19391.7</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="31" t="s">
+      <c r="N28" s="29">
+        <v>21803.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="21">
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="23">
         <v>16133</v>
       </c>
-      <c r="H29" s="22">
+      <c r="H29" s="24">
         <v>18143</v>
       </c>
-      <c r="I29" s="22">
+      <c r="I29" s="24">
         <v>19862</v>
       </c>
-      <c r="J29" s="22">
+      <c r="J29" s="24">
         <v>22617</v>
       </c>
-      <c r="K29" s="23">
+      <c r="K29" s="25">
         <v>23037</v>
       </c>
-      <c r="L29" s="23">
+      <c r="L29" s="25">
         <v>23141</v>
       </c>
-      <c r="M29" s="24">
+      <c r="M29" s="26">
         <v>21060</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
+      <c r="N29" s="27">
+        <v>20997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="21">
         <v>9395.1</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E30" s="21">
         <v>10325</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="21">
         <v>11036.2</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="21">
         <v>13857.9</v>
       </c>
-      <c r="H30" s="18">
+      <c r="H30" s="21">
         <v>14205.6</v>
       </c>
-      <c r="I30" s="18">
+      <c r="I30" s="21">
         <v>13837.2</v>
       </c>
-      <c r="J30" s="18">
+      <c r="J30" s="21">
         <v>16074.1</v>
       </c>
-      <c r="K30" s="18">
+      <c r="K30" s="21">
         <v>14876.6</v>
       </c>
-      <c r="L30" s="18">
+      <c r="L30" s="21">
         <v>15182.1</v>
       </c>
-      <c r="M30" s="25">
+      <c r="M30" s="28">
         <v>15782.1</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
+      <c r="N30" s="29">
+        <v>17198.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D31" s="21">
         <v>12164.4</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E31" s="21">
         <v>15698.9</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="21">
         <v>17090.7</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="21">
         <v>21369.200000000001</v>
       </c>
-      <c r="H31" s="18">
+      <c r="H31" s="21">
         <v>22780</v>
       </c>
-      <c r="I31" s="18">
+      <c r="I31" s="21">
         <v>22726.5</v>
       </c>
-      <c r="J31" s="18">
+      <c r="J31" s="21">
         <v>25482.6</v>
       </c>
-      <c r="K31" s="18">
+      <c r="K31" s="21">
         <v>25678.1</v>
       </c>
-      <c r="L31" s="18">
+      <c r="L31" s="21">
         <v>24925.1</v>
       </c>
-      <c r="M31" s="25">
+      <c r="M31" s="28">
         <v>24799.1</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="30" t="s">
+      <c r="N31" s="29">
+        <v>27538.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="21">
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="23">
         <v>8813.1</v>
       </c>
-      <c r="H32" s="22">
+      <c r="H32" s="24">
         <v>9553</v>
       </c>
-      <c r="I32" s="22">
+      <c r="I32" s="24">
         <v>10265</v>
       </c>
-      <c r="J32" s="22">
+      <c r="J32" s="24">
         <v>11138</v>
       </c>
-      <c r="K32" s="23">
+      <c r="K32" s="25">
         <v>12003</v>
       </c>
-      <c r="L32" s="23">
+      <c r="L32" s="25">
         <v>12577</v>
       </c>
-      <c r="M32" s="24">
+      <c r="M32" s="26">
         <v>12863</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
+      <c r="N32" s="27">
+        <v>11665</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D33" s="21">
         <v>7487.3</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E33" s="21">
         <v>10012.700000000001</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="21">
         <v>9877.6</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G33" s="21">
         <v>9314.5</v>
       </c>
-      <c r="H33" s="18">
+      <c r="H33" s="21">
         <v>9799.1</v>
       </c>
-      <c r="I33" s="18">
+      <c r="I33" s="21">
         <v>9837.6</v>
       </c>
-      <c r="J33" s="18">
+      <c r="J33" s="21">
         <v>11401.1</v>
       </c>
-      <c r="K33" s="18">
+      <c r="K33" s="21">
         <v>12791</v>
       </c>
-      <c r="L33" s="18">
+      <c r="L33" s="21">
         <v>14685.6</v>
       </c>
-      <c r="M33" s="25">
+      <c r="M33" s="28">
         <v>16302.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
+      <c r="N33" s="29">
+        <v>16186.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D34" s="21">
         <v>10371.4</v>
       </c>
-      <c r="E34" s="18">
+      <c r="E34" s="21">
         <v>10772.3</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="21">
         <v>11218.6</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G34" s="21">
         <v>12369.8</v>
       </c>
-      <c r="H34" s="18">
+      <c r="H34" s="21">
         <v>12729.2</v>
       </c>
-      <c r="I34" s="18">
+      <c r="I34" s="21">
         <v>13681.8</v>
       </c>
-      <c r="J34" s="18">
+      <c r="J34" s="21">
         <v>11978.9</v>
       </c>
-      <c r="K34" s="18">
+      <c r="K34" s="21">
         <v>15929.9</v>
       </c>
-      <c r="L34" s="18">
+      <c r="L34" s="21">
         <v>17239.900000000001</v>
       </c>
-      <c r="M34" s="25">
+      <c r="M34" s="28">
         <v>18672.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="31" t="s">
+      <c r="N34" s="29">
+        <v>17493.400000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="30" t="s">
+      <c r="C35" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="23">
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="25">
         <v>21862</v>
       </c>
-      <c r="H35" s="22">
+      <c r="H35" s="24">
         <v>24678</v>
       </c>
-      <c r="I35" s="22">
+      <c r="I35" s="24">
         <v>26204</v>
       </c>
-      <c r="J35" s="22">
+      <c r="J35" s="24">
         <v>28160</v>
       </c>
-      <c r="K35" s="23">
+      <c r="K35" s="25">
         <v>30707</v>
       </c>
-      <c r="L35" s="23">
+      <c r="L35" s="25">
         <v>29713</v>
       </c>
-      <c r="M35" s="24">
+      <c r="M35" s="26">
         <v>35114</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="8" t="s">
+      <c r="N35" s="27">
+        <v>35237</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="21">
         <v>14988.1</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="21">
         <v>15828.9</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="21">
         <v>18211.400000000001</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="21">
         <v>18929.5</v>
       </c>
-      <c r="H36" s="18">
+      <c r="H36" s="21">
         <v>19306.400000000001</v>
       </c>
-      <c r="I36" s="18">
+      <c r="I36" s="21">
         <v>27087.599999999999</v>
       </c>
-      <c r="J36" s="18">
+      <c r="J36" s="21">
         <v>24367</v>
       </c>
-      <c r="K36" s="18">
+      <c r="K36" s="21">
         <v>26919.8</v>
       </c>
-      <c r="L36" s="18">
+      <c r="L36" s="21">
         <v>30636.9</v>
       </c>
-      <c r="M36" s="25">
+      <c r="M36" s="28">
         <v>29827.200000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="8" t="s">
+      <c r="N36" s="29">
+        <v>31872.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D37" s="21">
         <v>19715.7</v>
       </c>
-      <c r="E37" s="18">
+      <c r="E37" s="21">
         <v>21524.7</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="21">
         <v>24850.9</v>
       </c>
-      <c r="G37" s="18">
+      <c r="G37" s="21">
         <v>24702.2</v>
       </c>
-      <c r="H37" s="18">
+      <c r="H37" s="21">
         <v>28211.8</v>
       </c>
-      <c r="I37" s="18">
+      <c r="I37" s="21">
         <v>24422.400000000001</v>
       </c>
-      <c r="J37" s="18">
+      <c r="J37" s="21">
         <v>30262.799999999999</v>
       </c>
-      <c r="K37" s="18">
+      <c r="K37" s="21">
         <v>39038.199999999997</v>
       </c>
-      <c r="L37" s="18">
+      <c r="L37" s="21">
         <v>36272.199999999997</v>
       </c>
-      <c r="M37" s="25">
+      <c r="M37" s="28">
         <v>39569.199999999997</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="31" t="s">
+      <c r="N37" s="29">
+        <v>35404.699999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="23">
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="25">
         <v>27066</v>
       </c>
-      <c r="H38" s="22">
+      <c r="H38" s="24">
         <v>26903</v>
       </c>
-      <c r="I38" s="22">
+      <c r="I38" s="24">
         <v>30157</v>
       </c>
-      <c r="J38" s="22">
+      <c r="J38" s="24">
         <v>33038</v>
       </c>
-      <c r="K38" s="23">
+      <c r="K38" s="25">
         <v>34019</v>
       </c>
-      <c r="L38" s="23">
+      <c r="L38" s="25">
         <v>35637</v>
       </c>
-      <c r="M38" s="24">
+      <c r="M38" s="26">
         <v>35343</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="8" t="s">
+      <c r="N38" s="27">
+        <v>36245</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="18">
+      <c r="D39" s="21">
         <v>18256.900000000001</v>
       </c>
-      <c r="E39" s="18">
+      <c r="E39" s="21">
         <v>19804.3</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="21">
         <v>21181.1</v>
       </c>
-      <c r="G39" s="18">
+      <c r="G39" s="21">
         <v>24106.799999999999</v>
       </c>
-      <c r="H39" s="18">
+      <c r="H39" s="21">
         <v>24028</v>
       </c>
-      <c r="I39" s="18">
+      <c r="I39" s="21">
         <v>24482.400000000001</v>
       </c>
-      <c r="J39" s="18">
+      <c r="J39" s="21">
         <v>24810.5</v>
       </c>
-      <c r="K39" s="18">
+      <c r="K39" s="21">
         <v>28331</v>
       </c>
-      <c r="L39" s="18">
+      <c r="L39" s="21">
         <v>31556.2</v>
       </c>
-      <c r="M39" s="25">
+      <c r="M39" s="28">
         <v>31531.5</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="8" t="s">
+      <c r="N39" s="29">
+        <v>33125.199999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="18">
+      <c r="D40" s="21">
         <v>23772.5</v>
       </c>
-      <c r="E40" s="18">
+      <c r="E40" s="21">
         <v>25192</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="21">
         <v>26902.3</v>
       </c>
-      <c r="G40" s="18">
+      <c r="G40" s="21">
         <v>32503.3</v>
       </c>
-      <c r="H40" s="18">
+      <c r="H40" s="21">
         <v>31556.2</v>
       </c>
-      <c r="I40" s="18">
+      <c r="I40" s="21">
         <v>32357</v>
       </c>
-      <c r="J40" s="18">
+      <c r="J40" s="21">
         <v>36351.699999999997</v>
       </c>
-      <c r="K40" s="18">
+      <c r="K40" s="21">
         <v>36192.1</v>
       </c>
-      <c r="L40" s="18">
+      <c r="L40" s="21">
         <v>41375</v>
       </c>
-      <c r="M40" s="25">
+      <c r="M40" s="28">
         <v>42666.9</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="31" t="s">
+      <c r="N40" s="29">
+        <v>46412.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B41" s="31" t="s">
+      <c r="B41" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="30" t="s">
+      <c r="C41" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="23">
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="25">
         <v>7938</v>
       </c>
-      <c r="H41" s="22">
+      <c r="H41" s="24">
         <v>9703</v>
       </c>
-      <c r="I41" s="22">
+      <c r="I41" s="24">
         <v>10000</v>
       </c>
-      <c r="J41" s="22">
+      <c r="J41" s="24">
         <v>10086</v>
       </c>
-      <c r="K41" s="23">
+      <c r="K41" s="25">
         <v>11337</v>
       </c>
-      <c r="L41" s="23">
+      <c r="L41" s="25">
         <v>12038</v>
       </c>
-      <c r="M41" s="24">
+      <c r="M41" s="26">
         <v>11408</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="8" t="s">
+      <c r="N41" s="27">
+        <v>11881</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="18">
+      <c r="D42" s="21">
         <v>6003</v>
       </c>
-      <c r="E42" s="18">
+      <c r="E42" s="21">
         <v>7520.8</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="21">
         <v>7942.1</v>
       </c>
-      <c r="G42" s="18">
+      <c r="G42" s="21">
         <v>9733.9</v>
       </c>
-      <c r="H42" s="18">
+      <c r="H42" s="21">
         <v>10921.3</v>
       </c>
-      <c r="I42" s="18">
+      <c r="I42" s="21">
         <v>10633.5</v>
       </c>
-      <c r="J42" s="18">
+      <c r="J42" s="21">
         <v>11195.2</v>
       </c>
-      <c r="K42" s="18">
+      <c r="K42" s="21">
         <v>12556.1</v>
       </c>
-      <c r="L42" s="18">
+      <c r="L42" s="21">
         <v>14041</v>
       </c>
-      <c r="M42" s="25">
+      <c r="M42" s="28">
         <v>14029.1</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="8" t="s">
+      <c r="N42" s="29">
+        <v>16182.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="18">
+      <c r="D43" s="21">
         <v>7571.4</v>
       </c>
-      <c r="E43" s="18">
+      <c r="E43" s="21">
         <v>8564.2999999999993</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F43" s="21">
         <v>9644.7000000000007</v>
       </c>
-      <c r="G43" s="18">
+      <c r="G43" s="21">
         <v>10498.3</v>
       </c>
-      <c r="H43" s="18">
+      <c r="H43" s="21">
         <v>12427.6</v>
       </c>
-      <c r="I43" s="18">
+      <c r="I43" s="21">
         <v>12024.1</v>
       </c>
-      <c r="J43" s="18">
+      <c r="J43" s="21">
         <v>13722.1</v>
       </c>
-      <c r="K43" s="18">
+      <c r="K43" s="21">
         <v>13757.5</v>
       </c>
-      <c r="L43" s="18">
+      <c r="L43" s="21">
         <v>14889.7</v>
       </c>
-      <c r="M43" s="25">
+      <c r="M43" s="28">
         <v>16116.4</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="30" t="s">
+      <c r="N43" s="29">
+        <v>17528.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="C44" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="23">
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="25">
         <v>15022</v>
       </c>
-      <c r="H44" s="22">
+      <c r="H44" s="24">
         <v>17582</v>
       </c>
-      <c r="I44" s="22">
+      <c r="I44" s="24">
         <v>18197</v>
       </c>
-      <c r="J44" s="22">
+      <c r="J44" s="24">
         <v>20690</v>
       </c>
-      <c r="K44" s="23">
+      <c r="K44" s="25">
         <v>21760</v>
       </c>
-      <c r="L44" s="23">
+      <c r="L44" s="25">
         <v>23566</v>
       </c>
-      <c r="M44" s="24">
+      <c r="M44" s="26">
         <v>24017</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="8" t="s">
+      <c r="N44" s="27">
+        <v>23457</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D45" s="18">
+      <c r="D45" s="21">
         <v>10690</v>
       </c>
-      <c r="E45" s="18">
+      <c r="E45" s="21">
         <v>12009.8</v>
       </c>
-      <c r="F45" s="18">
+      <c r="F45" s="21">
         <v>12487.8</v>
       </c>
-      <c r="G45" s="18">
+      <c r="G45" s="21">
         <v>13570.4</v>
       </c>
-      <c r="H45" s="18">
+      <c r="H45" s="21">
         <v>17195.099999999999</v>
       </c>
-      <c r="I45" s="18">
+      <c r="I45" s="21">
         <v>13596</v>
       </c>
-      <c r="J45" s="18">
+      <c r="J45" s="21">
         <v>15840.4</v>
       </c>
-      <c r="K45" s="18">
+      <c r="K45" s="21">
         <v>16417</v>
       </c>
-      <c r="L45" s="18">
+      <c r="L45" s="21">
         <v>18913.7</v>
       </c>
-      <c r="M45" s="25">
+      <c r="M45" s="28">
         <v>19644.8</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="8" t="s">
+      <c r="N45" s="29">
+        <v>23399.7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="18">
+      <c r="D46" s="21">
         <v>15826.9</v>
       </c>
-      <c r="E46" s="18">
+      <c r="E46" s="21">
         <v>16723.3</v>
       </c>
-      <c r="F46" s="18">
+      <c r="F46" s="21">
         <v>16335.8</v>
       </c>
-      <c r="G46" s="18">
+      <c r="G46" s="21">
         <v>19122.8</v>
       </c>
-      <c r="H46" s="18">
+      <c r="H46" s="21">
         <v>14561.4</v>
       </c>
-      <c r="I46" s="18">
+      <c r="I46" s="21">
         <v>17860.3</v>
       </c>
-      <c r="J46" s="18">
+      <c r="J46" s="21">
         <v>25270.799999999999</v>
       </c>
-      <c r="K46" s="18">
+      <c r="K46" s="21">
         <v>22722.1</v>
       </c>
-      <c r="L46" s="18">
+      <c r="L46" s="21">
         <v>26838.2</v>
       </c>
-      <c r="M46" s="25">
+      <c r="M46" s="28">
         <v>26466.5</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="30" t="s">
+      <c r="N46" s="29">
+        <v>25911.200000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="23">
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="25">
         <v>10246</v>
       </c>
-      <c r="H47" s="22">
+      <c r="H47" s="24">
         <v>11078</v>
       </c>
-      <c r="I47" s="22">
+      <c r="I47" s="24">
         <v>12263</v>
       </c>
-      <c r="J47" s="22">
+      <c r="J47" s="24">
         <v>11954</v>
       </c>
-      <c r="K47" s="23">
+      <c r="K47" s="25">
         <v>12410</v>
       </c>
-      <c r="L47" s="23">
+      <c r="L47" s="25">
         <v>11973</v>
       </c>
-      <c r="M47" s="24">
+      <c r="M47" s="26">
         <v>14774</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="8" t="s">
+      <c r="N47" s="27">
+        <v>15277</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D48" s="18">
+      <c r="D48" s="21">
         <v>6066.8</v>
       </c>
-      <c r="E48" s="18">
+      <c r="E48" s="21">
         <v>6684.2</v>
       </c>
-      <c r="F48" s="18">
+      <c r="F48" s="21">
         <v>7577.1</v>
       </c>
-      <c r="G48" s="18">
+      <c r="G48" s="21">
         <v>9014.9</v>
       </c>
-      <c r="H48" s="18">
+      <c r="H48" s="21">
         <v>10734</v>
       </c>
-      <c r="I48" s="18">
+      <c r="I48" s="21">
         <v>10033.799999999999</v>
       </c>
-      <c r="J48" s="18">
+      <c r="J48" s="21">
         <v>11458.3</v>
       </c>
-      <c r="K48" s="18">
+      <c r="K48" s="21">
         <v>10579.6</v>
       </c>
-      <c r="L48" s="18">
+      <c r="L48" s="21">
         <v>11667.4</v>
       </c>
-      <c r="M48" s="25">
+      <c r="M48" s="28">
         <v>13568.9</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
+      <c r="N48" s="29">
+        <v>16010.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D49" s="18">
+      <c r="D49" s="21">
         <v>7583.4</v>
       </c>
-      <c r="E49" s="18">
+      <c r="E49" s="21">
         <v>8698.7999999999993</v>
       </c>
-      <c r="F49" s="18">
+      <c r="F49" s="21">
         <v>9330.9</v>
       </c>
-      <c r="G49" s="18">
+      <c r="G49" s="21">
         <v>11180.8</v>
       </c>
-      <c r="H49" s="18">
+      <c r="H49" s="21">
         <v>11421</v>
       </c>
-      <c r="I49" s="18">
+      <c r="I49" s="21">
         <v>11962.3</v>
       </c>
-      <c r="J49" s="18">
+      <c r="J49" s="21">
         <v>12358.4</v>
       </c>
-      <c r="K49" s="18">
+      <c r="K49" s="21">
         <v>13580.1</v>
       </c>
-      <c r="L49" s="18">
+      <c r="L49" s="21">
         <v>13768.2</v>
       </c>
-      <c r="M49" s="25">
+      <c r="M49" s="28">
         <v>16788.3</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="30" t="s">
+      <c r="N49" s="29">
+        <v>18647.900000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B50" s="30" t="s">
+      <c r="B50" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="30" t="s">
+      <c r="C50" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="23">
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="25">
         <v>15525.5</v>
       </c>
-      <c r="H50" s="22">
+      <c r="H50" s="24">
         <v>16385</v>
       </c>
-      <c r="I50" s="22">
+      <c r="I50" s="24">
         <v>17297</v>
       </c>
-      <c r="J50" s="22">
+      <c r="J50" s="24">
         <v>18183</v>
       </c>
-      <c r="K50" s="23">
+      <c r="K50" s="25">
         <v>19880</v>
       </c>
-      <c r="L50" s="23">
+      <c r="L50" s="25">
         <v>20750</v>
       </c>
-      <c r="M50" s="24">
+      <c r="M50" s="26">
         <v>22879</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="8" t="s">
+      <c r="N50" s="27">
+        <v>22684</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D51" s="18">
+      <c r="D51" s="21">
         <v>6571.7</v>
       </c>
-      <c r="E51" s="18">
+      <c r="E51" s="21">
         <v>8196.1</v>
       </c>
-      <c r="F51" s="18">
+      <c r="F51" s="21">
         <v>11594.3</v>
       </c>
-      <c r="G51" s="18">
+      <c r="G51" s="21">
         <v>11765.2</v>
       </c>
-      <c r="H51" s="18">
+      <c r="H51" s="21">
         <v>11975.8</v>
       </c>
-      <c r="I51" s="18">
+      <c r="I51" s="21">
         <v>12925.8</v>
       </c>
-      <c r="J51" s="18">
+      <c r="J51" s="21">
         <v>14505.9</v>
       </c>
-      <c r="K51" s="18">
+      <c r="K51" s="21">
         <v>15652.5</v>
       </c>
-      <c r="L51" s="18">
+      <c r="L51" s="21">
         <v>15487.8</v>
       </c>
-      <c r="M51" s="25">
+      <c r="M51" s="28">
         <v>16846.5</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="8" t="s">
+      <c r="N51" s="29">
+        <v>18773.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D52" s="18">
+      <c r="D52" s="21">
         <v>9048.7000000000007</v>
       </c>
-      <c r="E52" s="18">
+      <c r="E52" s="21">
         <v>10650.3</v>
       </c>
-      <c r="F52" s="18">
+      <c r="F52" s="21">
         <v>13047.5</v>
       </c>
-      <c r="G52" s="18">
+      <c r="G52" s="21">
         <v>14003.1</v>
       </c>
-      <c r="H52" s="18">
+      <c r="H52" s="21">
         <v>14265.1</v>
       </c>
-      <c r="I52" s="18">
+      <c r="I52" s="21">
         <v>15570.6</v>
       </c>
-      <c r="J52" s="18">
+      <c r="J52" s="21">
         <v>17176.2</v>
       </c>
-      <c r="K52" s="18">
+      <c r="K52" s="21">
         <v>18079.900000000001</v>
       </c>
-      <c r="L52" s="18">
+      <c r="L52" s="21">
         <v>17500</v>
       </c>
-      <c r="M52" s="25">
+      <c r="M52" s="28">
         <v>20346.099999999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="31" t="s">
+      <c r="N52" s="29">
+        <v>21832.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="31" t="s">
+      <c r="B53" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C53" s="30" t="s">
+      <c r="C53" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="23">
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="25">
         <v>8204.2999999999993</v>
       </c>
-      <c r="H53" s="22">
+      <c r="H53" s="24">
         <v>9233</v>
       </c>
-      <c r="I53" s="22">
+      <c r="I53" s="24">
         <v>10862</v>
       </c>
-      <c r="J53" s="22">
+      <c r="J53" s="24">
         <v>11095</v>
       </c>
-      <c r="K53" s="23">
+      <c r="K53" s="25">
         <v>11369</v>
       </c>
-      <c r="L53" s="23">
+      <c r="L53" s="25">
         <v>12412</v>
       </c>
-      <c r="M53" s="24">
+      <c r="M53" s="26">
         <v>14764</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="8" t="s">
+      <c r="N53" s="27">
+        <v>14821</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D54" s="18">
+      <c r="D54" s="21">
         <v>7361.5</v>
       </c>
-      <c r="E54" s="18">
+      <c r="E54" s="21">
         <v>7317.6</v>
       </c>
-      <c r="F54" s="18">
+      <c r="F54" s="21">
         <v>7214.6</v>
       </c>
-      <c r="G54" s="18">
+      <c r="G54" s="21">
         <v>7681.8</v>
       </c>
-      <c r="H54" s="18">
+      <c r="H54" s="21">
         <v>9970.7999999999993</v>
       </c>
-      <c r="I54" s="18">
+      <c r="I54" s="21">
         <v>10536.7</v>
       </c>
-      <c r="J54" s="18">
+      <c r="J54" s="21">
         <v>10748.5</v>
       </c>
-      <c r="K54" s="18">
+      <c r="K54" s="21">
         <v>10691.4</v>
       </c>
-      <c r="L54" s="18">
+      <c r="L54" s="21">
         <v>13319</v>
       </c>
-      <c r="M54" s="25">
+      <c r="M54" s="28">
         <v>14260</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="8" t="s">
+      <c r="N54" s="29">
+        <v>15042.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D55" s="18">
+      <c r="D55" s="21">
         <v>8726.2000000000007</v>
       </c>
-      <c r="E55" s="18">
+      <c r="E55" s="21">
         <v>8140.4</v>
       </c>
-      <c r="F55" s="18">
+      <c r="F55" s="21">
         <v>8411.4</v>
       </c>
-      <c r="G55" s="18">
+      <c r="G55" s="21">
         <v>8499.4</v>
       </c>
-      <c r="H55" s="18">
+      <c r="H55" s="21">
         <v>10479.700000000001</v>
       </c>
-      <c r="I55" s="18">
+      <c r="I55" s="21">
         <v>10653.3</v>
       </c>
-      <c r="J55" s="18">
+      <c r="J55" s="21">
         <v>11155.5</v>
       </c>
-      <c r="K55" s="18">
+      <c r="K55" s="21">
         <v>11006.4</v>
       </c>
-      <c r="L55" s="18">
+      <c r="L55" s="21">
         <v>13163</v>
       </c>
-      <c r="M55" s="25">
+      <c r="M55" s="28">
         <v>14054.9</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="30" t="s">
+      <c r="N55" s="29">
+        <v>14641.8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B56" s="30" t="s">
+      <c r="B56" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C56" s="30" t="s">
+      <c r="C56" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="23">
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="25">
         <v>9244</v>
       </c>
-      <c r="H56" s="22">
+      <c r="H56" s="24">
         <v>9381</v>
       </c>
-      <c r="I56" s="22">
+      <c r="I56" s="24">
         <v>9728</v>
       </c>
-      <c r="J56" s="22">
+      <c r="J56" s="24">
         <v>9947</v>
       </c>
-      <c r="K56" s="23">
+      <c r="K56" s="25">
         <v>10313</v>
       </c>
-      <c r="L56" s="23">
+      <c r="L56" s="25">
         <v>10809</v>
       </c>
-      <c r="M56" s="24">
+      <c r="M56" s="26">
         <v>10937</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="8" t="s">
+      <c r="N56" s="27">
+        <v>10966</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D57" s="26">
+      <c r="D57" s="30">
         <v>9256.1</v>
       </c>
-      <c r="E57" s="26">
+      <c r="E57" s="30">
         <v>8892</v>
       </c>
-      <c r="F57" s="26">
+      <c r="F57" s="30">
         <v>8994.9</v>
       </c>
-      <c r="G57" s="26">
+      <c r="G57" s="30">
         <v>8966.5</v>
       </c>
-      <c r="H57" s="26">
+      <c r="H57" s="30">
         <v>9394.4</v>
       </c>
-      <c r="I57" s="26">
+      <c r="I57" s="30">
         <v>9771.2999999999993</v>
       </c>
-      <c r="J57" s="26">
+      <c r="J57" s="30">
         <v>9927.4</v>
       </c>
-      <c r="K57" s="26">
+      <c r="K57" s="30">
         <v>10481.799999999999</v>
       </c>
-      <c r="L57" s="26">
+      <c r="L57" s="30">
         <v>11152.8</v>
       </c>
-      <c r="M57" s="27">
+      <c r="M57" s="31">
         <v>11052.4</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="8" t="s">
+      <c r="N57" s="32">
+        <v>14369</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D58" s="26">
+      <c r="D58" s="30">
         <v>9584.5</v>
       </c>
-      <c r="E58" s="26">
+      <c r="E58" s="30">
         <v>9914.5</v>
       </c>
-      <c r="F58" s="26">
+      <c r="F58" s="30">
         <v>8690.2999999999993</v>
       </c>
-      <c r="G58" s="26">
+      <c r="G58" s="30">
         <v>9027.6</v>
       </c>
-      <c r="H58" s="26">
+      <c r="H58" s="30">
         <v>9319</v>
       </c>
-      <c r="I58" s="26">
+      <c r="I58" s="30">
         <v>9519.9</v>
       </c>
-      <c r="J58" s="26">
+      <c r="J58" s="30">
         <v>9677.7000000000007</v>
       </c>
-      <c r="K58" s="26">
+      <c r="K58" s="30">
         <v>9584.5</v>
       </c>
-      <c r="L58" s="26">
+      <c r="L58" s="30">
         <v>10385.1</v>
       </c>
-      <c r="M58" s="27">
+      <c r="M58" s="31">
         <v>10431.4</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="31" t="s">
+      <c r="N58" s="32">
+        <v>14533.4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B59" s="31" t="s">
+      <c r="B59" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C59" s="30" t="s">
+      <c r="C59" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="23">
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="25">
         <v>9182</v>
       </c>
-      <c r="H59" s="22">
+      <c r="H59" s="24">
         <v>9741</v>
       </c>
-      <c r="I59" s="22">
+      <c r="I59" s="24">
         <v>9042</v>
       </c>
-      <c r="J59" s="22">
+      <c r="J59" s="24">
         <v>8439</v>
       </c>
-      <c r="K59" s="23">
+      <c r="K59" s="25">
         <v>8616</v>
       </c>
-      <c r="L59" s="23">
+      <c r="L59" s="25">
         <v>8982</v>
       </c>
-      <c r="M59" s="24">
+      <c r="M59" s="26">
         <v>9384</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A60" s="8" t="s">
+      <c r="N59" s="27">
+        <v>9502</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C60" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D60" s="18">
+      <c r="D60" s="21">
         <v>6350.6</v>
       </c>
-      <c r="E60" s="18">
+      <c r="E60" s="21">
         <v>6399.4</v>
       </c>
-      <c r="F60" s="18">
+      <c r="F60" s="21">
         <v>7565.3</v>
       </c>
-      <c r="G60" s="18">
+      <c r="G60" s="21">
         <v>7696.6</v>
       </c>
-      <c r="H60" s="18">
+      <c r="H60" s="21">
         <v>8553.4</v>
       </c>
-      <c r="I60" s="18">
+      <c r="I60" s="21">
         <v>8752.2999999999993</v>
       </c>
-      <c r="J60" s="18">
+      <c r="J60" s="21">
         <v>8451</v>
       </c>
-      <c r="K60" s="18">
+      <c r="K60" s="21">
         <v>8799.2000000000007</v>
       </c>
-      <c r="L60" s="18">
+      <c r="L60" s="21">
         <v>8886.7000000000007</v>
       </c>
-      <c r="M60" s="25">
+      <c r="M60" s="28">
         <v>9067.9</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A61" s="8" t="s">
+      <c r="N60" s="29">
+        <v>11261</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D61" s="18">
+      <c r="D61" s="21">
         <v>7746.8</v>
       </c>
-      <c r="E61" s="18">
+      <c r="E61" s="21">
         <v>6702.8</v>
       </c>
-      <c r="F61" s="18">
+      <c r="F61" s="21">
         <v>8250.6</v>
       </c>
-      <c r="G61" s="18">
+      <c r="G61" s="21">
         <v>8975</v>
       </c>
-      <c r="H61" s="18">
+      <c r="H61" s="21">
         <v>9292.2999999999993</v>
       </c>
-      <c r="I61" s="18">
+      <c r="I61" s="21">
         <v>8221.4</v>
       </c>
-      <c r="J61" s="18">
+      <c r="J61" s="21">
         <v>8179</v>
       </c>
-      <c r="K61" s="18">
+      <c r="K61" s="21">
         <v>8061.2</v>
       </c>
-      <c r="L61" s="18">
+      <c r="L61" s="21">
         <v>8964.4</v>
       </c>
-      <c r="M61" s="25">
+      <c r="M61" s="28">
         <v>9003.9</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="31" t="s">
+      <c r="N61" s="29">
+        <v>10477</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B62" s="31" t="s">
+      <c r="B62" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C62" s="30" t="s">
+      <c r="C62" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="26">
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="30">
         <v>9810</v>
       </c>
-      <c r="H62" s="22">
+      <c r="H62" s="24">
         <v>12178</v>
       </c>
-      <c r="I62" s="22">
+      <c r="I62" s="24">
         <v>14823</v>
       </c>
-      <c r="J62" s="22">
+      <c r="J62" s="24">
         <v>15454</v>
       </c>
-      <c r="K62" s="26">
+      <c r="K62" s="30">
         <v>15303</v>
       </c>
-      <c r="L62" s="26">
+      <c r="L62" s="30">
         <v>16266</v>
       </c>
-      <c r="M62" s="27">
+      <c r="M62" s="31">
         <v>18927</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="8" t="s">
+      <c r="N62" s="32">
+        <v>21245</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D63" s="18">
+      <c r="D63" s="21">
         <v>8458.9</v>
       </c>
-      <c r="E63" s="18">
+      <c r="E63" s="21">
         <v>8608</v>
       </c>
-      <c r="F63" s="18">
+      <c r="F63" s="21">
         <v>9771.5</v>
       </c>
-      <c r="G63" s="18">
+      <c r="G63" s="21">
         <v>11030.5</v>
       </c>
-      <c r="H63" s="18">
+      <c r="H63" s="21">
         <v>12707</v>
       </c>
-      <c r="I63" s="18">
+      <c r="I63" s="21">
         <v>15307.4</v>
       </c>
-      <c r="J63" s="18">
+      <c r="J63" s="21">
         <v>18606.599999999999</v>
       </c>
-      <c r="K63" s="18">
+      <c r="K63" s="21">
         <v>17807.599999999999</v>
       </c>
-      <c r="L63" s="18">
+      <c r="L63" s="21">
         <v>18437.099999999999</v>
       </c>
-      <c r="M63" s="25">
+      <c r="M63" s="28">
         <v>19087.8</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="11" t="s">
+      <c r="N63" s="29">
+        <v>18680.3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="B64" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D64" s="28">
+      <c r="D64" s="33">
         <v>8192.7999999999993</v>
       </c>
-      <c r="E64" s="28">
+      <c r="E64" s="33">
         <v>8232.4</v>
       </c>
-      <c r="F64" s="28">
+      <c r="F64" s="33">
         <v>9269.2000000000007</v>
       </c>
-      <c r="G64" s="28">
+      <c r="G64" s="33">
         <v>10565.2</v>
       </c>
-      <c r="H64" s="28">
+      <c r="H64" s="33">
         <v>12664</v>
       </c>
-      <c r="I64" s="28">
+      <c r="I64" s="33">
         <v>14474.7</v>
       </c>
-      <c r="J64" s="28">
+      <c r="J64" s="33">
         <v>19061.7</v>
       </c>
-      <c r="K64" s="28">
+      <c r="K64" s="33">
         <v>11649.5</v>
       </c>
-      <c r="L64" s="28">
+      <c r="L64" s="33">
         <v>12252.4</v>
       </c>
-      <c r="M64" s="29">
+      <c r="M64" s="34">
         <v>12358.5</v>
+      </c>
+      <c r="N64" s="35">
+        <v>12463.9</v>
       </c>
     </row>
   </sheetData>

--- a/untranslated/downloads/data-excel/8.5.1.1.xlsx
+++ b/untranslated/downloads/data-excel/8.5.1.1.xlsx
@@ -262,7 +262,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -380,7 +380,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -773,9 +773,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N64"/>
+  <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -784,7 +786,7 @@
     <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>43</v>
       </c>
@@ -804,7 +806,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>74</v>
       </c>
@@ -815,7 +817,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -829,7 +831,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>69</v>
       </c>
@@ -872,8 +874,11 @@
       <c r="N4" s="15">
         <v>2021</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O4" s="15">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>47</v>
       </c>
@@ -916,8 +921,11 @@
       <c r="N5" s="20">
         <v>19330</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O5" s="20">
+        <v>27683.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>48</v>
       </c>
@@ -960,8 +968,11 @@
       <c r="N6" s="21">
         <v>16524.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O6" s="21">
+        <v>24954.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>49</v>
       </c>
@@ -1004,8 +1015,11 @@
       <c r="N7" s="21">
         <v>21999</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O7" s="21">
+        <v>31353.200000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>50</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="N8" s="27">
         <v>10336</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O8" s="27">
+        <v>20225.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>48</v>
       </c>
@@ -1086,8 +1103,11 @@
       <c r="N9" s="29">
         <v>9132.2000000000007</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O9" s="29">
+        <v>21514</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>49</v>
       </c>
@@ -1130,8 +1150,11 @@
       <c r="N10" s="29">
         <v>10583.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O10" s="29">
+        <v>19900.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>51</v>
       </c>
@@ -1168,8 +1191,11 @@
       <c r="N11" s="27">
         <v>31898</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O11" s="27">
+        <v>43159.199999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>48</v>
       </c>
@@ -1212,8 +1238,11 @@
       <c r="N12" s="29">
         <v>30577.599999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O12" s="29">
+        <v>39796.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>49</v>
       </c>
@@ -1256,8 +1285,11 @@
       <c r="N13" s="29">
         <v>40658.300000000003</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O13" s="29">
+        <v>43595.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>52</v>
       </c>
@@ -1294,8 +1326,11 @@
       <c r="N14" s="27">
         <v>35392</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O14" s="27">
+        <v>27079.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>48</v>
       </c>
@@ -1338,8 +1373,11 @@
       <c r="N15" s="29">
         <v>17546.900000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O15" s="29">
+        <v>21245.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>49</v>
       </c>
@@ -1382,8 +1420,11 @@
       <c r="N16" s="29">
         <v>24272.3</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O16" s="29">
+        <v>30178.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>53</v>
       </c>
@@ -1420,8 +1461,11 @@
       <c r="N17" s="27">
         <v>30821</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O17" s="27">
+        <v>34707.199999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>48</v>
       </c>
@@ -1464,8 +1508,11 @@
       <c r="N18" s="29">
         <v>29452.400000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O18" s="29">
+        <v>31299.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>49</v>
       </c>
@@ -1508,8 +1555,11 @@
       <c r="N19" s="29">
         <v>30906.3</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O19" s="29">
+        <v>35538.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
         <v>54</v>
       </c>
@@ -1546,8 +1596,11 @@
       <c r="N20" s="27">
         <v>14686</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O20" s="27">
+        <v>21527.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>48</v>
       </c>
@@ -1590,8 +1643,11 @@
       <c r="N21" s="29">
         <v>14354.9</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O21" s="29">
+        <v>20882.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>49</v>
       </c>
@@ -1634,8 +1690,11 @@
       <c r="N22" s="29">
         <v>18247.400000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O22" s="29">
+        <v>21786.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>55</v>
       </c>
@@ -1672,8 +1731,11 @@
       <c r="N23" s="27">
         <v>16354</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O23" s="27">
+        <v>26375.200000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>48</v>
       </c>
@@ -1716,8 +1778,11 @@
       <c r="N24" s="29">
         <v>18475.7</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O24" s="29">
+        <v>21717.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>49</v>
       </c>
@@ -1760,8 +1825,11 @@
       <c r="N25" s="29">
         <v>24809.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O25" s="29">
+        <v>27335.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
         <v>56</v>
       </c>
@@ -1798,8 +1866,11 @@
       <c r="N26" s="27">
         <v>15681</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O26" s="27">
+        <v>26244.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>48</v>
       </c>
@@ -1842,8 +1913,11 @@
       <c r="N27" s="29">
         <v>18227.2</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O27" s="29">
+        <v>21435.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>49</v>
       </c>
@@ -1886,8 +1960,11 @@
       <c r="N28" s="29">
         <v>21803.7</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O28" s="29">
+        <v>31143.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
         <v>57</v>
       </c>
@@ -1924,8 +2001,11 @@
       <c r="N29" s="27">
         <v>20997</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O29" s="27">
+        <v>30942.400000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>48</v>
       </c>
@@ -1968,8 +2048,11 @@
       <c r="N30" s="29">
         <v>17198.7</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O30" s="29">
+        <v>20516.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>49</v>
       </c>
@@ -2012,8 +2095,11 @@
       <c r="N31" s="29">
         <v>27538.2</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O31" s="29">
+        <v>36018</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
         <v>58</v>
       </c>
@@ -2050,8 +2136,11 @@
       <c r="N32" s="27">
         <v>11665</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O32" s="27">
+        <v>21990.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>48</v>
       </c>
@@ -2094,8 +2183,11 @@
       <c r="N33" s="29">
         <v>16186.1</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O33" s="29">
+        <v>19605.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>49</v>
       </c>
@@ -2138,8 +2230,11 @@
       <c r="N34" s="29">
         <v>17493.400000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O34" s="29">
+        <v>24386.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
         <v>59</v>
       </c>
@@ -2176,8 +2271,11 @@
       <c r="N35" s="27">
         <v>35237</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O35" s="27">
+        <v>51522.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>48</v>
       </c>
@@ -2220,8 +2318,11 @@
       <c r="N36" s="29">
         <v>31872.9</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O36" s="29">
+        <v>42311.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>49</v>
       </c>
@@ -2264,8 +2365,11 @@
       <c r="N37" s="29">
         <v>35404.699999999997</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O37" s="29">
+        <v>56950.400000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>60</v>
       </c>
@@ -2302,8 +2406,11 @@
       <c r="N38" s="27">
         <v>36245</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O38" s="27">
+        <v>46649.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>48</v>
       </c>
@@ -2346,8 +2453,11 @@
       <c r="N39" s="29">
         <v>33125.199999999997</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O39" s="29">
+        <v>40968.300000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>49</v>
       </c>
@@ -2390,8 +2500,11 @@
       <c r="N40" s="29">
         <v>46412.6</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O40" s="29">
+        <v>54331.9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>61</v>
       </c>
@@ -2428,8 +2541,11 @@
       <c r="N41" s="27">
         <v>11881</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O41" s="27">
+        <v>20994.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2588,11 @@
       <c r="N42" s="29">
         <v>16182.8</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O42" s="29">
+        <v>19543.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>49</v>
       </c>
@@ -2516,8 +2635,11 @@
       <c r="N43" s="29">
         <v>17528.2</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O43" s="29">
+        <v>21964.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
         <v>62</v>
       </c>
@@ -2554,8 +2676,11 @@
       <c r="N44" s="27">
         <v>23457</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O44" s="27">
+        <v>32988.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>48</v>
       </c>
@@ -2598,8 +2723,11 @@
       <c r="N45" s="29">
         <v>23399.7</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O45" s="29">
+        <v>30080.1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>49</v>
       </c>
@@ -2642,8 +2770,11 @@
       <c r="N46" s="29">
         <v>25911.200000000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O46" s="29">
+        <v>35496.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
         <v>63</v>
       </c>
@@ -2680,8 +2811,11 @@
       <c r="N47" s="27">
         <v>15277</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O47" s="27">
+        <v>23005.9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>48</v>
       </c>
@@ -2724,8 +2858,11 @@
       <c r="N48" s="29">
         <v>16010.8</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O48" s="29">
+        <v>20251.400000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>49</v>
       </c>
@@ -2768,8 +2905,11 @@
       <c r="N49" s="29">
         <v>18647.900000000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O49" s="29">
+        <v>23657</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
         <v>64</v>
       </c>
@@ -2806,8 +2946,11 @@
       <c r="N50" s="27">
         <v>22684</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O50" s="27">
+        <v>39599.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>48</v>
       </c>
@@ -2850,8 +2993,11 @@
       <c r="N51" s="29">
         <v>18773.7</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O51" s="29">
+        <v>34405.599999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>49</v>
       </c>
@@ -2894,8 +3040,11 @@
       <c r="N52" s="29">
         <v>21832.2</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O52" s="29">
+        <v>42453.4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
         <v>65</v>
       </c>
@@ -2932,8 +3081,11 @@
       <c r="N53" s="27">
         <v>14821</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O53" s="27">
+        <v>24206.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>48</v>
       </c>
@@ -2976,8 +3128,11 @@
       <c r="N54" s="29">
         <v>15042.2</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O54" s="29">
+        <v>24561.3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>49</v>
       </c>
@@ -3020,8 +3175,11 @@
       <c r="N55" s="29">
         <v>14641.8</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O55" s="29">
+        <v>23074.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="12" t="s">
         <v>66</v>
       </c>
@@ -3058,8 +3216,11 @@
       <c r="N56" s="27">
         <v>10966</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O56" s="27">
+        <v>20180.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>48</v>
       </c>
@@ -3102,8 +3263,11 @@
       <c r="N57" s="32">
         <v>14369</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O57" s="32">
+        <v>20337.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>49</v>
       </c>
@@ -3146,8 +3310,11 @@
       <c r="N58" s="32">
         <v>14533.4</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O58" s="32">
+        <v>19575.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
         <v>67</v>
       </c>
@@ -3184,8 +3351,11 @@
       <c r="N59" s="27">
         <v>9502</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="27">
+        <v>20104.099999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>48</v>
       </c>
@@ -3228,8 +3398,11 @@
       <c r="N60" s="29">
         <v>11261</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="29">
+        <v>20456.099999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>49</v>
       </c>
@@ -3272,8 +3445,11 @@
       <c r="N61" s="29">
         <v>10477</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O61" s="29">
+        <v>19611.099999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
         <v>68</v>
       </c>
@@ -3310,8 +3486,11 @@
       <c r="N62" s="32">
         <v>21245</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O62" s="32">
+        <v>17344.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
         <v>48</v>
       </c>
@@ -3354,8 +3533,11 @@
       <c r="N63" s="29">
         <v>18680.3</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O63" s="29">
+        <v>25032.3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>49</v>
       </c>
@@ -3397,6 +3579,9 @@
       </c>
       <c r="N64" s="35">
         <v>12463.9</v>
+      </c>
+      <c r="O64" s="35">
+        <v>7721.8</v>
       </c>
     </row>
   </sheetData>

--- a/untranslated/downloads/data-excel/8.5.1.1.xlsx
+++ b/untranslated/downloads/data-excel/8.5.1.1.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="76">
   <si>
     <t>женщины</t>
   </si>
@@ -255,16 +255,20 @@
   </si>
   <si>
     <t>(сом)</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -315,12 +319,6 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -380,9 +378,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -417,13 +415,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -438,56 +430,59 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -773,11 +768,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O64"/>
+  <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -786,7 +779,7 @@
     <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>43</v>
       </c>
@@ -806,18 +799,18 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -831,7 +824,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>69</v>
       </c>
@@ -841,44 +834,47 @@
       <c r="C4" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="13">
         <v>2011</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="13">
         <v>2012</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="13">
         <v>2013</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="13">
         <v>2014</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="13">
         <v>2015</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="13">
         <v>2016</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="13">
         <v>2017</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="13">
         <v>2018</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="13">
         <v>2019</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="13">
         <v>2020</v>
       </c>
-      <c r="N4" s="15">
+      <c r="N4" s="13">
         <v>2021</v>
       </c>
-      <c r="O4" s="15">
+      <c r="O4" s="13">
         <v>2022</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P4" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>47</v>
       </c>
@@ -888,44 +884,47 @@
       <c r="C5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="14">
         <v>9304</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="14">
         <v>10726.4</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="14">
         <v>11341</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="15">
         <v>12285</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="15">
         <v>13483</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="16">
         <v>14847</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="16">
         <v>15670</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K5" s="16">
         <v>16427</v>
       </c>
-      <c r="L5" s="18">
+      <c r="L5" s="20">
         <v>17232</v>
       </c>
-      <c r="M5" s="19">
+      <c r="M5" s="21">
         <v>18940</v>
       </c>
-      <c r="N5" s="20">
+      <c r="N5" s="21">
         <v>19330</v>
       </c>
-      <c r="O5" s="20">
+      <c r="O5" s="21">
         <v>27683.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P5" s="21">
+        <v>31187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>48</v>
       </c>
@@ -935,44 +934,47 @@
       <c r="C6" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="17">
         <v>8365.6</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="17">
         <v>8700.2999999999993</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="17">
         <v>9113.1</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="17">
         <v>9732.4</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="17">
         <v>11125.3</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="17">
         <v>11742.9</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="17">
         <v>12182.8</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="17">
         <v>12573.5</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="22">
         <v>14421</v>
       </c>
-      <c r="M6" s="21">
+      <c r="M6" s="22">
         <v>15078.2</v>
       </c>
-      <c r="N6" s="21">
+      <c r="N6" s="22">
         <v>16524.2</v>
       </c>
-      <c r="O6" s="21">
+      <c r="O6" s="22">
         <v>24954.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P6" s="22">
+        <v>26950</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>49</v>
       </c>
@@ -982,85 +984,97 @@
       <c r="C7" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="17">
         <v>10675.2</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="17">
         <v>11716.3</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="17">
         <v>12439.5</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="17">
         <v>13694.6</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="17">
         <v>14742.8</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="17">
         <v>15591.5</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="17">
         <v>16802.099999999999</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="17">
         <v>17556.400000000001</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="22">
         <v>18724</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M7" s="22">
         <v>19991.5</v>
       </c>
-      <c r="N7" s="21">
+      <c r="N7" s="22">
         <v>21999</v>
       </c>
-      <c r="O7" s="21">
+      <c r="O7" s="22">
         <v>31353.200000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="P7" s="22">
+        <v>36693</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="30" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="23">
+      <c r="D8" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="27">
         <v>6044</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="16">
         <v>8331</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="16">
         <v>9010</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="16">
         <v>9643</v>
       </c>
-      <c r="K8" s="25">
+      <c r="K8" s="15">
         <v>10084</v>
       </c>
-      <c r="L8" s="25">
+      <c r="L8" s="28">
         <v>10186</v>
       </c>
-      <c r="M8" s="26">
+      <c r="M8" s="29">
         <v>10479</v>
       </c>
-      <c r="N8" s="27">
+      <c r="N8" s="29">
         <v>10336</v>
       </c>
-      <c r="O8" s="27">
+      <c r="O8" s="29">
         <v>20225.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P8" s="29">
+        <v>20450</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>48</v>
       </c>
@@ -1070,44 +1084,47 @@
       <c r="C9" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="17">
         <v>4548.5</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="17">
         <v>4726.7</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="17">
         <v>5230.8</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="17">
         <v>6192.7</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="17">
         <v>7378.6</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="17">
         <v>7390</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="17">
         <v>8497</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="17">
         <v>8905.7000000000007</v>
       </c>
-      <c r="L9" s="21">
+      <c r="L9" s="22">
         <v>9077.1</v>
       </c>
-      <c r="M9" s="28">
+      <c r="M9" s="22">
         <v>9416.2000000000007</v>
       </c>
-      <c r="N9" s="29">
+      <c r="N9" s="22">
         <v>9132.2000000000007</v>
       </c>
-      <c r="O9" s="29">
+      <c r="O9" s="22">
         <v>21514</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P9" s="22">
+        <v>18090</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>49</v>
       </c>
@@ -1117,85 +1134,97 @@
       <c r="C10" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="17">
         <v>4561.6000000000004</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="17">
         <v>4879.8999999999996</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="17">
         <v>5699.4</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="17">
         <v>6074.3</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="17">
         <v>9018.1</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="17">
         <v>8359.7999999999993</v>
       </c>
-      <c r="J10" s="21">
+      <c r="J10" s="17">
         <v>8922.4</v>
       </c>
-      <c r="K10" s="21">
+      <c r="K10" s="17">
         <v>9116.6</v>
       </c>
-      <c r="L10" s="21">
+      <c r="L10" s="22">
         <v>9775.9</v>
       </c>
-      <c r="M10" s="28">
+      <c r="M10" s="22">
         <v>10370.299999999999</v>
       </c>
-      <c r="N10" s="29">
+      <c r="N10" s="22">
         <v>10583.5</v>
       </c>
-      <c r="O10" s="29">
+      <c r="O10" s="22">
         <v>19900.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="P10" s="22">
+        <v>20989</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="30" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="23">
+      <c r="D11" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="27">
         <v>15134</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="16">
         <v>20225</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="16">
         <v>25265</v>
       </c>
-      <c r="J11" s="24">
+      <c r="J11" s="16">
         <v>24254</v>
       </c>
-      <c r="K11" s="25">
+      <c r="K11" s="15">
         <v>26046</v>
       </c>
-      <c r="L11" s="25">
+      <c r="L11" s="28">
         <v>29769</v>
       </c>
-      <c r="M11" s="26">
+      <c r="M11" s="29">
         <v>32688</v>
       </c>
-      <c r="N11" s="27">
+      <c r="N11" s="29">
         <v>31898</v>
       </c>
-      <c r="O11" s="27">
+      <c r="O11" s="29">
         <v>43159.199999999997</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P11" s="29">
+        <v>53261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>48</v>
       </c>
@@ -1205,44 +1234,47 @@
       <c r="C12" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="17">
         <v>10291.1</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="17">
         <v>13648.2</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="17">
         <v>13694.6</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="17">
         <v>14243.4</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="17">
         <v>20206.2</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="17">
         <v>23165.5</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J12" s="17">
         <v>22098.5</v>
       </c>
-      <c r="K12" s="21">
+      <c r="K12" s="17">
         <v>19858.599999999999</v>
       </c>
-      <c r="L12" s="21">
+      <c r="L12" s="22">
         <v>25112.799999999999</v>
       </c>
-      <c r="M12" s="28">
+      <c r="M12" s="22">
         <v>31672.7</v>
       </c>
-      <c r="N12" s="29">
+      <c r="N12" s="22">
         <v>30577.599999999999</v>
       </c>
-      <c r="O12" s="29">
+      <c r="O12" s="22">
         <v>39796.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P12" s="22">
+        <v>50217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>49</v>
       </c>
@@ -1252,85 +1284,97 @@
       <c r="C13" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="17">
         <v>10478.799999999999</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="17">
         <v>17111.099999999999</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="17">
         <v>14402.8</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="17">
         <v>15562.2</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="17">
         <v>20843.900000000001</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="17">
         <v>25767.3</v>
       </c>
-      <c r="J13" s="21">
+      <c r="J13" s="17">
         <v>23738</v>
       </c>
-      <c r="K13" s="21">
+      <c r="K13" s="17">
         <v>26349.599999999999</v>
       </c>
-      <c r="L13" s="21">
+      <c r="L13" s="22">
         <v>29614.3</v>
       </c>
-      <c r="M13" s="28">
+      <c r="M13" s="22">
         <v>30927.200000000001</v>
       </c>
-      <c r="N13" s="29">
+      <c r="N13" s="22">
         <v>40658.300000000003</v>
       </c>
-      <c r="O13" s="29">
+      <c r="O13" s="22">
         <v>43595.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="P13" s="22">
+        <v>53637</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="30" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="23">
+      <c r="D14" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="27">
         <v>18577</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H14" s="16">
         <v>19340</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="16">
         <v>21162</v>
       </c>
-      <c r="J14" s="24">
+      <c r="J14" s="16">
         <v>24026</v>
       </c>
-      <c r="K14" s="25">
+      <c r="K14" s="15">
         <v>24253</v>
       </c>
-      <c r="L14" s="25">
+      <c r="L14" s="28">
         <v>25697</v>
       </c>
-      <c r="M14" s="26">
+      <c r="M14" s="29">
         <v>31221</v>
       </c>
-      <c r="N14" s="27">
+      <c r="N14" s="29">
         <v>35392</v>
       </c>
-      <c r="O14" s="27">
+      <c r="O14" s="29">
         <v>27079.3</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P14" s="29">
+        <v>48577</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>48</v>
       </c>
@@ -1340,44 +1384,47 @@
       <c r="C15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="17">
         <v>7779.9</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="17">
         <v>9583.2000000000007</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="17">
         <v>9506.6</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="17">
         <v>10322</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="17">
         <v>11022.6</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="17">
         <v>11949.9</v>
       </c>
-      <c r="J15" s="21">
+      <c r="J15" s="17">
         <v>12736.5</v>
       </c>
-      <c r="K15" s="21">
+      <c r="K15" s="17">
         <v>13704.7</v>
       </c>
-      <c r="L15" s="21">
+      <c r="L15" s="22">
         <v>15161</v>
       </c>
-      <c r="M15" s="28">
+      <c r="M15" s="22">
         <v>16268</v>
       </c>
-      <c r="N15" s="29">
+      <c r="N15" s="22">
         <v>17546.900000000001</v>
       </c>
-      <c r="O15" s="29">
+      <c r="O15" s="22">
         <v>21245.1</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P15" s="22">
+        <v>30119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>49</v>
       </c>
@@ -1387,85 +1434,97 @@
       <c r="C16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="17">
         <v>10879.1</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="17">
         <v>11594.8</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="17">
         <v>12216.2</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="17">
         <v>13090.4</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="17">
         <v>13740</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="17">
         <v>15076.2</v>
       </c>
-      <c r="J16" s="21">
+      <c r="J16" s="17">
         <v>15802.1</v>
       </c>
-      <c r="K16" s="21">
+      <c r="K16" s="17">
         <v>16711.7</v>
       </c>
-      <c r="L16" s="21">
+      <c r="L16" s="22">
         <v>17658.900000000001</v>
       </c>
-      <c r="M16" s="28">
+      <c r="M16" s="22">
         <v>21044.9</v>
       </c>
-      <c r="N16" s="29">
+      <c r="N16" s="22">
         <v>24272.3</v>
       </c>
-      <c r="O16" s="29">
+      <c r="O16" s="22">
         <v>30178.6</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
+      <c r="P16" s="22">
+        <v>56425</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="30" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="23">
+      <c r="D17" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" s="27">
         <v>20571.599999999999</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H17" s="16">
         <v>23537</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I17" s="16">
         <v>27094</v>
       </c>
-      <c r="J17" s="24">
+      <c r="J17" s="16">
         <v>29528</v>
       </c>
-      <c r="K17" s="25">
+      <c r="K17" s="15">
         <v>30819</v>
       </c>
-      <c r="L17" s="25">
+      <c r="L17" s="28">
         <v>31452</v>
       </c>
-      <c r="M17" s="26">
+      <c r="M17" s="29">
         <v>31297</v>
       </c>
-      <c r="N17" s="27">
+      <c r="N17" s="29">
         <v>30821</v>
       </c>
-      <c r="O17" s="27">
+      <c r="O17" s="29">
         <v>34707.199999999997</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P17" s="29">
+        <v>39449</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>48</v>
       </c>
@@ -1475,44 +1534,47 @@
       <c r="C18" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="17">
         <v>14160.1</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="17">
         <v>18564.400000000001</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="17">
         <v>17006.400000000001</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="17">
         <v>19774.7</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H18" s="17">
         <v>22865.4</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="17">
         <v>23702.799999999999</v>
       </c>
-      <c r="J18" s="21">
+      <c r="J18" s="17">
         <v>24394.9</v>
       </c>
-      <c r="K18" s="21">
+      <c r="K18" s="17">
         <v>24855</v>
       </c>
-      <c r="L18" s="21">
+      <c r="L18" s="22">
         <v>28936.1</v>
       </c>
-      <c r="M18" s="28">
+      <c r="M18" s="22">
         <v>27557.9</v>
       </c>
-      <c r="N18" s="29">
+      <c r="N18" s="22">
         <v>29452.400000000001</v>
       </c>
-      <c r="O18" s="29">
+      <c r="O18" s="22">
         <v>31299.8</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P18" s="22">
+        <v>37406</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>49</v>
       </c>
@@ -1522,85 +1584,97 @@
       <c r="C19" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="17">
         <v>15121.5</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="17">
         <v>18018.099999999999</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="17">
         <v>17317.900000000001</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="17">
         <v>19512.8</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="17">
         <v>23517.5</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="17">
         <v>24212.7</v>
       </c>
-      <c r="J19" s="21">
+      <c r="J19" s="17">
         <v>24266.400000000001</v>
       </c>
-      <c r="K19" s="21">
+      <c r="K19" s="17">
         <v>26772.1</v>
       </c>
-      <c r="L19" s="21">
+      <c r="L19" s="22">
         <v>29039.9</v>
       </c>
-      <c r="M19" s="28">
+      <c r="M19" s="22">
         <v>28338.9</v>
       </c>
-      <c r="N19" s="29">
+      <c r="N19" s="22">
         <v>30906.3</v>
       </c>
-      <c r="O19" s="29">
+      <c r="O19" s="22">
         <v>35538.1</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
+      <c r="P19" s="22">
+        <v>39870</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="30" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="23">
+      <c r="D20" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="27">
         <v>9329.7999999999993</v>
       </c>
-      <c r="H20" s="24">
+      <c r="H20" s="16">
         <v>10833</v>
       </c>
-      <c r="I20" s="24">
+      <c r="I20" s="16">
         <v>11478</v>
       </c>
-      <c r="J20" s="24">
+      <c r="J20" s="16">
         <v>11802</v>
       </c>
-      <c r="K20" s="25">
+      <c r="K20" s="15">
         <v>12367</v>
       </c>
-      <c r="L20" s="25">
+      <c r="L20" s="28">
         <v>12824</v>
       </c>
-      <c r="M20" s="26">
+      <c r="M20" s="29">
         <v>14781</v>
       </c>
-      <c r="N20" s="27">
+      <c r="N20" s="29">
         <v>14686</v>
       </c>
-      <c r="O20" s="27">
+      <c r="O20" s="29">
         <v>21527.1</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P20" s="29">
+        <v>26349</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>48</v>
       </c>
@@ -1610,44 +1684,47 @@
       <c r="C21" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="17">
         <v>7097.9</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="17">
         <v>7874.8</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="17">
         <v>8309.5</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21" s="17">
         <v>8752.5</v>
       </c>
-      <c r="H21" s="21">
+      <c r="H21" s="17">
         <v>9335.7000000000007</v>
       </c>
-      <c r="I21" s="21">
+      <c r="I21" s="17">
         <v>10668.2</v>
       </c>
-      <c r="J21" s="21">
+      <c r="J21" s="17">
         <v>11217</v>
       </c>
-      <c r="K21" s="21">
+      <c r="K21" s="17">
         <v>11809.7</v>
       </c>
-      <c r="L21" s="21">
+      <c r="L21" s="22">
         <v>14491.6</v>
       </c>
-      <c r="M21" s="28">
+      <c r="M21" s="22">
         <v>14552.2</v>
       </c>
-      <c r="N21" s="29">
+      <c r="N21" s="22">
         <v>14354.9</v>
       </c>
-      <c r="O21" s="29">
+      <c r="O21" s="22">
         <v>20882.3</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P21" s="22">
+        <v>24743</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>49</v>
       </c>
@@ -1657,85 +1734,97 @@
       <c r="C22" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="17">
         <v>8512.1</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="17">
         <v>9348.2999999999993</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="17">
         <v>10479.9</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="17">
         <v>12181.5</v>
       </c>
-      <c r="H22" s="21">
+      <c r="H22" s="17">
         <v>11772.3</v>
       </c>
-      <c r="I22" s="21">
+      <c r="I22" s="17">
         <v>12166.8</v>
       </c>
-      <c r="J22" s="21">
+      <c r="J22" s="17">
         <v>13276.3</v>
       </c>
-      <c r="K22" s="21">
+      <c r="K22" s="17">
         <v>14015.9</v>
       </c>
-      <c r="L22" s="21">
+      <c r="L22" s="22">
         <v>14979.6</v>
       </c>
-      <c r="M22" s="28">
+      <c r="M22" s="22">
         <v>16785.599999999999</v>
       </c>
-      <c r="N22" s="29">
+      <c r="N22" s="22">
         <v>18247.400000000001</v>
       </c>
-      <c r="O22" s="29">
+      <c r="O22" s="22">
         <v>21786.6</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
+      <c r="P22" s="22">
+        <v>26975</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" s="30" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="23">
+      <c r="D23" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="27">
         <v>10007</v>
       </c>
-      <c r="H23" s="24">
+      <c r="H23" s="16">
         <v>11959</v>
       </c>
-      <c r="I23" s="24">
+      <c r="I23" s="16">
         <v>12384</v>
       </c>
-      <c r="J23" s="24">
+      <c r="J23" s="16">
         <v>13156</v>
       </c>
-      <c r="K23" s="25">
+      <c r="K23" s="15">
         <v>14549</v>
       </c>
-      <c r="L23" s="25">
+      <c r="L23" s="28">
         <v>14853</v>
       </c>
-      <c r="M23" s="26">
+      <c r="M23" s="29">
         <v>15748</v>
       </c>
-      <c r="N23" s="27">
+      <c r="N23" s="29">
         <v>16354</v>
       </c>
-      <c r="O23" s="27">
+      <c r="O23" s="29">
         <v>26375.200000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P23" s="29">
+        <v>33316</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>48</v>
       </c>
@@ -1745,44 +1834,47 @@
       <c r="C24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="17">
         <v>7461.7</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="17">
         <v>8708.7999999999993</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="17">
         <v>10101</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G24" s="17">
         <v>8990.4</v>
       </c>
-      <c r="H24" s="21">
+      <c r="H24" s="17">
         <v>8991.5</v>
       </c>
-      <c r="I24" s="21">
+      <c r="I24" s="17">
         <v>11706.6</v>
       </c>
-      <c r="J24" s="21">
+      <c r="J24" s="17">
         <v>14489.9</v>
       </c>
-      <c r="K24" s="21">
+      <c r="K24" s="17">
         <v>13824.4</v>
       </c>
-      <c r="L24" s="21">
+      <c r="L24" s="22">
         <v>15478.4</v>
       </c>
-      <c r="M24" s="28">
+      <c r="M24" s="22">
         <v>14581.4</v>
       </c>
-      <c r="N24" s="29">
+      <c r="N24" s="22">
         <v>18475.7</v>
       </c>
-      <c r="O24" s="29">
+      <c r="O24" s="22">
         <v>21717.1</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P24" s="22">
+        <v>28056</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>49</v>
       </c>
@@ -1792,85 +1884,97 @@
       <c r="C25" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="17">
         <v>9692.9</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="17">
         <v>10047.4</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="17">
         <v>10554.2</v>
       </c>
-      <c r="G25" s="21">
+      <c r="G25" s="17">
         <v>11811.2</v>
       </c>
-      <c r="H25" s="21">
+      <c r="H25" s="17">
         <v>11689.2</v>
       </c>
-      <c r="I25" s="21">
+      <c r="I25" s="17">
         <v>14730.1</v>
       </c>
-      <c r="J25" s="21">
+      <c r="J25" s="17">
         <v>16612.5</v>
       </c>
-      <c r="K25" s="21">
+      <c r="K25" s="17">
         <v>16640.2</v>
       </c>
-      <c r="L25" s="21">
+      <c r="L25" s="22">
         <v>20339.099999999999</v>
       </c>
-      <c r="M25" s="28">
+      <c r="M25" s="22">
         <v>18540.3</v>
       </c>
-      <c r="N25" s="29">
+      <c r="N25" s="22">
         <v>24809.5</v>
       </c>
-      <c r="O25" s="29">
+      <c r="O25" s="22">
         <v>27335.1</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="s">
+      <c r="P25" s="22">
+        <v>34402</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="30" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="23">
+      <c r="D26" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="G26" s="27">
         <v>12361</v>
       </c>
-      <c r="H26" s="24">
+      <c r="H26" s="16">
         <v>12648</v>
       </c>
-      <c r="I26" s="24">
+      <c r="I26" s="16">
         <v>13150</v>
       </c>
-      <c r="J26" s="24">
+      <c r="J26" s="16">
         <v>13958</v>
       </c>
-      <c r="K26" s="25">
+      <c r="K26" s="15">
         <v>14417</v>
       </c>
-      <c r="L26" s="25">
+      <c r="L26" s="28">
         <v>14109</v>
       </c>
-      <c r="M26" s="26">
+      <c r="M26" s="29">
         <v>14926</v>
       </c>
-      <c r="N26" s="27">
+      <c r="N26" s="29">
         <v>15681</v>
       </c>
-      <c r="O26" s="27">
+      <c r="O26" s="29">
         <v>26244.9</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P26" s="29">
+        <v>32559</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>48</v>
       </c>
@@ -1880,44 +1984,47 @@
       <c r="C27" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="17">
         <v>10848.1</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="17">
         <v>10912.9</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="17">
         <v>11559.5</v>
       </c>
-      <c r="G27" s="21">
+      <c r="G27" s="17">
         <v>13767.4</v>
       </c>
-      <c r="H27" s="21">
+      <c r="H27" s="17">
         <v>12455.4</v>
       </c>
-      <c r="I27" s="21">
+      <c r="I27" s="17">
         <v>14647.7</v>
       </c>
-      <c r="J27" s="21">
+      <c r="J27" s="17">
         <v>14808.3</v>
       </c>
-      <c r="K27" s="21">
+      <c r="K27" s="17">
         <v>16022.1</v>
       </c>
-      <c r="L27" s="21">
+      <c r="L27" s="22">
         <v>16246.1</v>
       </c>
-      <c r="M27" s="28">
+      <c r="M27" s="22">
         <v>16290.8</v>
       </c>
-      <c r="N27" s="29">
+      <c r="N27" s="22">
         <v>18227.2</v>
       </c>
-      <c r="O27" s="29">
+      <c r="O27" s="22">
         <v>21435.8</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P27" s="22">
+        <v>28396</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>49</v>
       </c>
@@ -1927,85 +2034,97 @@
       <c r="C28" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="17">
         <v>13252</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="17">
         <v>14999.1</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28" s="17">
         <v>15591.8</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G28" s="17">
         <v>17200.5</v>
       </c>
-      <c r="H28" s="21">
+      <c r="H28" s="17">
         <v>15170.8</v>
       </c>
-      <c r="I28" s="21">
+      <c r="I28" s="17">
         <v>17360.8</v>
       </c>
-      <c r="J28" s="21">
+      <c r="J28" s="17">
         <v>16556.2</v>
       </c>
-      <c r="K28" s="21">
+      <c r="K28" s="17">
         <v>17624.099999999999</v>
       </c>
-      <c r="L28" s="21">
+      <c r="L28" s="22">
         <v>19132.8</v>
       </c>
-      <c r="M28" s="28">
+      <c r="M28" s="22">
         <v>19391.7</v>
       </c>
-      <c r="N28" s="29">
+      <c r="N28" s="22">
         <v>21803.7</v>
       </c>
-      <c r="O28" s="29">
+      <c r="O28" s="22">
         <v>31143.1</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
+      <c r="P28" s="22">
+        <v>36608</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="30" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="23">
+      <c r="D29" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="G29" s="27">
         <v>16133</v>
       </c>
-      <c r="H29" s="24">
+      <c r="H29" s="16">
         <v>18143</v>
       </c>
-      <c r="I29" s="24">
+      <c r="I29" s="16">
         <v>19862</v>
       </c>
-      <c r="J29" s="24">
+      <c r="J29" s="16">
         <v>22617</v>
       </c>
-      <c r="K29" s="25">
+      <c r="K29" s="15">
         <v>23037</v>
       </c>
-      <c r="L29" s="25">
+      <c r="L29" s="28">
         <v>23141</v>
       </c>
-      <c r="M29" s="26">
+      <c r="M29" s="29">
         <v>21060</v>
       </c>
-      <c r="N29" s="27">
+      <c r="N29" s="29">
         <v>20997</v>
       </c>
-      <c r="O29" s="27">
+      <c r="O29" s="29">
         <v>30942.400000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P29" s="29">
+        <v>35093</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>48</v>
       </c>
@@ -2015,44 +2134,47 @@
       <c r="C30" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="17">
         <v>9395.1</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="17">
         <v>10325</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30" s="17">
         <v>11036.2</v>
       </c>
-      <c r="G30" s="21">
+      <c r="G30" s="17">
         <v>13857.9</v>
       </c>
-      <c r="H30" s="21">
+      <c r="H30" s="17">
         <v>14205.6</v>
       </c>
-      <c r="I30" s="21">
+      <c r="I30" s="17">
         <v>13837.2</v>
       </c>
-      <c r="J30" s="21">
+      <c r="J30" s="17">
         <v>16074.1</v>
       </c>
-      <c r="K30" s="21">
+      <c r="K30" s="17">
         <v>14876.6</v>
       </c>
-      <c r="L30" s="21">
+      <c r="L30" s="22">
         <v>15182.1</v>
       </c>
-      <c r="M30" s="28">
+      <c r="M30" s="22">
         <v>15782.1</v>
       </c>
-      <c r="N30" s="29">
+      <c r="N30" s="22">
         <v>17198.7</v>
       </c>
-      <c r="O30" s="29">
+      <c r="O30" s="22">
         <v>20516.3</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P30" s="22">
+        <v>24152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>49</v>
       </c>
@@ -2062,85 +2184,97 @@
       <c r="C31" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="17">
         <v>12164.4</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31" s="17">
         <v>15698.9</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F31" s="17">
         <v>17090.7</v>
       </c>
-      <c r="G31" s="21">
+      <c r="G31" s="17">
         <v>21369.200000000001</v>
       </c>
-      <c r="H31" s="21">
+      <c r="H31" s="17">
         <v>22780</v>
       </c>
-      <c r="I31" s="21">
+      <c r="I31" s="17">
         <v>22726.5</v>
       </c>
-      <c r="J31" s="21">
+      <c r="J31" s="17">
         <v>25482.6</v>
       </c>
-      <c r="K31" s="21">
+      <c r="K31" s="17">
         <v>25678.1</v>
       </c>
-      <c r="L31" s="21">
+      <c r="L31" s="22">
         <v>24925.1</v>
       </c>
-      <c r="M31" s="28">
+      <c r="M31" s="22">
         <v>24799.1</v>
       </c>
-      <c r="N31" s="29">
+      <c r="N31" s="22">
         <v>27538.2</v>
       </c>
-      <c r="O31" s="29">
+      <c r="O31" s="22">
         <v>36018</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="12" t="s">
+      <c r="P31" s="22">
+        <v>40286</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" s="30" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="23">
+      <c r="D32" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="G32" s="27">
         <v>8813.1</v>
       </c>
-      <c r="H32" s="24">
+      <c r="H32" s="16">
         <v>9553</v>
       </c>
-      <c r="I32" s="24">
+      <c r="I32" s="16">
         <v>10265</v>
       </c>
-      <c r="J32" s="24">
+      <c r="J32" s="16">
         <v>11138</v>
       </c>
-      <c r="K32" s="25">
+      <c r="K32" s="15">
         <v>12003</v>
       </c>
-      <c r="L32" s="25">
+      <c r="L32" s="28">
         <v>12577</v>
       </c>
-      <c r="M32" s="26">
+      <c r="M32" s="29">
         <v>12863</v>
       </c>
-      <c r="N32" s="27">
+      <c r="N32" s="29">
         <v>11665</v>
       </c>
-      <c r="O32" s="27">
+      <c r="O32" s="29">
         <v>21990.9</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P32" s="29">
+        <v>26337</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>48</v>
       </c>
@@ -2150,44 +2284,47 @@
       <c r="C33" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="17">
         <v>7487.3</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33" s="17">
         <v>10012.700000000001</v>
       </c>
-      <c r="F33" s="21">
+      <c r="F33" s="17">
         <v>9877.6</v>
       </c>
-      <c r="G33" s="21">
+      <c r="G33" s="17">
         <v>9314.5</v>
       </c>
-      <c r="H33" s="21">
+      <c r="H33" s="17">
         <v>9799.1</v>
       </c>
-      <c r="I33" s="21">
+      <c r="I33" s="17">
         <v>9837.6</v>
       </c>
-      <c r="J33" s="21">
+      <c r="J33" s="17">
         <v>11401.1</v>
       </c>
-      <c r="K33" s="21">
+      <c r="K33" s="17">
         <v>12791</v>
       </c>
-      <c r="L33" s="21">
+      <c r="L33" s="22">
         <v>14685.6</v>
       </c>
-      <c r="M33" s="28">
+      <c r="M33" s="22">
         <v>16302.5</v>
       </c>
-      <c r="N33" s="29">
+      <c r="N33" s="22">
         <v>16186.1</v>
       </c>
-      <c r="O33" s="29">
+      <c r="O33" s="22">
         <v>19605.8</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P33" s="22">
+        <v>24917</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>49</v>
       </c>
@@ -2197,85 +2334,97 @@
       <c r="C34" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D34" s="17">
         <v>10371.4</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="17">
         <v>10772.3</v>
       </c>
-      <c r="F34" s="21">
+      <c r="F34" s="17">
         <v>11218.6</v>
       </c>
-      <c r="G34" s="21">
+      <c r="G34" s="17">
         <v>12369.8</v>
       </c>
-      <c r="H34" s="21">
+      <c r="H34" s="17">
         <v>12729.2</v>
       </c>
-      <c r="I34" s="21">
+      <c r="I34" s="17">
         <v>13681.8</v>
       </c>
-      <c r="J34" s="21">
+      <c r="J34" s="17">
         <v>11978.9</v>
       </c>
-      <c r="K34" s="21">
+      <c r="K34" s="17">
         <v>15929.9</v>
       </c>
-      <c r="L34" s="21">
+      <c r="L34" s="22">
         <v>17239.900000000001</v>
       </c>
-      <c r="M34" s="28">
+      <c r="M34" s="22">
         <v>18672.5</v>
       </c>
-      <c r="N34" s="29">
+      <c r="N34" s="22">
         <v>17493.400000000001</v>
       </c>
-      <c r="O34" s="29">
+      <c r="O34" s="22">
         <v>24386.7</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="13" t="s">
+      <c r="P34" s="22">
+        <v>27814</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" s="30" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="25">
+      <c r="D35" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="G35" s="15">
         <v>21862</v>
       </c>
-      <c r="H35" s="24">
+      <c r="H35" s="16">
         <v>24678</v>
       </c>
-      <c r="I35" s="24">
+      <c r="I35" s="16">
         <v>26204</v>
       </c>
-      <c r="J35" s="24">
+      <c r="J35" s="16">
         <v>28160</v>
       </c>
-      <c r="K35" s="25">
+      <c r="K35" s="15">
         <v>30707</v>
       </c>
-      <c r="L35" s="25">
+      <c r="L35" s="28">
         <v>29713</v>
       </c>
-      <c r="M35" s="26">
+      <c r="M35" s="29">
         <v>35114</v>
       </c>
-      <c r="N35" s="27">
+      <c r="N35" s="29">
         <v>35237</v>
       </c>
-      <c r="O35" s="27">
+      <c r="O35" s="29">
         <v>51522.6</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P35" s="29">
+        <v>59381</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>48</v>
       </c>
@@ -2285,44 +2434,47 @@
       <c r="C36" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D36" s="17">
         <v>14988.1</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E36" s="17">
         <v>15828.9</v>
       </c>
-      <c r="F36" s="21">
+      <c r="F36" s="17">
         <v>18211.400000000001</v>
       </c>
-      <c r="G36" s="21">
+      <c r="G36" s="17">
         <v>18929.5</v>
       </c>
-      <c r="H36" s="21">
+      <c r="H36" s="17">
         <v>19306.400000000001</v>
       </c>
-      <c r="I36" s="21">
+      <c r="I36" s="17">
         <v>27087.599999999999</v>
       </c>
-      <c r="J36" s="21">
+      <c r="J36" s="17">
         <v>24367</v>
       </c>
-      <c r="K36" s="21">
+      <c r="K36" s="17">
         <v>26919.8</v>
       </c>
-      <c r="L36" s="21">
+      <c r="L36" s="22">
         <v>30636.9</v>
       </c>
-      <c r="M36" s="28">
+      <c r="M36" s="22">
         <v>29827.200000000001</v>
       </c>
-      <c r="N36" s="29">
+      <c r="N36" s="22">
         <v>31872.9</v>
       </c>
-      <c r="O36" s="29">
+      <c r="O36" s="22">
         <v>42311.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P36" s="22">
+        <v>53829</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>49</v>
       </c>
@@ -2332,85 +2484,97 @@
       <c r="C37" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D37" s="21">
+      <c r="D37" s="17">
         <v>19715.7</v>
       </c>
-      <c r="E37" s="21">
+      <c r="E37" s="17">
         <v>21524.7</v>
       </c>
-      <c r="F37" s="21">
+      <c r="F37" s="17">
         <v>24850.9</v>
       </c>
-      <c r="G37" s="21">
+      <c r="G37" s="17">
         <v>24702.2</v>
       </c>
-      <c r="H37" s="21">
+      <c r="H37" s="17">
         <v>28211.8</v>
       </c>
-      <c r="I37" s="21">
+      <c r="I37" s="17">
         <v>24422.400000000001</v>
       </c>
-      <c r="J37" s="21">
+      <c r="J37" s="17">
         <v>30262.799999999999</v>
       </c>
-      <c r="K37" s="21">
+      <c r="K37" s="17">
         <v>39038.199999999997</v>
       </c>
-      <c r="L37" s="21">
+      <c r="L37" s="22">
         <v>36272.199999999997</v>
       </c>
-      <c r="M37" s="28">
+      <c r="M37" s="22">
         <v>39569.199999999997</v>
       </c>
-      <c r="N37" s="29">
+      <c r="N37" s="22">
         <v>35404.699999999997</v>
       </c>
-      <c r="O37" s="29">
+      <c r="O37" s="22">
         <v>56950.400000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="13" t="s">
+      <c r="P37" s="22">
+        <v>62650</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="25">
+      <c r="D38" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F38" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="G38" s="15">
         <v>27066</v>
       </c>
-      <c r="H38" s="24">
+      <c r="H38" s="16">
         <v>26903</v>
       </c>
-      <c r="I38" s="24">
+      <c r="I38" s="16">
         <v>30157</v>
       </c>
-      <c r="J38" s="24">
+      <c r="J38" s="16">
         <v>33038</v>
       </c>
-      <c r="K38" s="25">
+      <c r="K38" s="15">
         <v>34019</v>
       </c>
-      <c r="L38" s="25">
+      <c r="L38" s="28">
         <v>35637</v>
       </c>
-      <c r="M38" s="26">
+      <c r="M38" s="29">
         <v>35343</v>
       </c>
-      <c r="N38" s="27">
+      <c r="N38" s="29">
         <v>36245</v>
       </c>
-      <c r="O38" s="27">
+      <c r="O38" s="29">
         <v>46649.3</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P38" s="29">
+        <v>53533</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>48</v>
       </c>
@@ -2420,44 +2584,47 @@
       <c r="C39" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="21">
+      <c r="D39" s="17">
         <v>18256.900000000001</v>
       </c>
-      <c r="E39" s="21">
+      <c r="E39" s="17">
         <v>19804.3</v>
       </c>
-      <c r="F39" s="21">
+      <c r="F39" s="17">
         <v>21181.1</v>
       </c>
-      <c r="G39" s="21">
+      <c r="G39" s="17">
         <v>24106.799999999999</v>
       </c>
-      <c r="H39" s="21">
+      <c r="H39" s="17">
         <v>24028</v>
       </c>
-      <c r="I39" s="21">
+      <c r="I39" s="17">
         <v>24482.400000000001</v>
       </c>
-      <c r="J39" s="21">
+      <c r="J39" s="17">
         <v>24810.5</v>
       </c>
-      <c r="K39" s="21">
+      <c r="K39" s="17">
         <v>28331</v>
       </c>
-      <c r="L39" s="21">
+      <c r="L39" s="22">
         <v>31556.2</v>
       </c>
-      <c r="M39" s="28">
+      <c r="M39" s="22">
         <v>31531.5</v>
       </c>
-      <c r="N39" s="29">
+      <c r="N39" s="22">
         <v>33125.199999999997</v>
       </c>
-      <c r="O39" s="29">
+      <c r="O39" s="22">
         <v>40968.300000000003</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P39" s="22">
+        <v>46366</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>49</v>
       </c>
@@ -2467,85 +2634,97 @@
       <c r="C40" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="21">
+      <c r="D40" s="17">
         <v>23772.5</v>
       </c>
-      <c r="E40" s="21">
+      <c r="E40" s="17">
         <v>25192</v>
       </c>
-      <c r="F40" s="21">
+      <c r="F40" s="17">
         <v>26902.3</v>
       </c>
-      <c r="G40" s="21">
+      <c r="G40" s="17">
         <v>32503.3</v>
       </c>
-      <c r="H40" s="21">
+      <c r="H40" s="17">
         <v>31556.2</v>
       </c>
-      <c r="I40" s="21">
+      <c r="I40" s="17">
         <v>32357</v>
       </c>
-      <c r="J40" s="21">
+      <c r="J40" s="17">
         <v>36351.699999999997</v>
       </c>
-      <c r="K40" s="21">
+      <c r="K40" s="17">
         <v>36192.1</v>
       </c>
-      <c r="L40" s="21">
+      <c r="L40" s="22">
         <v>41375</v>
       </c>
-      <c r="M40" s="28">
+      <c r="M40" s="22">
         <v>42666.9</v>
       </c>
-      <c r="N40" s="29">
+      <c r="N40" s="22">
         <v>46412.6</v>
       </c>
-      <c r="O40" s="29">
+      <c r="O40" s="22">
         <v>54331.9</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="13" t="s">
+      <c r="P40" s="22">
+        <v>63489</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="25">
+      <c r="D41" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F41" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="G41" s="15">
         <v>7938</v>
       </c>
-      <c r="H41" s="24">
+      <c r="H41" s="16">
         <v>9703</v>
       </c>
-      <c r="I41" s="24">
+      <c r="I41" s="16">
         <v>10000</v>
       </c>
-      <c r="J41" s="24">
+      <c r="J41" s="16">
         <v>10086</v>
       </c>
-      <c r="K41" s="25">
+      <c r="K41" s="15">
         <v>11337</v>
       </c>
-      <c r="L41" s="25">
+      <c r="L41" s="28">
         <v>12038</v>
       </c>
-      <c r="M41" s="26">
+      <c r="M41" s="29">
         <v>11408</v>
       </c>
-      <c r="N41" s="27">
+      <c r="N41" s="29">
         <v>11881</v>
       </c>
-      <c r="O41" s="27">
+      <c r="O41" s="29">
         <v>20994.9</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P41" s="29">
+        <v>24994</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>48</v>
       </c>
@@ -2555,44 +2734,47 @@
       <c r="C42" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="21">
+      <c r="D42" s="17">
         <v>6003</v>
       </c>
-      <c r="E42" s="21">
+      <c r="E42" s="17">
         <v>7520.8</v>
       </c>
-      <c r="F42" s="21">
+      <c r="F42" s="17">
         <v>7942.1</v>
       </c>
-      <c r="G42" s="21">
+      <c r="G42" s="17">
         <v>9733.9</v>
       </c>
-      <c r="H42" s="21">
+      <c r="H42" s="17">
         <v>10921.3</v>
       </c>
-      <c r="I42" s="21">
+      <c r="I42" s="17">
         <v>10633.5</v>
       </c>
-      <c r="J42" s="21">
+      <c r="J42" s="17">
         <v>11195.2</v>
       </c>
-      <c r="K42" s="21">
+      <c r="K42" s="17">
         <v>12556.1</v>
       </c>
-      <c r="L42" s="21">
+      <c r="L42" s="22">
         <v>14041</v>
       </c>
-      <c r="M42" s="28">
+      <c r="M42" s="22">
         <v>14029.1</v>
       </c>
-      <c r="N42" s="29">
+      <c r="N42" s="22">
         <v>16182.8</v>
       </c>
-      <c r="O42" s="29">
+      <c r="O42" s="22">
         <v>19543.3</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P42" s="22">
+        <v>24643</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>49</v>
       </c>
@@ -2602,85 +2784,97 @@
       <c r="C43" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="21">
+      <c r="D43" s="17">
         <v>7571.4</v>
       </c>
-      <c r="E43" s="21">
+      <c r="E43" s="17">
         <v>8564.2999999999993</v>
       </c>
-      <c r="F43" s="21">
+      <c r="F43" s="17">
         <v>9644.7000000000007</v>
       </c>
-      <c r="G43" s="21">
+      <c r="G43" s="17">
         <v>10498.3</v>
       </c>
-      <c r="H43" s="21">
+      <c r="H43" s="17">
         <v>12427.6</v>
       </c>
-      <c r="I43" s="21">
+      <c r="I43" s="17">
         <v>12024.1</v>
       </c>
-      <c r="J43" s="21">
+      <c r="J43" s="17">
         <v>13722.1</v>
       </c>
-      <c r="K43" s="21">
+      <c r="K43" s="17">
         <v>13757.5</v>
       </c>
-      <c r="L43" s="21">
+      <c r="L43" s="22">
         <v>14889.7</v>
       </c>
-      <c r="M43" s="28">
+      <c r="M43" s="22">
         <v>16116.4</v>
       </c>
-      <c r="N43" s="29">
+      <c r="N43" s="22">
         <v>17528.2</v>
       </c>
-      <c r="O43" s="29">
+      <c r="O43" s="22">
         <v>21964.1</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="12" t="s">
+      <c r="P43" s="22">
+        <v>25197</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" s="30" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="25">
+      <c r="D44" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E44" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F44" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="G44" s="15">
         <v>15022</v>
       </c>
-      <c r="H44" s="24">
+      <c r="H44" s="16">
         <v>17582</v>
       </c>
-      <c r="I44" s="24">
+      <c r="I44" s="16">
         <v>18197</v>
       </c>
-      <c r="J44" s="24">
+      <c r="J44" s="16">
         <v>20690</v>
       </c>
-      <c r="K44" s="25">
+      <c r="K44" s="15">
         <v>21760</v>
       </c>
-      <c r="L44" s="25">
+      <c r="L44" s="28">
         <v>23566</v>
       </c>
-      <c r="M44" s="26">
+      <c r="M44" s="29">
         <v>24017</v>
       </c>
-      <c r="N44" s="27">
+      <c r="N44" s="29">
         <v>23457</v>
       </c>
-      <c r="O44" s="27">
+      <c r="O44" s="29">
         <v>32988.6</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P44" s="29">
+        <v>38171</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>48</v>
       </c>
@@ -2690,44 +2884,47 @@
       <c r="C45" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D45" s="21">
+      <c r="D45" s="17">
         <v>10690</v>
       </c>
-      <c r="E45" s="21">
+      <c r="E45" s="17">
         <v>12009.8</v>
       </c>
-      <c r="F45" s="21">
+      <c r="F45" s="17">
         <v>12487.8</v>
       </c>
-      <c r="G45" s="21">
+      <c r="G45" s="17">
         <v>13570.4</v>
       </c>
-      <c r="H45" s="21">
+      <c r="H45" s="17">
         <v>17195.099999999999</v>
       </c>
-      <c r="I45" s="21">
+      <c r="I45" s="17">
         <v>13596</v>
       </c>
-      <c r="J45" s="21">
+      <c r="J45" s="17">
         <v>15840.4</v>
       </c>
-      <c r="K45" s="21">
+      <c r="K45" s="17">
         <v>16417</v>
       </c>
-      <c r="L45" s="21">
+      <c r="L45" s="22">
         <v>18913.7</v>
       </c>
-      <c r="M45" s="28">
+      <c r="M45" s="22">
         <v>19644.8</v>
       </c>
-      <c r="N45" s="29">
+      <c r="N45" s="22">
         <v>23399.7</v>
       </c>
-      <c r="O45" s="29">
+      <c r="O45" s="22">
         <v>30080.1</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P45" s="22">
+        <v>34816</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>49</v>
       </c>
@@ -2737,85 +2934,97 @@
       <c r="C46" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="21">
+      <c r="D46" s="17">
         <v>15826.9</v>
       </c>
-      <c r="E46" s="21">
+      <c r="E46" s="17">
         <v>16723.3</v>
       </c>
-      <c r="F46" s="21">
+      <c r="F46" s="17">
         <v>16335.8</v>
       </c>
-      <c r="G46" s="21">
+      <c r="G46" s="17">
         <v>19122.8</v>
       </c>
-      <c r="H46" s="21">
+      <c r="H46" s="17">
         <v>14561.4</v>
       </c>
-      <c r="I46" s="21">
+      <c r="I46" s="17">
         <v>17860.3</v>
       </c>
-      <c r="J46" s="21">
+      <c r="J46" s="17">
         <v>25270.799999999999</v>
       </c>
-      <c r="K46" s="21">
+      <c r="K46" s="17">
         <v>22722.1</v>
       </c>
-      <c r="L46" s="21">
+      <c r="L46" s="22">
         <v>26838.2</v>
       </c>
-      <c r="M46" s="28">
+      <c r="M46" s="22">
         <v>26466.5</v>
       </c>
-      <c r="N46" s="29">
+      <c r="N46" s="22">
         <v>25911.200000000001</v>
       </c>
-      <c r="O46" s="29">
+      <c r="O46" s="22">
         <v>35496.6</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="12" t="s">
+      <c r="P46" s="22">
+        <v>40901</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" s="30" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="25">
+      <c r="D47" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F47" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="G47" s="15">
         <v>10246</v>
       </c>
-      <c r="H47" s="24">
+      <c r="H47" s="16">
         <v>11078</v>
       </c>
-      <c r="I47" s="24">
+      <c r="I47" s="16">
         <v>12263</v>
       </c>
-      <c r="J47" s="24">
+      <c r="J47" s="16">
         <v>11954</v>
       </c>
-      <c r="K47" s="25">
+      <c r="K47" s="15">
         <v>12410</v>
       </c>
-      <c r="L47" s="25">
+      <c r="L47" s="28">
         <v>11973</v>
       </c>
-      <c r="M47" s="26">
+      <c r="M47" s="29">
         <v>14774</v>
       </c>
-      <c r="N47" s="27">
+      <c r="N47" s="29">
         <v>15277</v>
       </c>
-      <c r="O47" s="27">
+      <c r="O47" s="29">
         <v>23005.9</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P47" s="29">
+        <v>25088</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>48</v>
       </c>
@@ -2825,44 +3034,47 @@
       <c r="C48" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D48" s="21">
+      <c r="D48" s="17">
         <v>6066.8</v>
       </c>
-      <c r="E48" s="21">
+      <c r="E48" s="17">
         <v>6684.2</v>
       </c>
-      <c r="F48" s="21">
+      <c r="F48" s="17">
         <v>7577.1</v>
       </c>
-      <c r="G48" s="21">
+      <c r="G48" s="17">
         <v>9014.9</v>
       </c>
-      <c r="H48" s="21">
+      <c r="H48" s="17">
         <v>10734</v>
       </c>
-      <c r="I48" s="21">
+      <c r="I48" s="17">
         <v>10033.799999999999</v>
       </c>
-      <c r="J48" s="21">
+      <c r="J48" s="17">
         <v>11458.3</v>
       </c>
-      <c r="K48" s="21">
+      <c r="K48" s="17">
         <v>10579.6</v>
       </c>
-      <c r="L48" s="21">
+      <c r="L48" s="22">
         <v>11667.4</v>
       </c>
-      <c r="M48" s="28">
+      <c r="M48" s="22">
         <v>13568.9</v>
       </c>
-      <c r="N48" s="29">
+      <c r="N48" s="22">
         <v>16010.8</v>
       </c>
-      <c r="O48" s="29">
+      <c r="O48" s="22">
         <v>20251.400000000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P48" s="22">
+        <v>23018</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>49</v>
       </c>
@@ -2872,85 +3084,97 @@
       <c r="C49" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D49" s="21">
+      <c r="D49" s="17">
         <v>7583.4</v>
       </c>
-      <c r="E49" s="21">
+      <c r="E49" s="17">
         <v>8698.7999999999993</v>
       </c>
-      <c r="F49" s="21">
+      <c r="F49" s="17">
         <v>9330.9</v>
       </c>
-      <c r="G49" s="21">
+      <c r="G49" s="17">
         <v>11180.8</v>
       </c>
-      <c r="H49" s="21">
+      <c r="H49" s="17">
         <v>11421</v>
       </c>
-      <c r="I49" s="21">
+      <c r="I49" s="17">
         <v>11962.3</v>
       </c>
-      <c r="J49" s="21">
+      <c r="J49" s="17">
         <v>12358.4</v>
       </c>
-      <c r="K49" s="21">
+      <c r="K49" s="17">
         <v>13580.1</v>
       </c>
-      <c r="L49" s="21">
+      <c r="L49" s="22">
         <v>13768.2</v>
       </c>
-      <c r="M49" s="28">
+      <c r="M49" s="22">
         <v>16788.3</v>
       </c>
-      <c r="N49" s="29">
+      <c r="N49" s="22">
         <v>18647.900000000001</v>
       </c>
-      <c r="O49" s="29">
+      <c r="O49" s="22">
         <v>23657</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="12" t="s">
+      <c r="P49" s="22">
+        <v>25598</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" s="30" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="25">
+      <c r="D50" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E50" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F50" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="G50" s="15">
         <v>15525.5</v>
       </c>
-      <c r="H50" s="24">
+      <c r="H50" s="16">
         <v>16385</v>
       </c>
-      <c r="I50" s="24">
+      <c r="I50" s="16">
         <v>17297</v>
       </c>
-      <c r="J50" s="24">
+      <c r="J50" s="16">
         <v>18183</v>
       </c>
-      <c r="K50" s="25">
+      <c r="K50" s="15">
         <v>19880</v>
       </c>
-      <c r="L50" s="25">
+      <c r="L50" s="28">
         <v>20750</v>
       </c>
-      <c r="M50" s="26">
+      <c r="M50" s="29">
         <v>22879</v>
       </c>
-      <c r="N50" s="27">
+      <c r="N50" s="29">
         <v>22684</v>
       </c>
-      <c r="O50" s="27">
+      <c r="O50" s="29">
         <v>39599.9</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P50" s="29">
+        <v>39422</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>48</v>
       </c>
@@ -2960,44 +3184,47 @@
       <c r="C51" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D51" s="21">
+      <c r="D51" s="17">
         <v>6571.7</v>
       </c>
-      <c r="E51" s="21">
+      <c r="E51" s="17">
         <v>8196.1</v>
       </c>
-      <c r="F51" s="21">
+      <c r="F51" s="17">
         <v>11594.3</v>
       </c>
-      <c r="G51" s="21">
+      <c r="G51" s="17">
         <v>11765.2</v>
       </c>
-      <c r="H51" s="21">
+      <c r="H51" s="17">
         <v>11975.8</v>
       </c>
-      <c r="I51" s="21">
+      <c r="I51" s="17">
         <v>12925.8</v>
       </c>
-      <c r="J51" s="21">
+      <c r="J51" s="17">
         <v>14505.9</v>
       </c>
-      <c r="K51" s="21">
+      <c r="K51" s="17">
         <v>15652.5</v>
       </c>
-      <c r="L51" s="21">
+      <c r="L51" s="22">
         <v>15487.8</v>
       </c>
-      <c r="M51" s="28">
+      <c r="M51" s="22">
         <v>16846.5</v>
       </c>
-      <c r="N51" s="29">
+      <c r="N51" s="22">
         <v>18773.7</v>
       </c>
-      <c r="O51" s="29">
+      <c r="O51" s="22">
         <v>34405.599999999999</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P51" s="22">
+        <v>35808</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>49</v>
       </c>
@@ -3007,85 +3234,97 @@
       <c r="C52" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D52" s="21">
+      <c r="D52" s="17">
         <v>9048.7000000000007</v>
       </c>
-      <c r="E52" s="21">
+      <c r="E52" s="17">
         <v>10650.3</v>
       </c>
-      <c r="F52" s="21">
+      <c r="F52" s="17">
         <v>13047.5</v>
       </c>
-      <c r="G52" s="21">
+      <c r="G52" s="17">
         <v>14003.1</v>
       </c>
-      <c r="H52" s="21">
+      <c r="H52" s="17">
         <v>14265.1</v>
       </c>
-      <c r="I52" s="21">
+      <c r="I52" s="17">
         <v>15570.6</v>
       </c>
-      <c r="J52" s="21">
+      <c r="J52" s="17">
         <v>17176.2</v>
       </c>
-      <c r="K52" s="21">
+      <c r="K52" s="17">
         <v>18079.900000000001</v>
       </c>
-      <c r="L52" s="21">
+      <c r="L52" s="22">
         <v>17500</v>
       </c>
-      <c r="M52" s="28">
+      <c r="M52" s="22">
         <v>20346.099999999999</v>
       </c>
-      <c r="N52" s="29">
+      <c r="N52" s="22">
         <v>21832.2</v>
       </c>
-      <c r="O52" s="29">
+      <c r="O52" s="22">
         <v>42453.4</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="13" t="s">
+      <c r="P52" s="22">
+        <v>41343</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C53" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="25">
+      <c r="D53" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E53" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F53" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="G53" s="15">
         <v>8204.2999999999993</v>
       </c>
-      <c r="H53" s="24">
+      <c r="H53" s="16">
         <v>9233</v>
       </c>
-      <c r="I53" s="24">
+      <c r="I53" s="16">
         <v>10862</v>
       </c>
-      <c r="J53" s="24">
+      <c r="J53" s="16">
         <v>11095</v>
       </c>
-      <c r="K53" s="25">
+      <c r="K53" s="15">
         <v>11369</v>
       </c>
-      <c r="L53" s="25">
+      <c r="L53" s="28">
         <v>12412</v>
       </c>
-      <c r="M53" s="26">
+      <c r="M53" s="29">
         <v>14764</v>
       </c>
-      <c r="N53" s="27">
+      <c r="N53" s="21">
         <v>14821</v>
       </c>
-      <c r="O53" s="27">
+      <c r="O53" s="29">
         <v>24206.2</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P53" s="21">
+        <v>24848</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>48</v>
       </c>
@@ -3095,44 +3334,47 @@
       <c r="C54" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D54" s="21">
+      <c r="D54" s="17">
         <v>7361.5</v>
       </c>
-      <c r="E54" s="21">
+      <c r="E54" s="17">
         <v>7317.6</v>
       </c>
-      <c r="F54" s="21">
+      <c r="F54" s="17">
         <v>7214.6</v>
       </c>
-      <c r="G54" s="21">
+      <c r="G54" s="17">
         <v>7681.8</v>
       </c>
-      <c r="H54" s="21">
+      <c r="H54" s="17">
         <v>9970.7999999999993</v>
       </c>
-      <c r="I54" s="21">
+      <c r="I54" s="17">
         <v>10536.7</v>
       </c>
-      <c r="J54" s="21">
+      <c r="J54" s="17">
         <v>10748.5</v>
       </c>
-      <c r="K54" s="21">
+      <c r="K54" s="17">
         <v>10691.4</v>
       </c>
-      <c r="L54" s="21">
+      <c r="L54" s="22">
         <v>13319</v>
       </c>
-      <c r="M54" s="28">
+      <c r="M54" s="22">
         <v>14260</v>
       </c>
-      <c r="N54" s="29">
+      <c r="N54" s="22">
         <v>15042.2</v>
       </c>
-      <c r="O54" s="29">
+      <c r="O54" s="22">
         <v>24561.3</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P54" s="22">
+        <v>25171</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>49</v>
       </c>
@@ -3142,85 +3384,97 @@
       <c r="C55" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D55" s="21">
+      <c r="D55" s="17">
         <v>8726.2000000000007</v>
       </c>
-      <c r="E55" s="21">
+      <c r="E55" s="17">
         <v>8140.4</v>
       </c>
-      <c r="F55" s="21">
+      <c r="F55" s="17">
         <v>8411.4</v>
       </c>
-      <c r="G55" s="21">
+      <c r="G55" s="17">
         <v>8499.4</v>
       </c>
-      <c r="H55" s="21">
+      <c r="H55" s="17">
         <v>10479.700000000001</v>
       </c>
-      <c r="I55" s="21">
+      <c r="I55" s="17">
         <v>10653.3</v>
       </c>
-      <c r="J55" s="21">
+      <c r="J55" s="17">
         <v>11155.5</v>
       </c>
-      <c r="K55" s="21">
+      <c r="K55" s="17">
         <v>11006.4</v>
       </c>
-      <c r="L55" s="21">
+      <c r="L55" s="22">
         <v>13163</v>
       </c>
-      <c r="M55" s="28">
+      <c r="M55" s="22">
         <v>14054.9</v>
       </c>
-      <c r="N55" s="29">
+      <c r="N55" s="22">
         <v>14641.8</v>
       </c>
-      <c r="O55" s="29">
+      <c r="O55" s="22">
         <v>23074.5</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="12" t="s">
+      <c r="P55" s="22">
+        <v>23868</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" s="30" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C56" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="25">
+      <c r="D56" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E56" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F56" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="G56" s="15">
         <v>9244</v>
       </c>
-      <c r="H56" s="24">
+      <c r="H56" s="16">
         <v>9381</v>
       </c>
-      <c r="I56" s="24">
+      <c r="I56" s="16">
         <v>9728</v>
       </c>
-      <c r="J56" s="24">
+      <c r="J56" s="16">
         <v>9947</v>
       </c>
-      <c r="K56" s="25">
+      <c r="K56" s="15">
         <v>10313</v>
       </c>
-      <c r="L56" s="25">
+      <c r="L56" s="28">
         <v>10809</v>
       </c>
-      <c r="M56" s="26">
+      <c r="M56" s="29">
         <v>10937</v>
       </c>
-      <c r="N56" s="27">
+      <c r="N56" s="29">
         <v>10966</v>
       </c>
-      <c r="O56" s="27">
+      <c r="O56" s="29">
         <v>20180.2</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P56" s="29">
+        <v>21298</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>48</v>
       </c>
@@ -3230,44 +3484,47 @@
       <c r="C57" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D57" s="30">
+      <c r="D57" s="18">
         <v>9256.1</v>
       </c>
-      <c r="E57" s="30">
+      <c r="E57" s="18">
         <v>8892</v>
       </c>
-      <c r="F57" s="30">
+      <c r="F57" s="18">
         <v>8994.9</v>
       </c>
-      <c r="G57" s="30">
+      <c r="G57" s="18">
         <v>8966.5</v>
       </c>
-      <c r="H57" s="30">
+      <c r="H57" s="18">
         <v>9394.4</v>
       </c>
-      <c r="I57" s="30">
+      <c r="I57" s="18">
         <v>9771.2999999999993</v>
       </c>
-      <c r="J57" s="30">
+      <c r="J57" s="18">
         <v>9927.4</v>
       </c>
-      <c r="K57" s="30">
+      <c r="K57" s="18">
         <v>10481.799999999999</v>
       </c>
-      <c r="L57" s="30">
+      <c r="L57" s="23">
         <v>11152.8</v>
       </c>
-      <c r="M57" s="31">
+      <c r="M57" s="23">
         <v>11052.4</v>
       </c>
-      <c r="N57" s="32">
+      <c r="N57" s="23">
         <v>14369</v>
       </c>
-      <c r="O57" s="32">
+      <c r="O57" s="23">
         <v>20337.5</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P57" s="23">
+        <v>21419</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>49</v>
       </c>
@@ -3277,85 +3534,97 @@
       <c r="C58" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D58" s="30">
+      <c r="D58" s="18">
         <v>9584.5</v>
       </c>
-      <c r="E58" s="30">
+      <c r="E58" s="18">
         <v>9914.5</v>
       </c>
-      <c r="F58" s="30">
+      <c r="F58" s="18">
         <v>8690.2999999999993</v>
       </c>
-      <c r="G58" s="30">
+      <c r="G58" s="18">
         <v>9027.6</v>
       </c>
-      <c r="H58" s="30">
+      <c r="H58" s="18">
         <v>9319</v>
       </c>
-      <c r="I58" s="30">
+      <c r="I58" s="18">
         <v>9519.9</v>
       </c>
-      <c r="J58" s="30">
+      <c r="J58" s="18">
         <v>9677.7000000000007</v>
       </c>
-      <c r="K58" s="30">
+      <c r="K58" s="18">
         <v>9584.5</v>
       </c>
-      <c r="L58" s="30">
+      <c r="L58" s="23">
         <v>10385.1</v>
       </c>
-      <c r="M58" s="31">
+      <c r="M58" s="23">
         <v>10431.4</v>
       </c>
-      <c r="N58" s="32">
+      <c r="N58" s="23">
         <v>14533.4</v>
       </c>
-      <c r="O58" s="32">
+      <c r="O58" s="23">
         <v>19575.5</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="13" t="s">
+      <c r="P58" s="23">
+        <v>20809</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" s="30" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C59" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="25">
+      <c r="D59" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E59" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F59" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="G59" s="15">
         <v>9182</v>
       </c>
-      <c r="H59" s="24">
+      <c r="H59" s="16">
         <v>9741</v>
       </c>
-      <c r="I59" s="24">
+      <c r="I59" s="16">
         <v>9042</v>
       </c>
-      <c r="J59" s="24">
+      <c r="J59" s="16">
         <v>8439</v>
       </c>
-      <c r="K59" s="25">
+      <c r="K59" s="15">
         <v>8616</v>
       </c>
-      <c r="L59" s="25">
+      <c r="L59" s="28">
         <v>8982</v>
       </c>
-      <c r="M59" s="26">
+      <c r="M59" s="29">
         <v>9384</v>
       </c>
-      <c r="N59" s="27">
+      <c r="N59" s="21">
         <v>9502</v>
       </c>
-      <c r="O59" s="27">
+      <c r="O59" s="29">
         <v>20104.099999999999</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="21">
+        <v>20504</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>48</v>
       </c>
@@ -3365,44 +3634,47 @@
       <c r="C60" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D60" s="21">
+      <c r="D60" s="17">
         <v>6350.6</v>
       </c>
-      <c r="E60" s="21">
+      <c r="E60" s="17">
         <v>6399.4</v>
       </c>
-      <c r="F60" s="21">
+      <c r="F60" s="17">
         <v>7565.3</v>
       </c>
-      <c r="G60" s="21">
+      <c r="G60" s="17">
         <v>7696.6</v>
       </c>
-      <c r="H60" s="21">
+      <c r="H60" s="17">
         <v>8553.4</v>
       </c>
-      <c r="I60" s="21">
+      <c r="I60" s="17">
         <v>8752.2999999999993</v>
       </c>
-      <c r="J60" s="21">
+      <c r="J60" s="17">
         <v>8451</v>
       </c>
-      <c r="K60" s="21">
+      <c r="K60" s="17">
         <v>8799.2000000000007</v>
       </c>
-      <c r="L60" s="21">
+      <c r="L60" s="22">
         <v>8886.7000000000007</v>
       </c>
-      <c r="M60" s="28">
+      <c r="M60" s="22">
         <v>9067.9</v>
       </c>
-      <c r="N60" s="29">
+      <c r="N60" s="22">
         <v>11261</v>
       </c>
-      <c r="O60" s="29">
+      <c r="O60" s="22">
         <v>20456.099999999999</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="22">
+        <v>21503</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>49</v>
       </c>
@@ -3412,85 +3684,97 @@
       <c r="C61" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D61" s="21">
+      <c r="D61" s="17">
         <v>7746.8</v>
       </c>
-      <c r="E61" s="21">
+      <c r="E61" s="17">
         <v>6702.8</v>
       </c>
-      <c r="F61" s="21">
+      <c r="F61" s="17">
         <v>8250.6</v>
       </c>
-      <c r="G61" s="21">
+      <c r="G61" s="17">
         <v>8975</v>
       </c>
-      <c r="H61" s="21">
+      <c r="H61" s="17">
         <v>9292.2999999999993</v>
       </c>
-      <c r="I61" s="21">
+      <c r="I61" s="17">
         <v>8221.4</v>
       </c>
-      <c r="J61" s="21">
+      <c r="J61" s="17">
         <v>8179</v>
       </c>
-      <c r="K61" s="21">
+      <c r="K61" s="17">
         <v>8061.2</v>
       </c>
-      <c r="L61" s="21">
+      <c r="L61" s="22">
         <v>8964.4</v>
       </c>
-      <c r="M61" s="28">
+      <c r="M61" s="22">
         <v>9003.9</v>
       </c>
-      <c r="N61" s="29">
+      <c r="N61" s="22">
         <v>10477</v>
       </c>
-      <c r="O61" s="29">
+      <c r="O61" s="22">
         <v>19611.099999999999</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="13" t="s">
+      <c r="P61" s="22">
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" s="30" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B62" s="13" t="s">
+      <c r="B62" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="C62" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="30">
+      <c r="D62" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E62" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F62" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="G62" s="33">
         <v>9810</v>
       </c>
-      <c r="H62" s="24">
+      <c r="H62" s="16">
         <v>12178</v>
       </c>
-      <c r="I62" s="24">
+      <c r="I62" s="16">
         <v>14823</v>
       </c>
-      <c r="J62" s="24">
+      <c r="J62" s="16">
         <v>15454</v>
       </c>
-      <c r="K62" s="30">
+      <c r="K62" s="33">
         <v>15303</v>
       </c>
-      <c r="L62" s="30">
+      <c r="L62" s="34">
         <v>16266</v>
       </c>
-      <c r="M62" s="31">
+      <c r="M62" s="29">
         <v>18927</v>
       </c>
-      <c r="N62" s="32">
+      <c r="N62" s="29">
         <v>21245</v>
       </c>
-      <c r="O62" s="32">
+      <c r="O62" s="29">
         <v>17344.5</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P62" s="29">
+        <v>25877</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
         <v>48</v>
       </c>
@@ -3500,44 +3784,47 @@
       <c r="C63" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D63" s="21">
+      <c r="D63" s="17">
         <v>8458.9</v>
       </c>
-      <c r="E63" s="21">
+      <c r="E63" s="17">
         <v>8608</v>
       </c>
-      <c r="F63" s="21">
+      <c r="F63" s="17">
         <v>9771.5</v>
       </c>
-      <c r="G63" s="21">
+      <c r="G63" s="17">
         <v>11030.5</v>
       </c>
-      <c r="H63" s="21">
+      <c r="H63" s="17">
         <v>12707</v>
       </c>
-      <c r="I63" s="21">
+      <c r="I63" s="17">
         <v>15307.4</v>
       </c>
-      <c r="J63" s="21">
+      <c r="J63" s="17">
         <v>18606.599999999999</v>
       </c>
-      <c r="K63" s="21">
+      <c r="K63" s="17">
         <v>17807.599999999999</v>
       </c>
-      <c r="L63" s="21">
+      <c r="L63" s="22">
         <v>18437.099999999999</v>
       </c>
-      <c r="M63" s="28">
+      <c r="M63" s="22">
         <v>19087.8</v>
       </c>
-      <c r="N63" s="29">
+      <c r="N63" s="22">
         <v>18680.3</v>
       </c>
-      <c r="O63" s="29">
+      <c r="O63" s="22">
         <v>25032.3</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P63" s="22">
+        <v>26657</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>49</v>
       </c>
@@ -3547,41 +3834,44 @@
       <c r="C64" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D64" s="33">
+      <c r="D64" s="19">
         <v>8192.7999999999993</v>
       </c>
-      <c r="E64" s="33">
+      <c r="E64" s="19">
         <v>8232.4</v>
       </c>
-      <c r="F64" s="33">
+      <c r="F64" s="19">
         <v>9269.2000000000007</v>
       </c>
-      <c r="G64" s="33">
+      <c r="G64" s="19">
         <v>10565.2</v>
       </c>
-      <c r="H64" s="33">
+      <c r="H64" s="19">
         <v>12664</v>
       </c>
-      <c r="I64" s="33">
+      <c r="I64" s="19">
         <v>14474.7</v>
       </c>
-      <c r="J64" s="33">
+      <c r="J64" s="19">
         <v>19061.7</v>
       </c>
-      <c r="K64" s="33">
+      <c r="K64" s="19">
         <v>11649.5</v>
       </c>
-      <c r="L64" s="33">
+      <c r="L64" s="24">
         <v>12252.4</v>
       </c>
-      <c r="M64" s="34">
+      <c r="M64" s="24">
         <v>12358.5</v>
       </c>
-      <c r="N64" s="35">
+      <c r="N64" s="24">
         <v>12463.9</v>
       </c>
-      <c r="O64" s="35">
+      <c r="O64" s="24">
         <v>7721.8</v>
+      </c>
+      <c r="P64" s="24">
+        <v>24642</v>
       </c>
     </row>
   </sheetData>
